--- a/docs/excel/必要機能一覧(Zexy以外).xlsx
+++ b/docs/excel/必要機能一覧(Zexy以外).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="90" windowWidth="18180" windowHeight="14850" tabRatio="958" activeTab="4"/>
+    <workbookView xWindow="120" yWindow="90" windowWidth="18180" windowHeight="14850" tabRatio="958" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="必要機能一覧" sheetId="1" r:id="rId1"/>
@@ -6018,15 +6018,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -6035,6 +6026,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -6048,10 +6045,13 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6060,14 +6060,23 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -6076,15 +6085,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
@@ -6105,15 +6105,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -6125,6 +6116,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6874,11 +6874,11 @@
       <c r="D2" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="E2" s="51" t="s">
+      <c r="E2" s="60" t="s">
         <v>33</v>
       </c>
-      <c r="F2" s="52"/>
-      <c r="G2" s="53"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="62"/>
       <c r="H2" s="6" t="s">
         <v>34</v>
       </c>
@@ -6909,9 +6909,9 @@
       <c r="D3" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="E3" s="54"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="56"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="53"/>
       <c r="H3" s="2" t="s">
         <v>82</v>
       </c>
@@ -6934,9 +6934,9 @@
       <c r="D4" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="E4" s="54"/>
-      <c r="F4" s="55"/>
-      <c r="G4" s="56"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="53"/>
       <c r="H4" s="2" t="s">
         <v>85</v>
       </c>
@@ -6959,9 +6959,9 @@
       <c r="D5" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="E5" s="54"/>
-      <c r="F5" s="55"/>
-      <c r="G5" s="56"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="52"/>
+      <c r="G5" s="53"/>
       <c r="H5" s="2" t="s">
         <v>71</v>
       </c>
@@ -6984,9 +6984,9 @@
       <c r="D6" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="E6" s="54"/>
-      <c r="F6" s="55"/>
-      <c r="G6" s="56"/>
+      <c r="E6" s="51"/>
+      <c r="F6" s="52"/>
+      <c r="G6" s="53"/>
       <c r="H6" s="2" t="s">
         <v>88</v>
       </c>
@@ -7009,9 +7009,9 @@
       <c r="D7" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="E7" s="54"/>
-      <c r="F7" s="55"/>
-      <c r="G7" s="56"/>
+      <c r="E7" s="51"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="53"/>
       <c r="H7" s="2" t="s">
         <v>554</v>
       </c>
@@ -7034,9 +7034,9 @@
       <c r="D8" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="E8" s="54"/>
-      <c r="F8" s="55"/>
-      <c r="G8" s="56"/>
+      <c r="E8" s="51"/>
+      <c r="F8" s="52"/>
+      <c r="G8" s="53"/>
       <c r="H8" s="2" t="s">
         <v>93</v>
       </c>
@@ -7059,9 +7059,9 @@
       <c r="D9" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="E9" s="54"/>
-      <c r="F9" s="55"/>
-      <c r="G9" s="56"/>
+      <c r="E9" s="51"/>
+      <c r="F9" s="52"/>
+      <c r="G9" s="53"/>
       <c r="H9" s="2" t="s">
         <v>555</v>
       </c>
@@ -7084,9 +7084,9 @@
       <c r="D10" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="E10" s="54"/>
-      <c r="F10" s="55"/>
-      <c r="G10" s="56"/>
+      <c r="E10" s="51"/>
+      <c r="F10" s="52"/>
+      <c r="G10" s="53"/>
       <c r="H10" s="2" t="s">
         <v>94</v>
       </c>
@@ -7109,9 +7109,9 @@
       <c r="D11" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="E11" s="54"/>
-      <c r="F11" s="55"/>
-      <c r="G11" s="56"/>
+      <c r="E11" s="51"/>
+      <c r="F11" s="52"/>
+      <c r="G11" s="53"/>
       <c r="H11" s="2" t="s">
         <v>96</v>
       </c>
@@ -7134,11 +7134,11 @@
       <c r="D12" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="E12" s="54" t="s">
+      <c r="E12" s="51" t="s">
         <v>97</v>
       </c>
-      <c r="F12" s="55"/>
-      <c r="G12" s="56"/>
+      <c r="F12" s="52"/>
+      <c r="G12" s="53"/>
       <c r="H12" s="2" t="s">
         <v>98</v>
       </c>
@@ -7163,11 +7163,11 @@
       <c r="D13" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="E13" s="54" t="s">
+      <c r="E13" s="51" t="s">
         <v>99</v>
       </c>
-      <c r="F13" s="55"/>
-      <c r="G13" s="56"/>
+      <c r="F13" s="52"/>
+      <c r="G13" s="53"/>
       <c r="H13" s="2" t="s">
         <v>100</v>
       </c>
@@ -7192,11 +7192,11 @@
       <c r="D14" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="E14" s="54" t="s">
+      <c r="E14" s="51" t="s">
         <v>101</v>
       </c>
-      <c r="F14" s="55"/>
-      <c r="G14" s="56"/>
+      <c r="F14" s="52"/>
+      <c r="G14" s="53"/>
       <c r="H14" s="2" t="s">
         <v>43</v>
       </c>
@@ -7221,9 +7221,9 @@
       <c r="D15" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="E15" s="54"/>
-      <c r="F15" s="55"/>
-      <c r="G15" s="56"/>
+      <c r="E15" s="51"/>
+      <c r="F15" s="52"/>
+      <c r="G15" s="53"/>
       <c r="H15" s="2" t="s">
         <v>71</v>
       </c>
@@ -7247,10 +7247,10 @@
       <c r="E16" s="26" t="s">
         <v>104</v>
       </c>
-      <c r="F16" s="61" t="s">
+      <c r="F16" s="54" t="s">
         <v>105</v>
       </c>
-      <c r="G16" s="56"/>
+      <c r="G16" s="53"/>
       <c r="H16" s="13" t="s">
         <v>106</v>
       </c>
@@ -7277,8 +7277,8 @@
       <c r="D17" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="E17" s="57"/>
-      <c r="F17" s="59"/>
+      <c r="E17" s="56"/>
+      <c r="F17" s="58"/>
       <c r="G17" s="27"/>
       <c r="H17" s="2" t="s">
         <v>77</v>
@@ -7302,8 +7302,8 @@
       <c r="D18" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="E18" s="58"/>
-      <c r="F18" s="60"/>
+      <c r="E18" s="57"/>
+      <c r="F18" s="59"/>
       <c r="G18" s="23" t="s">
         <v>107</v>
       </c>
@@ -7331,11 +7331,11 @@
       <c r="D19" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="E19" s="58"/>
-      <c r="F19" s="55" t="s">
+      <c r="E19" s="57"/>
+      <c r="F19" s="52" t="s">
         <v>108</v>
       </c>
-      <c r="G19" s="56"/>
+      <c r="G19" s="53"/>
       <c r="H19" s="2" t="s">
         <v>71</v>
       </c>
@@ -7360,11 +7360,11 @@
       <c r="D20" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="E20" s="54" t="s">
+      <c r="E20" s="51" t="s">
         <v>111</v>
       </c>
-      <c r="F20" s="55"/>
-      <c r="G20" s="56"/>
+      <c r="F20" s="52"/>
+      <c r="G20" s="53"/>
       <c r="H20" s="2" t="s">
         <v>113</v>
       </c>
@@ -7392,10 +7392,10 @@
       <c r="E21" s="28" t="s">
         <v>116</v>
       </c>
-      <c r="F21" s="61" t="s">
+      <c r="F21" s="54" t="s">
         <v>123</v>
       </c>
-      <c r="G21" s="56"/>
+      <c r="G21" s="53"/>
       <c r="H21" s="2" t="s">
         <v>124</v>
       </c>
@@ -7418,8 +7418,8 @@
       <c r="D22" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="E22" s="62"/>
-      <c r="F22" s="62"/>
+      <c r="E22" s="55"/>
+      <c r="F22" s="55"/>
       <c r="G22" s="23" t="s">
         <v>128</v>
       </c>
@@ -7447,8 +7447,8 @@
       <c r="D23" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="E23" s="62"/>
-      <c r="F23" s="62"/>
+      <c r="E23" s="55"/>
+      <c r="F23" s="55"/>
       <c r="G23" s="23" t="s">
         <v>129</v>
       </c>
@@ -7476,8 +7476,8 @@
       <c r="D24" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="E24" s="62"/>
-      <c r="F24" s="62"/>
+      <c r="E24" s="55"/>
+      <c r="F24" s="55"/>
       <c r="G24" s="23" t="s">
         <v>130</v>
       </c>
@@ -7505,8 +7505,8 @@
       <c r="D25" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="E25" s="57"/>
-      <c r="F25" s="57"/>
+      <c r="E25" s="56"/>
+      <c r="F25" s="56"/>
       <c r="G25" s="23" t="s">
         <v>131</v>
       </c>
@@ -7537,10 +7537,10 @@
       <c r="E26" s="28" t="s">
         <v>122</v>
       </c>
-      <c r="F26" s="54" t="s">
+      <c r="F26" s="51" t="s">
         <v>117</v>
       </c>
-      <c r="G26" s="56"/>
+      <c r="G26" s="53"/>
       <c r="H26" s="2" t="s">
         <v>121</v>
       </c>
@@ -7563,11 +7563,11 @@
       <c r="D27" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="E27" s="62"/>
-      <c r="F27" s="54" t="s">
+      <c r="E27" s="55"/>
+      <c r="F27" s="51" t="s">
         <v>118</v>
       </c>
-      <c r="G27" s="56"/>
+      <c r="G27" s="53"/>
       <c r="H27" s="2" t="s">
         <v>120</v>
       </c>
@@ -7590,11 +7590,11 @@
       <c r="D28" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="E28" s="62"/>
-      <c r="F28" s="54" t="s">
+      <c r="E28" s="55"/>
+      <c r="F28" s="51" t="s">
         <v>119</v>
       </c>
-      <c r="G28" s="56"/>
+      <c r="G28" s="53"/>
       <c r="H28" s="2" t="s">
         <v>120</v>
       </c>
@@ -7617,11 +7617,11 @@
       <c r="D29" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="E29" s="62"/>
-      <c r="F29" s="54" t="s">
+      <c r="E29" s="55"/>
+      <c r="F29" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="G29" s="56"/>
+      <c r="G29" s="53"/>
       <c r="H29" s="2" t="s">
         <v>137</v>
       </c>
@@ -7644,11 +7644,11 @@
       <c r="D30" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="E30" s="62"/>
-      <c r="F30" s="54" t="s">
+      <c r="E30" s="55"/>
+      <c r="F30" s="51" t="s">
         <v>138</v>
       </c>
-      <c r="G30" s="56"/>
+      <c r="G30" s="53"/>
       <c r="H30" s="2" t="s">
         <v>139</v>
       </c>
@@ -7671,11 +7671,11 @@
       <c r="D31" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="E31" s="62"/>
-      <c r="F31" s="54" t="s">
+      <c r="E31" s="55"/>
+      <c r="F31" s="51" t="s">
         <v>48</v>
       </c>
-      <c r="G31" s="56"/>
+      <c r="G31" s="53"/>
       <c r="H31" s="2" t="s">
         <v>140</v>
       </c>
@@ -7698,7 +7698,7 @@
       <c r="D32" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="E32" s="62"/>
+      <c r="E32" s="55"/>
       <c r="F32" s="28" t="s">
         <v>141</v>
       </c>
@@ -7729,8 +7729,8 @@
       <c r="D33" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="E33" s="62"/>
-      <c r="F33" s="62"/>
+      <c r="E33" s="55"/>
+      <c r="F33" s="55"/>
       <c r="G33" s="23" t="s">
         <v>129</v>
       </c>
@@ -7758,8 +7758,8 @@
       <c r="D34" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="E34" s="62"/>
-      <c r="F34" s="62"/>
+      <c r="E34" s="55"/>
+      <c r="F34" s="55"/>
       <c r="G34" s="23" t="s">
         <v>130</v>
       </c>
@@ -7787,8 +7787,8 @@
       <c r="D35" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="E35" s="57"/>
-      <c r="F35" s="57"/>
+      <c r="E35" s="56"/>
+      <c r="F35" s="56"/>
       <c r="G35" s="23" t="s">
         <v>131</v>
       </c>
@@ -7816,11 +7816,11 @@
       <c r="D36" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="E36" s="54" t="s">
+      <c r="E36" s="51" t="s">
         <v>148</v>
       </c>
-      <c r="F36" s="55"/>
-      <c r="G36" s="56"/>
+      <c r="F36" s="52"/>
+      <c r="G36" s="53"/>
       <c r="H36" s="2"/>
       <c r="I36" s="3"/>
       <c r="J36" s="2"/>
@@ -7829,19 +7829,16 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="E36:G36"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="E22:E25"/>
-    <mergeCell ref="F22:F25"/>
-    <mergeCell ref="E27:E35"/>
-    <mergeCell ref="F33:F35"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="E11:G11"/>
     <mergeCell ref="E17:E19"/>
     <mergeCell ref="F19:G19"/>
     <mergeCell ref="F17:F18"/>
@@ -7850,16 +7847,19 @@
     <mergeCell ref="E14:G14"/>
     <mergeCell ref="E15:G15"/>
     <mergeCell ref="F16:G16"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="E22:E25"/>
+    <mergeCell ref="F22:F25"/>
+    <mergeCell ref="E27:E35"/>
+    <mergeCell ref="F33:F35"/>
+    <mergeCell ref="E36:G36"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="F31:G31"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7905,11 +7905,11 @@
       <c r="D2" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="E2" s="51" t="s">
+      <c r="E2" s="60" t="s">
         <v>33</v>
       </c>
-      <c r="F2" s="52"/>
-      <c r="G2" s="53"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="62"/>
       <c r="H2" s="6" t="s">
         <v>34</v>
       </c>
@@ -7940,9 +7940,9 @@
       <c r="D3" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E3" s="54"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="56"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="53"/>
       <c r="H3" s="2" t="s">
         <v>186</v>
       </c>
@@ -7965,9 +7965,9 @@
       <c r="D4" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E4" s="54"/>
-      <c r="F4" s="55"/>
-      <c r="G4" s="56"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="53"/>
       <c r="H4" s="5" t="s">
         <v>292</v>
       </c>
@@ -7992,9 +7992,9 @@
       <c r="D5" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E5" s="54"/>
-      <c r="F5" s="55"/>
-      <c r="G5" s="56"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="52"/>
+      <c r="G5" s="53"/>
       <c r="H5" s="5" t="s">
         <v>293</v>
       </c>
@@ -8019,9 +8019,9 @@
       <c r="D6" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="E6" s="54"/>
-      <c r="F6" s="55"/>
-      <c r="G6" s="56"/>
+      <c r="E6" s="51"/>
+      <c r="F6" s="52"/>
+      <c r="G6" s="53"/>
       <c r="H6" s="2" t="s">
         <v>194</v>
       </c>
@@ -8044,9 +8044,9 @@
       <c r="D7" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="E7" s="54"/>
-      <c r="F7" s="55"/>
-      <c r="G7" s="56"/>
+      <c r="E7" s="51"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="53"/>
       <c r="H7" s="2" t="s">
         <v>198</v>
       </c>
@@ -8069,9 +8069,9 @@
       <c r="D8" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="E8" s="54"/>
-      <c r="F8" s="55"/>
-      <c r="G8" s="56"/>
+      <c r="E8" s="51"/>
+      <c r="F8" s="52"/>
+      <c r="G8" s="53"/>
       <c r="H8" s="2" t="s">
         <v>197</v>
       </c>
@@ -8094,9 +8094,9 @@
       <c r="D9" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="E9" s="54"/>
-      <c r="F9" s="55"/>
-      <c r="G9" s="56"/>
+      <c r="E9" s="51"/>
+      <c r="F9" s="52"/>
+      <c r="G9" s="53"/>
       <c r="H9" s="2" t="s">
         <v>196</v>
       </c>
@@ -8119,9 +8119,9 @@
       <c r="D10" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="E10" s="54"/>
-      <c r="F10" s="55"/>
-      <c r="G10" s="56"/>
+      <c r="E10" s="51"/>
+      <c r="F10" s="52"/>
+      <c r="G10" s="53"/>
       <c r="H10" s="2" t="s">
         <v>196</v>
       </c>
@@ -8144,9 +8144,9 @@
       <c r="D11" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="E11" s="54"/>
-      <c r="F11" s="55"/>
-      <c r="G11" s="56"/>
+      <c r="E11" s="51"/>
+      <c r="F11" s="52"/>
+      <c r="G11" s="53"/>
       <c r="H11" s="2" t="s">
         <v>196</v>
       </c>
@@ -8169,9 +8169,9 @@
       <c r="D12" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="E12" s="54"/>
-      <c r="F12" s="55"/>
-      <c r="G12" s="56"/>
+      <c r="E12" s="51"/>
+      <c r="F12" s="52"/>
+      <c r="G12" s="53"/>
       <c r="H12" s="5" t="s">
         <v>193</v>
       </c>
@@ -8194,9 +8194,9 @@
       <c r="D13" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="E13" s="54"/>
-      <c r="F13" s="55"/>
-      <c r="G13" s="56"/>
+      <c r="E13" s="51"/>
+      <c r="F13" s="52"/>
+      <c r="G13" s="53"/>
       <c r="H13" s="5" t="s">
         <v>192</v>
       </c>
@@ -8219,9 +8219,9 @@
       <c r="D14" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="E14" s="54"/>
-      <c r="F14" s="55"/>
-      <c r="G14" s="56"/>
+      <c r="E14" s="51"/>
+      <c r="F14" s="52"/>
+      <c r="G14" s="53"/>
       <c r="H14" s="2" t="s">
         <v>191</v>
       </c>
@@ -8244,9 +8244,9 @@
       <c r="D15" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="E15" s="54"/>
-      <c r="F15" s="55"/>
-      <c r="G15" s="56"/>
+      <c r="E15" s="51"/>
+      <c r="F15" s="52"/>
+      <c r="G15" s="53"/>
       <c r="H15" s="2" t="s">
         <v>189</v>
       </c>
@@ -8269,9 +8269,9 @@
       <c r="D16" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="E16" s="54"/>
-      <c r="F16" s="55"/>
-      <c r="G16" s="56"/>
+      <c r="E16" s="51"/>
+      <c r="F16" s="52"/>
+      <c r="G16" s="53"/>
       <c r="H16" s="5" t="s">
         <v>190</v>
       </c>
@@ -8294,11 +8294,11 @@
       <c r="D17" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="E17" s="54" t="s">
+      <c r="E17" s="51" t="s">
         <v>41</v>
       </c>
-      <c r="F17" s="55"/>
-      <c r="G17" s="56"/>
+      <c r="F17" s="52"/>
+      <c r="G17" s="53"/>
       <c r="H17" s="5" t="s">
         <v>296</v>
       </c>
@@ -8323,11 +8323,11 @@
       <c r="D18" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="E18" s="54" t="s">
+      <c r="E18" s="51" t="s">
         <v>168</v>
       </c>
-      <c r="F18" s="55"/>
-      <c r="G18" s="56"/>
+      <c r="F18" s="52"/>
+      <c r="G18" s="53"/>
       <c r="H18" s="5" t="s">
         <v>181</v>
       </c>
@@ -8381,7 +8381,7 @@
       <c r="D20" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="E20" s="62"/>
+      <c r="E20" s="55"/>
       <c r="F20" s="63" t="s">
         <v>129</v>
       </c>
@@ -8408,7 +8408,7 @@
       <c r="D21" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="E21" s="62"/>
+      <c r="E21" s="55"/>
       <c r="F21" s="63" t="s">
         <v>130</v>
       </c>
@@ -8435,7 +8435,7 @@
       <c r="D22" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="E22" s="62"/>
+      <c r="E22" s="55"/>
       <c r="F22" s="63" t="s">
         <v>131</v>
       </c>
@@ -8462,7 +8462,7 @@
       <c r="D23" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="E23" s="57"/>
+      <c r="E23" s="56"/>
       <c r="F23" s="63" t="s">
         <v>170</v>
       </c>
@@ -8547,7 +8547,7 @@
       <c r="D26" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="E26" s="62"/>
+      <c r="E26" s="55"/>
       <c r="F26" s="63" t="s">
         <v>201</v>
       </c>
@@ -8574,7 +8574,7 @@
       <c r="D27" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="E27" s="62"/>
+      <c r="E27" s="55"/>
       <c r="F27" s="63" t="s">
         <v>295</v>
       </c>
@@ -8601,7 +8601,7 @@
       <c r="D28" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="E28" s="62"/>
+      <c r="E28" s="55"/>
       <c r="F28" s="63" t="s">
         <v>116</v>
       </c>
@@ -8628,7 +8628,7 @@
       <c r="D29" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="E29" s="62"/>
+      <c r="E29" s="55"/>
       <c r="F29" s="63" t="s">
         <v>210</v>
       </c>
@@ -8655,7 +8655,7 @@
       <c r="D30" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="E30" s="62"/>
+      <c r="E30" s="55"/>
       <c r="F30" s="19" t="s">
         <v>211</v>
       </c>
@@ -8684,8 +8684,8 @@
       <c r="D31" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="E31" s="62"/>
-      <c r="F31" s="57"/>
+      <c r="E31" s="55"/>
+      <c r="F31" s="56"/>
       <c r="G31" s="11" t="s">
         <v>215</v>
       </c>
@@ -8711,8 +8711,8 @@
       <c r="D32" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="E32" s="62"/>
-      <c r="F32" s="58"/>
+      <c r="E32" s="55"/>
+      <c r="F32" s="57"/>
       <c r="G32" s="11" t="s">
         <v>218</v>
       </c>
@@ -8738,8 +8738,8 @@
       <c r="D33" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="E33" s="62"/>
-      <c r="F33" s="58"/>
+      <c r="E33" s="55"/>
+      <c r="F33" s="57"/>
       <c r="G33" s="11" t="s">
         <v>219</v>
       </c>
@@ -8765,8 +8765,8 @@
       <c r="D34" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="E34" s="62"/>
-      <c r="F34" s="58"/>
+      <c r="E34" s="55"/>
+      <c r="F34" s="57"/>
       <c r="G34" s="11" t="s">
         <v>220</v>
       </c>
@@ -8792,8 +8792,8 @@
       <c r="D35" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="E35" s="62"/>
-      <c r="F35" s="58"/>
+      <c r="E35" s="55"/>
+      <c r="F35" s="57"/>
       <c r="G35" s="11" t="s">
         <v>221</v>
       </c>
@@ -8819,8 +8819,8 @@
       <c r="D36" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="E36" s="62"/>
-      <c r="F36" s="58"/>
+      <c r="E36" s="55"/>
+      <c r="F36" s="57"/>
       <c r="G36" s="11" t="s">
         <v>228</v>
       </c>
@@ -8846,8 +8846,8 @@
       <c r="D37" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="E37" s="62"/>
-      <c r="F37" s="58"/>
+      <c r="E37" s="55"/>
+      <c r="F37" s="57"/>
       <c r="G37" s="11" t="s">
         <v>229</v>
       </c>
@@ -8873,8 +8873,8 @@
       <c r="D38" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="E38" s="62"/>
-      <c r="F38" s="58"/>
+      <c r="E38" s="55"/>
+      <c r="F38" s="57"/>
       <c r="G38" s="11" t="s">
         <v>230</v>
       </c>
@@ -8900,8 +8900,8 @@
       <c r="D39" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="E39" s="62"/>
-      <c r="F39" s="58"/>
+      <c r="E39" s="55"/>
+      <c r="F39" s="57"/>
       <c r="G39" s="11" t="s">
         <v>225</v>
       </c>
@@ -8927,8 +8927,8 @@
       <c r="D40" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="E40" s="62"/>
-      <c r="F40" s="58"/>
+      <c r="E40" s="55"/>
+      <c r="F40" s="57"/>
       <c r="G40" s="11" t="s">
         <v>226</v>
       </c>
@@ -8954,8 +8954,8 @@
       <c r="D41" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="E41" s="62"/>
-      <c r="F41" s="58"/>
+      <c r="E41" s="55"/>
+      <c r="F41" s="57"/>
       <c r="G41" s="11" t="s">
         <v>227</v>
       </c>
@@ -8981,8 +8981,8 @@
       <c r="D42" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="E42" s="62"/>
-      <c r="F42" s="58"/>
+      <c r="E42" s="55"/>
+      <c r="F42" s="57"/>
       <c r="G42" s="11" t="s">
         <v>222</v>
       </c>
@@ -9008,8 +9008,8 @@
       <c r="D43" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="E43" s="62"/>
-      <c r="F43" s="58"/>
+      <c r="E43" s="55"/>
+      <c r="F43" s="57"/>
       <c r="G43" s="11" t="s">
         <v>223</v>
       </c>
@@ -9035,8 +9035,8 @@
       <c r="D44" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="E44" s="62"/>
-      <c r="F44" s="58"/>
+      <c r="E44" s="55"/>
+      <c r="F44" s="57"/>
       <c r="G44" s="11" t="s">
         <v>224</v>
       </c>
@@ -9062,7 +9062,7 @@
       <c r="D45" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="E45" s="57"/>
+      <c r="E45" s="56"/>
       <c r="F45" s="63" t="s">
         <v>243</v>
       </c>
@@ -9118,7 +9118,7 @@
       <c r="D47" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="E47" s="62"/>
+      <c r="E47" s="55"/>
       <c r="F47" s="63" t="s">
         <v>47</v>
       </c>
@@ -9145,7 +9145,7 @@
       <c r="D48" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="E48" s="62"/>
+      <c r="E48" s="55"/>
       <c r="F48" s="63" t="s">
         <v>50</v>
       </c>
@@ -9172,7 +9172,7 @@
       <c r="D49" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="E49" s="62"/>
+      <c r="E49" s="55"/>
       <c r="F49" s="63" t="s">
         <v>247</v>
       </c>
@@ -9199,7 +9199,7 @@
       <c r="D50" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="E50" s="62"/>
+      <c r="E50" s="55"/>
       <c r="F50" s="63" t="s">
         <v>248</v>
       </c>
@@ -9226,7 +9226,7 @@
       <c r="D51" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="E51" s="62"/>
+      <c r="E51" s="55"/>
       <c r="F51" s="63" t="s">
         <v>249</v>
       </c>
@@ -9253,7 +9253,7 @@
       <c r="D52" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="E52" s="62"/>
+      <c r="E52" s="55"/>
       <c r="F52" s="63" t="s">
         <v>250</v>
       </c>
@@ -9280,7 +9280,7 @@
       <c r="D53" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="E53" s="62"/>
+      <c r="E53" s="55"/>
       <c r="F53" s="64" t="s">
         <v>51</v>
       </c>
@@ -9307,8 +9307,8 @@
       <c r="D54" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="E54" s="62"/>
-      <c r="F54" s="62"/>
+      <c r="E54" s="55"/>
+      <c r="F54" s="55"/>
       <c r="G54" s="21" t="s">
         <v>251</v>
       </c>
@@ -9334,8 +9334,8 @@
       <c r="D55" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="E55" s="62"/>
-      <c r="F55" s="62"/>
+      <c r="E55" s="55"/>
+      <c r="F55" s="55"/>
       <c r="G55" s="8" t="s">
         <v>253</v>
       </c>
@@ -9363,8 +9363,8 @@
       <c r="D56" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="E56" s="62"/>
-      <c r="F56" s="62"/>
+      <c r="E56" s="55"/>
+      <c r="F56" s="55"/>
       <c r="G56" s="8" t="s">
         <v>254</v>
       </c>
@@ -9392,8 +9392,8 @@
       <c r="D57" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="E57" s="62"/>
-      <c r="F57" s="57"/>
+      <c r="E57" s="55"/>
+      <c r="F57" s="56"/>
       <c r="G57" s="8" t="s">
         <v>255</v>
       </c>
@@ -9421,7 +9421,7 @@
       <c r="D58" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="E58" s="62"/>
+      <c r="E58" s="55"/>
       <c r="F58" s="63" t="s">
         <v>256</v>
       </c>
@@ -9448,7 +9448,7 @@
       <c r="D59" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="E59" s="62"/>
+      <c r="E59" s="55"/>
       <c r="F59" s="63" t="s">
         <v>257</v>
       </c>
@@ -9475,7 +9475,7 @@
       <c r="D60" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="E60" s="62"/>
+      <c r="E60" s="55"/>
       <c r="F60" s="63" t="s">
         <v>258</v>
       </c>
@@ -9502,7 +9502,7 @@
       <c r="D61" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="E61" s="62"/>
+      <c r="E61" s="55"/>
       <c r="F61" s="63" t="s">
         <v>259</v>
       </c>
@@ -9529,7 +9529,7 @@
       <c r="D62" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="E62" s="62"/>
+      <c r="E62" s="55"/>
       <c r="F62" s="63" t="s">
         <v>260</v>
       </c>
@@ -9556,7 +9556,7 @@
       <c r="D63" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="E63" s="62"/>
+      <c r="E63" s="55"/>
       <c r="F63" s="63" t="s">
         <v>261</v>
       </c>
@@ -9583,7 +9583,7 @@
       <c r="D64" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="E64" s="57"/>
+      <c r="E64" s="56"/>
       <c r="F64" s="63" t="s">
         <v>262</v>
       </c>
@@ -9610,11 +9610,11 @@
       <c r="D65" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="E65" s="54" t="s">
+      <c r="E65" s="51" t="s">
         <v>266</v>
       </c>
-      <c r="F65" s="55"/>
-      <c r="G65" s="56"/>
+      <c r="F65" s="52"/>
+      <c r="G65" s="53"/>
       <c r="H65" s="2" t="s">
         <v>137</v>
       </c>
@@ -9637,11 +9637,11 @@
       <c r="D66" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="E66" s="54" t="s">
+      <c r="E66" s="51" t="s">
         <v>267</v>
       </c>
-      <c r="F66" s="55"/>
-      <c r="G66" s="56"/>
+      <c r="F66" s="52"/>
+      <c r="G66" s="53"/>
       <c r="H66" s="5" t="s">
         <v>289</v>
       </c>
@@ -9652,15 +9652,32 @@
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="E47:E64"/>
+    <mergeCell ref="E26:E45"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="F47:G47"/>
+    <mergeCell ref="F48:G48"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="F62:G62"/>
+    <mergeCell ref="F63:G63"/>
+    <mergeCell ref="F64:G64"/>
+    <mergeCell ref="F31:F44"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="F54:F57"/>
+    <mergeCell ref="F58:G58"/>
+    <mergeCell ref="F59:G59"/>
+    <mergeCell ref="F60:G60"/>
+    <mergeCell ref="F61:G61"/>
     <mergeCell ref="E18:G18"/>
     <mergeCell ref="E65:G65"/>
     <mergeCell ref="E66:G66"/>
@@ -9677,32 +9694,15 @@
     <mergeCell ref="F27:G27"/>
     <mergeCell ref="F28:G28"/>
     <mergeCell ref="F29:G29"/>
-    <mergeCell ref="F63:G63"/>
-    <mergeCell ref="F64:G64"/>
-    <mergeCell ref="F31:F44"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="F53:G53"/>
-    <mergeCell ref="F54:F57"/>
-    <mergeCell ref="F58:G58"/>
-    <mergeCell ref="F59:G59"/>
-    <mergeCell ref="F60:G60"/>
-    <mergeCell ref="F61:G61"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="E47:E64"/>
-    <mergeCell ref="E26:E45"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="F47:G47"/>
-    <mergeCell ref="F48:G48"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="F52:G52"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="F62:G62"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="E14:G14"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9748,11 +9748,11 @@
       <c r="D2" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="E2" s="51" t="s">
+      <c r="E2" s="60" t="s">
         <v>33</v>
       </c>
-      <c r="F2" s="52"/>
-      <c r="G2" s="53"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="62"/>
       <c r="H2" s="6" t="s">
         <v>34</v>
       </c>
@@ -9786,14 +9786,14 @@
       <c r="E3" s="16" t="s">
         <v>456</v>
       </c>
-      <c r="F3" s="54" t="s">
+      <c r="F3" s="51" t="s">
         <v>457</v>
       </c>
-      <c r="G3" s="56"/>
+      <c r="G3" s="53"/>
       <c r="H3" s="2" t="s">
         <v>458</v>
       </c>
-      <c r="I3" s="69" t="b">
+      <c r="I3" s="72" t="b">
         <v>1</v>
       </c>
       <c r="J3" s="2"/>
@@ -9815,14 +9815,14 @@
         <v>460</v>
       </c>
       <c r="E4" s="38"/>
-      <c r="F4" s="54" t="s">
+      <c r="F4" s="51" t="s">
         <v>461</v>
       </c>
-      <c r="G4" s="56"/>
+      <c r="G4" s="53"/>
       <c r="H4" s="2" t="s">
         <v>462</v>
       </c>
-      <c r="I4" s="70"/>
+      <c r="I4" s="73"/>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
@@ -9844,10 +9844,10 @@
       <c r="E5" s="16" t="s">
         <v>453</v>
       </c>
-      <c r="F5" s="54" t="s">
+      <c r="F5" s="51" t="s">
         <v>128</v>
       </c>
-      <c r="G5" s="56"/>
+      <c r="G5" s="53"/>
       <c r="H5" s="2" t="s">
         <v>65</v>
       </c>
@@ -9872,11 +9872,11 @@
       <c r="D6" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E6" s="71"/>
-      <c r="F6" s="54" t="s">
+      <c r="E6" s="65"/>
+      <c r="F6" s="51" t="s">
         <v>129</v>
       </c>
-      <c r="G6" s="56"/>
+      <c r="G6" s="53"/>
       <c r="H6" s="2" t="s">
         <v>66</v>
       </c>
@@ -9901,11 +9901,11 @@
       <c r="D7" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E7" s="71"/>
-      <c r="F7" s="54" t="s">
+      <c r="E7" s="65"/>
+      <c r="F7" s="51" t="s">
         <v>130</v>
       </c>
-      <c r="G7" s="56"/>
+      <c r="G7" s="53"/>
       <c r="H7" s="2"/>
       <c r="I7" s="3" t="b">
         <v>1</v>
@@ -9928,11 +9928,11 @@
       <c r="D8" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E8" s="72"/>
-      <c r="F8" s="54" t="s">
+      <c r="E8" s="66"/>
+      <c r="F8" s="51" t="s">
         <v>131</v>
       </c>
-      <c r="G8" s="56"/>
+      <c r="G8" s="53"/>
       <c r="H8" s="2"/>
       <c r="I8" s="3" t="b">
         <v>1</v>
@@ -9955,11 +9955,11 @@
       <c r="D9" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="E9" s="54" t="s">
+      <c r="E9" s="51" t="s">
         <v>455</v>
       </c>
-      <c r="F9" s="55"/>
-      <c r="G9" s="56"/>
+      <c r="F9" s="52"/>
+      <c r="G9" s="53"/>
       <c r="H9" s="2" t="s">
         <v>296</v>
       </c>
@@ -9984,11 +9984,11 @@
       <c r="D10" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="E10" s="54" t="s">
+      <c r="E10" s="51" t="s">
         <v>535</v>
       </c>
-      <c r="F10" s="55"/>
-      <c r="G10" s="56"/>
+      <c r="F10" s="52"/>
+      <c r="G10" s="53"/>
       <c r="H10" s="5" t="s">
         <v>451</v>
       </c>
@@ -10011,11 +10011,11 @@
       <c r="D11" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="E11" s="54" t="s">
+      <c r="E11" s="51" t="s">
         <v>465</v>
       </c>
-      <c r="F11" s="55"/>
-      <c r="G11" s="56"/>
+      <c r="F11" s="52"/>
+      <c r="G11" s="53"/>
       <c r="H11" s="5" t="s">
         <v>464</v>
       </c>
@@ -10041,10 +10041,10 @@
       <c r="E12" s="16" t="s">
         <v>467</v>
       </c>
-      <c r="F12" s="54" t="s">
+      <c r="F12" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="G12" s="56"/>
+      <c r="G12" s="53"/>
       <c r="H12" s="2" t="s">
         <v>180</v>
       </c>
@@ -10067,11 +10067,11 @@
       <c r="D13" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="E13" s="71"/>
-      <c r="F13" s="54" t="s">
+      <c r="E13" s="65"/>
+      <c r="F13" s="51" t="s">
         <v>50</v>
       </c>
-      <c r="G13" s="56"/>
+      <c r="G13" s="53"/>
       <c r="H13" s="2" t="s">
         <v>180</v>
       </c>
@@ -10094,11 +10094,11 @@
       <c r="D14" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="E14" s="71"/>
-      <c r="F14" s="54" t="s">
+      <c r="E14" s="65"/>
+      <c r="F14" s="51" t="s">
         <v>51</v>
       </c>
-      <c r="G14" s="56"/>
+      <c r="G14" s="53"/>
       <c r="H14" s="2" t="s">
         <v>180</v>
       </c>
@@ -10121,11 +10121,11 @@
       <c r="D15" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="E15" s="71"/>
-      <c r="F15" s="54" t="s">
+      <c r="E15" s="65"/>
+      <c r="F15" s="51" t="s">
         <v>52</v>
       </c>
-      <c r="G15" s="56"/>
+      <c r="G15" s="53"/>
       <c r="H15" s="2" t="s">
         <v>180</v>
       </c>
@@ -10148,11 +10148,11 @@
       <c r="D16" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="E16" s="71"/>
-      <c r="F16" s="54" t="s">
+      <c r="E16" s="65"/>
+      <c r="F16" s="51" t="s">
         <v>468</v>
       </c>
-      <c r="G16" s="56"/>
+      <c r="G16" s="53"/>
       <c r="H16" s="2" t="s">
         <v>180</v>
       </c>
@@ -10175,11 +10175,11 @@
       <c r="D17" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="E17" s="71"/>
-      <c r="F17" s="54" t="s">
+      <c r="E17" s="65"/>
+      <c r="F17" s="51" t="s">
         <v>469</v>
       </c>
-      <c r="G17" s="56"/>
+      <c r="G17" s="53"/>
       <c r="H17" s="2" t="s">
         <v>180</v>
       </c>
@@ -10202,11 +10202,11 @@
       <c r="D18" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="E18" s="71"/>
-      <c r="F18" s="54" t="s">
+      <c r="E18" s="65"/>
+      <c r="F18" s="51" t="s">
         <v>257</v>
       </c>
-      <c r="G18" s="56"/>
+      <c r="G18" s="53"/>
       <c r="H18" s="2" t="s">
         <v>180</v>
       </c>
@@ -10229,11 +10229,11 @@
       <c r="D19" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="E19" s="71"/>
-      <c r="F19" s="54" t="s">
+      <c r="E19" s="65"/>
+      <c r="F19" s="51" t="s">
         <v>42</v>
       </c>
-      <c r="G19" s="56"/>
+      <c r="G19" s="53"/>
       <c r="H19" s="2" t="s">
         <v>180</v>
       </c>
@@ -10256,11 +10256,11 @@
       <c r="D20" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="E20" s="71"/>
-      <c r="F20" s="54" t="s">
+      <c r="E20" s="65"/>
+      <c r="F20" s="51" t="s">
         <v>53</v>
       </c>
-      <c r="G20" s="56"/>
+      <c r="G20" s="53"/>
       <c r="H20" s="2" t="s">
         <v>180</v>
       </c>
@@ -10283,11 +10283,11 @@
       <c r="D21" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="E21" s="72"/>
-      <c r="F21" s="54" t="s">
+      <c r="E21" s="66"/>
+      <c r="F21" s="51" t="s">
         <v>470</v>
       </c>
-      <c r="G21" s="56"/>
+      <c r="G21" s="53"/>
       <c r="H21" s="2" t="s">
         <v>180</v>
       </c>
@@ -10313,10 +10313,10 @@
       <c r="E22" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="F22" s="54" t="s">
+      <c r="F22" s="51" t="s">
         <v>494</v>
       </c>
-      <c r="G22" s="56"/>
+      <c r="G22" s="53"/>
       <c r="H22" s="2" t="s">
         <v>495</v>
       </c>
@@ -10339,11 +10339,11 @@
       <c r="D23" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="E23" s="62"/>
-      <c r="F23" s="54" t="s">
+      <c r="E23" s="55"/>
+      <c r="F23" s="51" t="s">
         <v>482</v>
       </c>
-      <c r="G23" s="56"/>
+      <c r="G23" s="53"/>
       <c r="H23" s="2" t="s">
         <v>481</v>
       </c>
@@ -10366,11 +10366,11 @@
       <c r="D24" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="E24" s="62"/>
-      <c r="F24" s="54" t="s">
+      <c r="E24" s="55"/>
+      <c r="F24" s="51" t="s">
         <v>484</v>
       </c>
-      <c r="G24" s="56"/>
+      <c r="G24" s="53"/>
       <c r="H24" s="2" t="s">
         <v>180</v>
       </c>
@@ -10393,7 +10393,7 @@
       <c r="D25" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="E25" s="62"/>
+      <c r="E25" s="55"/>
       <c r="F25" s="20" t="s">
         <v>59</v>
       </c>
@@ -10420,7 +10420,7 @@
       <c r="D26" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="E26" s="62"/>
+      <c r="E26" s="55"/>
       <c r="F26" s="33"/>
       <c r="G26" s="15" t="s">
         <v>486</v>
@@ -10445,7 +10445,7 @@
       <c r="D27" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="E27" s="62"/>
+      <c r="E27" s="55"/>
       <c r="F27" s="20" t="s">
         <v>67</v>
       </c>
@@ -10474,8 +10474,8 @@
       <c r="D28" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="E28" s="62"/>
-      <c r="F28" s="57"/>
+      <c r="E28" s="55"/>
+      <c r="F28" s="56"/>
       <c r="G28" s="15" t="s">
         <v>488</v>
       </c>
@@ -10501,8 +10501,8 @@
       <c r="D29" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="E29" s="62"/>
-      <c r="F29" s="58"/>
+      <c r="E29" s="55"/>
+      <c r="F29" s="57"/>
       <c r="G29" s="15" t="s">
         <v>489</v>
       </c>
@@ -10528,8 +10528,8 @@
       <c r="D30" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="E30" s="62"/>
-      <c r="F30" s="58"/>
+      <c r="E30" s="55"/>
+      <c r="F30" s="57"/>
       <c r="G30" s="15" t="s">
         <v>490</v>
       </c>
@@ -10555,8 +10555,8 @@
       <c r="D31" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="E31" s="62"/>
-      <c r="F31" s="58"/>
+      <c r="E31" s="55"/>
+      <c r="F31" s="57"/>
       <c r="G31" s="15" t="s">
         <v>491</v>
       </c>
@@ -10582,8 +10582,8 @@
       <c r="D32" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="E32" s="62"/>
-      <c r="F32" s="58"/>
+      <c r="E32" s="55"/>
+      <c r="F32" s="57"/>
       <c r="G32" s="15" t="s">
         <v>492</v>
       </c>
@@ -10609,11 +10609,11 @@
       <c r="D33" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="E33" s="57"/>
-      <c r="F33" s="54" t="s">
+      <c r="E33" s="56"/>
+      <c r="F33" s="51" t="s">
         <v>70</v>
       </c>
-      <c r="G33" s="56"/>
+      <c r="G33" s="53"/>
       <c r="H33" s="2" t="s">
         <v>43</v>
       </c>
@@ -10639,10 +10639,10 @@
       <c r="E34" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="F34" s="54" t="s">
+      <c r="F34" s="51" t="s">
         <v>533</v>
       </c>
-      <c r="G34" s="56"/>
+      <c r="G34" s="53"/>
       <c r="H34" s="2" t="s">
         <v>496</v>
       </c>
@@ -10665,11 +10665,11 @@
       <c r="D35" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="E35" s="62"/>
-      <c r="F35" s="54" t="s">
+      <c r="E35" s="55"/>
+      <c r="F35" s="51" t="s">
         <v>534</v>
       </c>
-      <c r="G35" s="56"/>
+      <c r="G35" s="53"/>
       <c r="H35" s="2" t="s">
         <v>497</v>
       </c>
@@ -10692,11 +10692,11 @@
       <c r="D36" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="E36" s="62"/>
-      <c r="F36" s="54" t="s">
+      <c r="E36" s="55"/>
+      <c r="F36" s="51" t="s">
         <v>484</v>
       </c>
-      <c r="G36" s="56"/>
+      <c r="G36" s="53"/>
       <c r="H36" s="2" t="s">
         <v>180</v>
       </c>
@@ -10719,7 +10719,7 @@
       <c r="D37" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="E37" s="62"/>
+      <c r="E37" s="55"/>
       <c r="F37" s="20" t="s">
         <v>59</v>
       </c>
@@ -10746,7 +10746,7 @@
       <c r="D38" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="E38" s="62"/>
+      <c r="E38" s="55"/>
       <c r="F38" s="33"/>
       <c r="G38" s="15" t="s">
         <v>486</v>
@@ -10771,7 +10771,7 @@
       <c r="D39" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="E39" s="62"/>
+      <c r="E39" s="55"/>
       <c r="F39" s="20" t="s">
         <v>67</v>
       </c>
@@ -10800,8 +10800,8 @@
       <c r="D40" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="E40" s="62"/>
-      <c r="F40" s="57"/>
+      <c r="E40" s="55"/>
+      <c r="F40" s="56"/>
       <c r="G40" s="15" t="s">
         <v>488</v>
       </c>
@@ -10827,8 +10827,8 @@
       <c r="D41" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="E41" s="62"/>
-      <c r="F41" s="58"/>
+      <c r="E41" s="55"/>
+      <c r="F41" s="57"/>
       <c r="G41" s="15" t="s">
         <v>489</v>
       </c>
@@ -10854,8 +10854,8 @@
       <c r="D42" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="E42" s="62"/>
-      <c r="F42" s="58"/>
+      <c r="E42" s="55"/>
+      <c r="F42" s="57"/>
       <c r="G42" s="15" t="s">
         <v>490</v>
       </c>
@@ -10881,8 +10881,8 @@
       <c r="D43" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="E43" s="62"/>
-      <c r="F43" s="58"/>
+      <c r="E43" s="55"/>
+      <c r="F43" s="57"/>
       <c r="G43" s="15" t="s">
         <v>491</v>
       </c>
@@ -10908,8 +10908,8 @@
       <c r="D44" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="E44" s="62"/>
-      <c r="F44" s="58"/>
+      <c r="E44" s="55"/>
+      <c r="F44" s="57"/>
       <c r="G44" s="15" t="s">
         <v>492</v>
       </c>
@@ -10935,11 +10935,11 @@
       <c r="D45" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="E45" s="57"/>
-      <c r="F45" s="54" t="s">
+      <c r="E45" s="56"/>
+      <c r="F45" s="51" t="s">
         <v>70</v>
       </c>
-      <c r="G45" s="56"/>
+      <c r="G45" s="53"/>
       <c r="H45" s="2" t="s">
         <v>43</v>
       </c>
@@ -10965,10 +10965,10 @@
       <c r="E46" s="39" t="s">
         <v>529</v>
       </c>
-      <c r="F46" s="65" t="s">
+      <c r="F46" s="69" t="s">
         <v>533</v>
       </c>
-      <c r="G46" s="66"/>
+      <c r="G46" s="70"/>
       <c r="H46" s="30" t="s">
         <v>517</v>
       </c>
@@ -10991,11 +10991,11 @@
       <c r="D47" s="30" t="s">
         <v>448</v>
       </c>
-      <c r="E47" s="73"/>
-      <c r="F47" s="65" t="s">
+      <c r="E47" s="67"/>
+      <c r="F47" s="69" t="s">
         <v>534</v>
       </c>
-      <c r="G47" s="66"/>
+      <c r="G47" s="70"/>
       <c r="H47" s="30" t="s">
         <v>516</v>
       </c>
@@ -11018,11 +11018,11 @@
       <c r="D48" s="30" t="s">
         <v>460</v>
       </c>
-      <c r="E48" s="73"/>
-      <c r="F48" s="65" t="s">
+      <c r="E48" s="67"/>
+      <c r="F48" s="69" t="s">
         <v>484</v>
       </c>
-      <c r="G48" s="66"/>
+      <c r="G48" s="70"/>
       <c r="H48" s="30" t="s">
         <v>180</v>
       </c>
@@ -11045,7 +11045,7 @@
       <c r="D49" s="30" t="s">
         <v>460</v>
       </c>
-      <c r="E49" s="73"/>
+      <c r="E49" s="67"/>
       <c r="F49" s="34" t="s">
         <v>59</v>
       </c>
@@ -11072,7 +11072,7 @@
       <c r="D50" s="30" t="s">
         <v>460</v>
       </c>
-      <c r="E50" s="73"/>
+      <c r="E50" s="67"/>
       <c r="F50" s="36"/>
       <c r="G50" s="35" t="s">
         <v>486</v>
@@ -11097,7 +11097,7 @@
       <c r="D51" s="30" t="s">
         <v>448</v>
       </c>
-      <c r="E51" s="73"/>
+      <c r="E51" s="67"/>
       <c r="F51" s="34" t="s">
         <v>67</v>
       </c>
@@ -11126,8 +11126,8 @@
       <c r="D52" s="30" t="s">
         <v>448</v>
       </c>
-      <c r="E52" s="73"/>
-      <c r="F52" s="67"/>
+      <c r="E52" s="67"/>
+      <c r="F52" s="68"/>
       <c r="G52" s="35" t="s">
         <v>488</v>
       </c>
@@ -11153,8 +11153,8 @@
       <c r="D53" s="30" t="s">
         <v>448</v>
       </c>
-      <c r="E53" s="73"/>
-      <c r="F53" s="68"/>
+      <c r="E53" s="67"/>
+      <c r="F53" s="71"/>
       <c r="G53" s="35" t="s">
         <v>489</v>
       </c>
@@ -11180,8 +11180,8 @@
       <c r="D54" s="30" t="s">
         <v>448</v>
       </c>
-      <c r="E54" s="73"/>
-      <c r="F54" s="68"/>
+      <c r="E54" s="67"/>
+      <c r="F54" s="71"/>
       <c r="G54" s="35" t="s">
         <v>490</v>
       </c>
@@ -11207,8 +11207,8 @@
       <c r="D55" s="30" t="s">
         <v>448</v>
       </c>
-      <c r="E55" s="73"/>
-      <c r="F55" s="68"/>
+      <c r="E55" s="67"/>
+      <c r="F55" s="71"/>
       <c r="G55" s="35" t="s">
         <v>491</v>
       </c>
@@ -11234,8 +11234,8 @@
       <c r="D56" s="30" t="s">
         <v>448</v>
       </c>
-      <c r="E56" s="73"/>
-      <c r="F56" s="68"/>
+      <c r="E56" s="67"/>
+      <c r="F56" s="71"/>
       <c r="G56" s="35" t="s">
         <v>492</v>
       </c>
@@ -11261,11 +11261,11 @@
       <c r="D57" s="30" t="s">
         <v>448</v>
       </c>
-      <c r="E57" s="67"/>
-      <c r="F57" s="65" t="s">
+      <c r="E57" s="68"/>
+      <c r="F57" s="69" t="s">
         <v>70</v>
       </c>
-      <c r="G57" s="66"/>
+      <c r="G57" s="70"/>
       <c r="H57" s="30" t="s">
         <v>43</v>
       </c>
@@ -11291,10 +11291,10 @@
       <c r="E58" s="39" t="s">
         <v>530</v>
       </c>
-      <c r="F58" s="65" t="s">
+      <c r="F58" s="69" t="s">
         <v>533</v>
       </c>
-      <c r="G58" s="66"/>
+      <c r="G58" s="70"/>
       <c r="H58" s="30" t="s">
         <v>515</v>
       </c>
@@ -11317,11 +11317,11 @@
       <c r="D59" s="30" t="s">
         <v>448</v>
       </c>
-      <c r="E59" s="73"/>
-      <c r="F59" s="65" t="s">
+      <c r="E59" s="67"/>
+      <c r="F59" s="69" t="s">
         <v>534</v>
       </c>
-      <c r="G59" s="66"/>
+      <c r="G59" s="70"/>
       <c r="H59" s="30" t="s">
         <v>514</v>
       </c>
@@ -11344,11 +11344,11 @@
       <c r="D60" s="30" t="s">
         <v>460</v>
       </c>
-      <c r="E60" s="73"/>
-      <c r="F60" s="65" t="s">
+      <c r="E60" s="67"/>
+      <c r="F60" s="69" t="s">
         <v>484</v>
       </c>
-      <c r="G60" s="66"/>
+      <c r="G60" s="70"/>
       <c r="H60" s="30" t="s">
         <v>180</v>
       </c>
@@ -11371,7 +11371,7 @@
       <c r="D61" s="30" t="s">
         <v>460</v>
       </c>
-      <c r="E61" s="73"/>
+      <c r="E61" s="67"/>
       <c r="F61" s="34" t="s">
         <v>59</v>
       </c>
@@ -11398,7 +11398,7 @@
       <c r="D62" s="30" t="s">
         <v>460</v>
       </c>
-      <c r="E62" s="73"/>
+      <c r="E62" s="67"/>
       <c r="F62" s="36"/>
       <c r="G62" s="35" t="s">
         <v>486</v>
@@ -11423,7 +11423,7 @@
       <c r="D63" s="30" t="s">
         <v>448</v>
       </c>
-      <c r="E63" s="73"/>
+      <c r="E63" s="67"/>
       <c r="F63" s="34" t="s">
         <v>67</v>
       </c>
@@ -11452,8 +11452,8 @@
       <c r="D64" s="30" t="s">
         <v>448</v>
       </c>
-      <c r="E64" s="73"/>
-      <c r="F64" s="67"/>
+      <c r="E64" s="67"/>
+      <c r="F64" s="68"/>
       <c r="G64" s="35" t="s">
         <v>488</v>
       </c>
@@ -11479,8 +11479,8 @@
       <c r="D65" s="30" t="s">
         <v>448</v>
       </c>
-      <c r="E65" s="73"/>
-      <c r="F65" s="68"/>
+      <c r="E65" s="67"/>
+      <c r="F65" s="71"/>
       <c r="G65" s="35" t="s">
         <v>489</v>
       </c>
@@ -11506,8 +11506,8 @@
       <c r="D66" s="30" t="s">
         <v>448</v>
       </c>
-      <c r="E66" s="73"/>
-      <c r="F66" s="68"/>
+      <c r="E66" s="67"/>
+      <c r="F66" s="71"/>
       <c r="G66" s="35" t="s">
         <v>490</v>
       </c>
@@ -11533,8 +11533,8 @@
       <c r="D67" s="30" t="s">
         <v>448</v>
       </c>
-      <c r="E67" s="73"/>
-      <c r="F67" s="68"/>
+      <c r="E67" s="67"/>
+      <c r="F67" s="71"/>
       <c r="G67" s="35" t="s">
         <v>491</v>
       </c>
@@ -11560,8 +11560,8 @@
       <c r="D68" s="30" t="s">
         <v>448</v>
       </c>
-      <c r="E68" s="73"/>
-      <c r="F68" s="68"/>
+      <c r="E68" s="67"/>
+      <c r="F68" s="71"/>
       <c r="G68" s="35" t="s">
         <v>492</v>
       </c>
@@ -11587,11 +11587,11 @@
       <c r="D69" s="30" t="s">
         <v>448</v>
       </c>
-      <c r="E69" s="67"/>
-      <c r="F69" s="65" t="s">
+      <c r="E69" s="68"/>
+      <c r="F69" s="69" t="s">
         <v>70</v>
       </c>
-      <c r="G69" s="66"/>
+      <c r="G69" s="70"/>
       <c r="H69" s="30" t="s">
         <v>43</v>
       </c>
@@ -11617,10 +11617,10 @@
       <c r="E70" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="F70" s="54" t="s">
+      <c r="F70" s="51" t="s">
         <v>533</v>
       </c>
-      <c r="G70" s="56"/>
+      <c r="G70" s="53"/>
       <c r="H70" s="2" t="s">
         <v>512</v>
       </c>
@@ -11643,11 +11643,11 @@
       <c r="D71" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="E71" s="62"/>
-      <c r="F71" s="54" t="s">
+      <c r="E71" s="55"/>
+      <c r="F71" s="51" t="s">
         <v>534</v>
       </c>
-      <c r="G71" s="56"/>
+      <c r="G71" s="53"/>
       <c r="H71" s="2" t="s">
         <v>513</v>
       </c>
@@ -11670,11 +11670,11 @@
       <c r="D72" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="E72" s="62"/>
-      <c r="F72" s="54" t="s">
+      <c r="E72" s="55"/>
+      <c r="F72" s="51" t="s">
         <v>484</v>
       </c>
-      <c r="G72" s="56"/>
+      <c r="G72" s="53"/>
       <c r="H72" s="2" t="s">
         <v>180</v>
       </c>
@@ -11697,7 +11697,7 @@
       <c r="D73" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="E73" s="62"/>
+      <c r="E73" s="55"/>
       <c r="F73" s="20" t="s">
         <v>59</v>
       </c>
@@ -11724,7 +11724,7 @@
       <c r="D74" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="E74" s="62"/>
+      <c r="E74" s="55"/>
       <c r="F74" s="33"/>
       <c r="G74" s="15" t="s">
         <v>486</v>
@@ -11749,7 +11749,7 @@
       <c r="D75" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="E75" s="62"/>
+      <c r="E75" s="55"/>
       <c r="F75" s="20" t="s">
         <v>67</v>
       </c>
@@ -11778,8 +11778,8 @@
       <c r="D76" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="E76" s="62"/>
-      <c r="F76" s="57"/>
+      <c r="E76" s="55"/>
+      <c r="F76" s="56"/>
       <c r="G76" s="15" t="s">
         <v>488</v>
       </c>
@@ -11805,8 +11805,8 @@
       <c r="D77" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="E77" s="62"/>
-      <c r="F77" s="58"/>
+      <c r="E77" s="55"/>
+      <c r="F77" s="57"/>
       <c r="G77" s="15" t="s">
         <v>489</v>
       </c>
@@ -11832,8 +11832,8 @@
       <c r="D78" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="E78" s="62"/>
-      <c r="F78" s="58"/>
+      <c r="E78" s="55"/>
+      <c r="F78" s="57"/>
       <c r="G78" s="15" t="s">
         <v>490</v>
       </c>
@@ -11859,8 +11859,8 @@
       <c r="D79" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="E79" s="62"/>
-      <c r="F79" s="58"/>
+      <c r="E79" s="55"/>
+      <c r="F79" s="57"/>
       <c r="G79" s="15" t="s">
         <v>491</v>
       </c>
@@ -11886,8 +11886,8 @@
       <c r="D80" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="E80" s="62"/>
-      <c r="F80" s="58"/>
+      <c r="E80" s="55"/>
+      <c r="F80" s="57"/>
       <c r="G80" s="15" t="s">
         <v>492</v>
       </c>
@@ -11913,11 +11913,11 @@
       <c r="D81" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="E81" s="57"/>
-      <c r="F81" s="54" t="s">
+      <c r="E81" s="56"/>
+      <c r="F81" s="51" t="s">
         <v>70</v>
       </c>
-      <c r="G81" s="56"/>
+      <c r="G81" s="53"/>
       <c r="H81" s="2" t="s">
         <v>43</v>
       </c>
@@ -11943,10 +11943,10 @@
       <c r="E82" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="F82" s="54" t="s">
+      <c r="F82" s="51" t="s">
         <v>533</v>
       </c>
-      <c r="G82" s="56"/>
+      <c r="G82" s="53"/>
       <c r="H82" s="2" t="s">
         <v>510</v>
       </c>
@@ -11969,11 +11969,11 @@
       <c r="D83" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="E83" s="62"/>
-      <c r="F83" s="54" t="s">
+      <c r="E83" s="55"/>
+      <c r="F83" s="51" t="s">
         <v>534</v>
       </c>
-      <c r="G83" s="56"/>
+      <c r="G83" s="53"/>
       <c r="H83" s="2" t="s">
         <v>511</v>
       </c>
@@ -11996,11 +11996,11 @@
       <c r="D84" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="E84" s="62"/>
-      <c r="F84" s="54" t="s">
+      <c r="E84" s="55"/>
+      <c r="F84" s="51" t="s">
         <v>484</v>
       </c>
-      <c r="G84" s="56"/>
+      <c r="G84" s="53"/>
       <c r="H84" s="2" t="s">
         <v>180</v>
       </c>
@@ -12023,7 +12023,7 @@
       <c r="D85" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="E85" s="62"/>
+      <c r="E85" s="55"/>
       <c r="F85" s="20" t="s">
         <v>59</v>
       </c>
@@ -12050,7 +12050,7 @@
       <c r="D86" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="E86" s="62"/>
+      <c r="E86" s="55"/>
       <c r="F86" s="33"/>
       <c r="G86" s="15" t="s">
         <v>486</v>
@@ -12075,7 +12075,7 @@
       <c r="D87" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="E87" s="62"/>
+      <c r="E87" s="55"/>
       <c r="F87" s="20" t="s">
         <v>67</v>
       </c>
@@ -12104,8 +12104,8 @@
       <c r="D88" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="E88" s="62"/>
-      <c r="F88" s="57"/>
+      <c r="E88" s="55"/>
+      <c r="F88" s="56"/>
       <c r="G88" s="15" t="s">
         <v>488</v>
       </c>
@@ -12131,8 +12131,8 @@
       <c r="D89" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="E89" s="62"/>
-      <c r="F89" s="58"/>
+      <c r="E89" s="55"/>
+      <c r="F89" s="57"/>
       <c r="G89" s="15" t="s">
         <v>489</v>
       </c>
@@ -12158,8 +12158,8 @@
       <c r="D90" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="E90" s="62"/>
-      <c r="F90" s="58"/>
+      <c r="E90" s="55"/>
+      <c r="F90" s="57"/>
       <c r="G90" s="15" t="s">
         <v>490</v>
       </c>
@@ -12185,8 +12185,8 @@
       <c r="D91" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="E91" s="62"/>
-      <c r="F91" s="58"/>
+      <c r="E91" s="55"/>
+      <c r="F91" s="57"/>
       <c r="G91" s="15" t="s">
         <v>491</v>
       </c>
@@ -12212,8 +12212,8 @@
       <c r="D92" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="E92" s="62"/>
-      <c r="F92" s="58"/>
+      <c r="E92" s="55"/>
+      <c r="F92" s="57"/>
       <c r="G92" s="15" t="s">
         <v>492</v>
       </c>
@@ -12239,11 +12239,11 @@
       <c r="D93" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="E93" s="57"/>
-      <c r="F93" s="54" t="s">
+      <c r="E93" s="56"/>
+      <c r="F93" s="51" t="s">
         <v>70</v>
       </c>
-      <c r="G93" s="56"/>
+      <c r="G93" s="53"/>
       <c r="H93" s="2" t="s">
         <v>43</v>
       </c>
@@ -12269,10 +12269,10 @@
       <c r="E94" s="16" t="s">
         <v>468</v>
       </c>
-      <c r="F94" s="54" t="s">
+      <c r="F94" s="51" t="s">
         <v>533</v>
       </c>
-      <c r="G94" s="56"/>
+      <c r="G94" s="53"/>
       <c r="H94" s="2" t="s">
         <v>508</v>
       </c>
@@ -12295,11 +12295,11 @@
       <c r="D95" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="E95" s="62"/>
-      <c r="F95" s="54" t="s">
+      <c r="E95" s="55"/>
+      <c r="F95" s="51" t="s">
         <v>534</v>
       </c>
-      <c r="G95" s="56"/>
+      <c r="G95" s="53"/>
       <c r="H95" s="2" t="s">
         <v>509</v>
       </c>
@@ -12322,11 +12322,11 @@
       <c r="D96" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="E96" s="62"/>
-      <c r="F96" s="54" t="s">
+      <c r="E96" s="55"/>
+      <c r="F96" s="51" t="s">
         <v>484</v>
       </c>
-      <c r="G96" s="56"/>
+      <c r="G96" s="53"/>
       <c r="H96" s="2" t="s">
         <v>180</v>
       </c>
@@ -12349,7 +12349,7 @@
       <c r="D97" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="E97" s="62"/>
+      <c r="E97" s="55"/>
       <c r="F97" s="20" t="s">
         <v>59</v>
       </c>
@@ -12376,7 +12376,7 @@
       <c r="D98" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="E98" s="62"/>
+      <c r="E98" s="55"/>
       <c r="F98" s="33"/>
       <c r="G98" s="15" t="s">
         <v>486</v>
@@ -12401,7 +12401,7 @@
       <c r="D99" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="E99" s="62"/>
+      <c r="E99" s="55"/>
       <c r="F99" s="20" t="s">
         <v>67</v>
       </c>
@@ -12430,8 +12430,8 @@
       <c r="D100" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="E100" s="62"/>
-      <c r="F100" s="57"/>
+      <c r="E100" s="55"/>
+      <c r="F100" s="56"/>
       <c r="G100" s="15" t="s">
         <v>488</v>
       </c>
@@ -12457,8 +12457,8 @@
       <c r="D101" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="E101" s="62"/>
-      <c r="F101" s="58"/>
+      <c r="E101" s="55"/>
+      <c r="F101" s="57"/>
       <c r="G101" s="15" t="s">
         <v>489</v>
       </c>
@@ -12484,8 +12484,8 @@
       <c r="D102" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="E102" s="62"/>
-      <c r="F102" s="58"/>
+      <c r="E102" s="55"/>
+      <c r="F102" s="57"/>
       <c r="G102" s="15" t="s">
         <v>490</v>
       </c>
@@ -12511,8 +12511,8 @@
       <c r="D103" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="E103" s="62"/>
-      <c r="F103" s="58"/>
+      <c r="E103" s="55"/>
+      <c r="F103" s="57"/>
       <c r="G103" s="15" t="s">
         <v>491</v>
       </c>
@@ -12538,8 +12538,8 @@
       <c r="D104" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="E104" s="62"/>
-      <c r="F104" s="58"/>
+      <c r="E104" s="55"/>
+      <c r="F104" s="57"/>
       <c r="G104" s="15" t="s">
         <v>492</v>
       </c>
@@ -12565,11 +12565,11 @@
       <c r="D105" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="E105" s="57"/>
-      <c r="F105" s="54" t="s">
+      <c r="E105" s="56"/>
+      <c r="F105" s="51" t="s">
         <v>70</v>
       </c>
-      <c r="G105" s="56"/>
+      <c r="G105" s="53"/>
       <c r="H105" s="2" t="s">
         <v>43</v>
       </c>
@@ -12595,10 +12595,10 @@
       <c r="E106" s="16" t="s">
         <v>469</v>
       </c>
-      <c r="F106" s="54" t="s">
+      <c r="F106" s="51" t="s">
         <v>533</v>
       </c>
-      <c r="G106" s="56"/>
+      <c r="G106" s="53"/>
       <c r="H106" s="2" t="s">
         <v>506</v>
       </c>
@@ -12621,11 +12621,11 @@
       <c r="D107" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="E107" s="62"/>
-      <c r="F107" s="54" t="s">
+      <c r="E107" s="55"/>
+      <c r="F107" s="51" t="s">
         <v>534</v>
       </c>
-      <c r="G107" s="56"/>
+      <c r="G107" s="53"/>
       <c r="H107" s="2" t="s">
         <v>507</v>
       </c>
@@ -12648,11 +12648,11 @@
       <c r="D108" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="E108" s="62"/>
-      <c r="F108" s="54" t="s">
+      <c r="E108" s="55"/>
+      <c r="F108" s="51" t="s">
         <v>484</v>
       </c>
-      <c r="G108" s="56"/>
+      <c r="G108" s="53"/>
       <c r="H108" s="2" t="s">
         <v>180</v>
       </c>
@@ -12675,7 +12675,7 @@
       <c r="D109" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="E109" s="62"/>
+      <c r="E109" s="55"/>
       <c r="F109" s="20" t="s">
         <v>59</v>
       </c>
@@ -12702,7 +12702,7 @@
       <c r="D110" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="E110" s="62"/>
+      <c r="E110" s="55"/>
       <c r="F110" s="33"/>
       <c r="G110" s="15" t="s">
         <v>486</v>
@@ -12727,7 +12727,7 @@
       <c r="D111" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="E111" s="62"/>
+      <c r="E111" s="55"/>
       <c r="F111" s="20" t="s">
         <v>67</v>
       </c>
@@ -12756,8 +12756,8 @@
       <c r="D112" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="E112" s="62"/>
-      <c r="F112" s="57"/>
+      <c r="E112" s="55"/>
+      <c r="F112" s="56"/>
       <c r="G112" s="15" t="s">
         <v>488</v>
       </c>
@@ -12783,8 +12783,8 @@
       <c r="D113" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="E113" s="62"/>
-      <c r="F113" s="58"/>
+      <c r="E113" s="55"/>
+      <c r="F113" s="57"/>
       <c r="G113" s="15" t="s">
         <v>489</v>
       </c>
@@ -12810,8 +12810,8 @@
       <c r="D114" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="E114" s="62"/>
-      <c r="F114" s="58"/>
+      <c r="E114" s="55"/>
+      <c r="F114" s="57"/>
       <c r="G114" s="15" t="s">
         <v>490</v>
       </c>
@@ -12837,8 +12837,8 @@
       <c r="D115" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="E115" s="62"/>
-      <c r="F115" s="58"/>
+      <c r="E115" s="55"/>
+      <c r="F115" s="57"/>
       <c r="G115" s="15" t="s">
         <v>491</v>
       </c>
@@ -12864,8 +12864,8 @@
       <c r="D116" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="E116" s="62"/>
-      <c r="F116" s="58"/>
+      <c r="E116" s="55"/>
+      <c r="F116" s="57"/>
       <c r="G116" s="15" t="s">
         <v>492</v>
       </c>
@@ -12891,11 +12891,11 @@
       <c r="D117" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="E117" s="57"/>
-      <c r="F117" s="54" t="s">
+      <c r="E117" s="56"/>
+      <c r="F117" s="51" t="s">
         <v>70</v>
       </c>
-      <c r="G117" s="56"/>
+      <c r="G117" s="53"/>
       <c r="H117" s="2" t="s">
         <v>43</v>
       </c>
@@ -12921,10 +12921,10 @@
       <c r="E118" s="16" t="s">
         <v>257</v>
       </c>
-      <c r="F118" s="54" t="s">
+      <c r="F118" s="51" t="s">
         <v>494</v>
       </c>
-      <c r="G118" s="56"/>
+      <c r="G118" s="53"/>
       <c r="H118" s="2" t="s">
         <v>504</v>
       </c>
@@ -12947,11 +12947,11 @@
       <c r="D119" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="E119" s="62"/>
-      <c r="F119" s="54" t="s">
+      <c r="E119" s="55"/>
+      <c r="F119" s="51" t="s">
         <v>482</v>
       </c>
-      <c r="G119" s="56"/>
+      <c r="G119" s="53"/>
       <c r="H119" s="2" t="s">
         <v>505</v>
       </c>
@@ -12974,11 +12974,11 @@
       <c r="D120" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="E120" s="62"/>
-      <c r="F120" s="54" t="s">
+      <c r="E120" s="55"/>
+      <c r="F120" s="51" t="s">
         <v>484</v>
       </c>
-      <c r="G120" s="56"/>
+      <c r="G120" s="53"/>
       <c r="H120" s="2" t="s">
         <v>180</v>
       </c>
@@ -13001,7 +13001,7 @@
       <c r="D121" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="E121" s="62"/>
+      <c r="E121" s="55"/>
       <c r="F121" s="20" t="s">
         <v>59</v>
       </c>
@@ -13028,7 +13028,7 @@
       <c r="D122" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="E122" s="62"/>
+      <c r="E122" s="55"/>
       <c r="F122" s="33"/>
       <c r="G122" s="15" t="s">
         <v>486</v>
@@ -13053,7 +13053,7 @@
       <c r="D123" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="E123" s="62"/>
+      <c r="E123" s="55"/>
       <c r="F123" s="20" t="s">
         <v>67</v>
       </c>
@@ -13082,8 +13082,8 @@
       <c r="D124" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="E124" s="62"/>
-      <c r="F124" s="57"/>
+      <c r="E124" s="55"/>
+      <c r="F124" s="56"/>
       <c r="G124" s="15" t="s">
         <v>488</v>
       </c>
@@ -13109,8 +13109,8 @@
       <c r="D125" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="E125" s="62"/>
-      <c r="F125" s="58"/>
+      <c r="E125" s="55"/>
+      <c r="F125" s="57"/>
       <c r="G125" s="15" t="s">
         <v>489</v>
       </c>
@@ -13136,8 +13136,8 @@
       <c r="D126" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="E126" s="62"/>
-      <c r="F126" s="58"/>
+      <c r="E126" s="55"/>
+      <c r="F126" s="57"/>
       <c r="G126" s="15" t="s">
         <v>490</v>
       </c>
@@ -13163,8 +13163,8 @@
       <c r="D127" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="E127" s="62"/>
-      <c r="F127" s="58"/>
+      <c r="E127" s="55"/>
+      <c r="F127" s="57"/>
       <c r="G127" s="15" t="s">
         <v>491</v>
       </c>
@@ -13190,8 +13190,8 @@
       <c r="D128" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="E128" s="62"/>
-      <c r="F128" s="58"/>
+      <c r="E128" s="55"/>
+      <c r="F128" s="57"/>
       <c r="G128" s="15" t="s">
         <v>492</v>
       </c>
@@ -13217,11 +13217,11 @@
       <c r="D129" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="E129" s="57"/>
-      <c r="F129" s="54" t="s">
+      <c r="E129" s="56"/>
+      <c r="F129" s="51" t="s">
         <v>70</v>
       </c>
-      <c r="G129" s="56"/>
+      <c r="G129" s="53"/>
       <c r="H129" s="2" t="s">
         <v>43</v>
       </c>
@@ -13247,10 +13247,10 @@
       <c r="E130" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="F130" s="55" t="s">
+      <c r="F130" s="52" t="s">
         <v>494</v>
       </c>
-      <c r="G130" s="56"/>
+      <c r="G130" s="53"/>
       <c r="H130" s="2" t="s">
         <v>57</v>
       </c>
@@ -13273,7 +13273,7 @@
       <c r="D131" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="E131" s="62"/>
+      <c r="E131" s="55"/>
       <c r="F131" s="63" t="s">
         <v>482</v>
       </c>
@@ -13300,7 +13300,7 @@
       <c r="D132" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="E132" s="62"/>
+      <c r="E132" s="55"/>
       <c r="F132" s="63" t="s">
         <v>531</v>
       </c>
@@ -13327,7 +13327,7 @@
       <c r="D133" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="E133" s="62"/>
+      <c r="E133" s="55"/>
       <c r="F133" s="63" t="s">
         <v>532</v>
       </c>
@@ -13354,7 +13354,7 @@
       <c r="D134" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="E134" s="62"/>
+      <c r="E134" s="55"/>
       <c r="F134" s="20" t="s">
         <v>59</v>
       </c>
@@ -13381,7 +13381,7 @@
       <c r="D135" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="E135" s="62"/>
+      <c r="E135" s="55"/>
       <c r="F135" s="33"/>
       <c r="G135" s="15" t="s">
         <v>486</v>
@@ -13406,7 +13406,7 @@
       <c r="D136" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="E136" s="62"/>
+      <c r="E136" s="55"/>
       <c r="F136" s="20" t="s">
         <v>67</v>
       </c>
@@ -13435,8 +13435,8 @@
       <c r="D137" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="E137" s="62"/>
-      <c r="F137" s="57"/>
+      <c r="E137" s="55"/>
+      <c r="F137" s="56"/>
       <c r="G137" s="15" t="s">
         <v>488</v>
       </c>
@@ -13462,8 +13462,8 @@
       <c r="D138" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="E138" s="62"/>
-      <c r="F138" s="58"/>
+      <c r="E138" s="55"/>
+      <c r="F138" s="57"/>
       <c r="G138" s="15" t="s">
         <v>489</v>
       </c>
@@ -13489,8 +13489,8 @@
       <c r="D139" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="E139" s="62"/>
-      <c r="F139" s="58"/>
+      <c r="E139" s="55"/>
+      <c r="F139" s="57"/>
       <c r="G139" s="15" t="s">
         <v>490</v>
       </c>
@@ -13516,8 +13516,8 @@
       <c r="D140" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="E140" s="62"/>
-      <c r="F140" s="58"/>
+      <c r="E140" s="55"/>
+      <c r="F140" s="57"/>
       <c r="G140" s="15" t="s">
         <v>491</v>
       </c>
@@ -13543,8 +13543,8 @@
       <c r="D141" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="E141" s="62"/>
-      <c r="F141" s="58"/>
+      <c r="E141" s="55"/>
+      <c r="F141" s="57"/>
       <c r="G141" s="15" t="s">
         <v>492</v>
       </c>
@@ -13570,11 +13570,11 @@
       <c r="D142" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="E142" s="57"/>
-      <c r="F142" s="54" t="s">
+      <c r="E142" s="56"/>
+      <c r="F142" s="51" t="s">
         <v>70</v>
       </c>
-      <c r="G142" s="56"/>
+      <c r="G142" s="53"/>
       <c r="H142" s="2" t="s">
         <v>43</v>
       </c>
@@ -13600,10 +13600,10 @@
       <c r="E143" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="F143" s="55" t="s">
+      <c r="F143" s="52" t="s">
         <v>494</v>
       </c>
-      <c r="G143" s="56"/>
+      <c r="G143" s="53"/>
       <c r="H143" s="2" t="s">
         <v>502</v>
       </c>
@@ -13626,7 +13626,7 @@
       <c r="D144" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="E144" s="62"/>
+      <c r="E144" s="55"/>
       <c r="F144" s="63" t="s">
         <v>482</v>
       </c>
@@ -13653,7 +13653,7 @@
       <c r="D145" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="E145" s="62"/>
+      <c r="E145" s="55"/>
       <c r="F145" s="63" t="s">
         <v>531</v>
       </c>
@@ -13680,7 +13680,7 @@
       <c r="D146" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="E146" s="62"/>
+      <c r="E146" s="55"/>
       <c r="F146" s="63" t="s">
         <v>532</v>
       </c>
@@ -13707,7 +13707,7 @@
       <c r="D147" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="E147" s="62"/>
+      <c r="E147" s="55"/>
       <c r="F147" s="20" t="s">
         <v>59</v>
       </c>
@@ -13734,7 +13734,7 @@
       <c r="D148" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="E148" s="62"/>
+      <c r="E148" s="55"/>
       <c r="F148" s="33"/>
       <c r="G148" s="15" t="s">
         <v>486</v>
@@ -13759,7 +13759,7 @@
       <c r="D149" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="E149" s="62"/>
+      <c r="E149" s="55"/>
       <c r="F149" s="20" t="s">
         <v>67</v>
       </c>
@@ -13788,8 +13788,8 @@
       <c r="D150" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="E150" s="62"/>
-      <c r="F150" s="57"/>
+      <c r="E150" s="55"/>
+      <c r="F150" s="56"/>
       <c r="G150" s="15" t="s">
         <v>488</v>
       </c>
@@ -13815,8 +13815,8 @@
       <c r="D151" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="E151" s="62"/>
-      <c r="F151" s="58"/>
+      <c r="E151" s="55"/>
+      <c r="F151" s="57"/>
       <c r="G151" s="15" t="s">
         <v>489</v>
       </c>
@@ -13842,8 +13842,8 @@
       <c r="D152" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="E152" s="62"/>
-      <c r="F152" s="58"/>
+      <c r="E152" s="55"/>
+      <c r="F152" s="57"/>
       <c r="G152" s="15" t="s">
         <v>490</v>
       </c>
@@ -13869,8 +13869,8 @@
       <c r="D153" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="E153" s="62"/>
-      <c r="F153" s="58"/>
+      <c r="E153" s="55"/>
+      <c r="F153" s="57"/>
       <c r="G153" s="15" t="s">
         <v>491</v>
       </c>
@@ -13896,8 +13896,8 @@
       <c r="D154" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="E154" s="62"/>
-      <c r="F154" s="58"/>
+      <c r="E154" s="55"/>
+      <c r="F154" s="57"/>
       <c r="G154" s="15" t="s">
         <v>492</v>
       </c>
@@ -13923,11 +13923,11 @@
       <c r="D155" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="E155" s="57"/>
-      <c r="F155" s="54" t="s">
+      <c r="E155" s="56"/>
+      <c r="F155" s="51" t="s">
         <v>70</v>
       </c>
-      <c r="G155" s="56"/>
+      <c r="G155" s="53"/>
       <c r="H155" s="2" t="s">
         <v>43</v>
       </c>
@@ -13953,10 +13953,10 @@
       <c r="E156" s="16" t="s">
         <v>470</v>
       </c>
-      <c r="F156" s="55" t="s">
+      <c r="F156" s="52" t="s">
         <v>494</v>
       </c>
-      <c r="G156" s="56"/>
+      <c r="G156" s="53"/>
       <c r="H156" s="2" t="s">
         <v>501</v>
       </c>
@@ -13979,7 +13979,7 @@
       <c r="D157" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="E157" s="62"/>
+      <c r="E157" s="55"/>
       <c r="F157" s="63" t="s">
         <v>482</v>
       </c>
@@ -14006,7 +14006,7 @@
       <c r="D158" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="E158" s="62"/>
+      <c r="E158" s="55"/>
       <c r="F158" s="63" t="s">
         <v>531</v>
       </c>
@@ -14033,7 +14033,7 @@
       <c r="D159" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="E159" s="62"/>
+      <c r="E159" s="55"/>
       <c r="F159" s="63" t="s">
         <v>532</v>
       </c>
@@ -14060,7 +14060,7 @@
       <c r="D160" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="E160" s="62"/>
+      <c r="E160" s="55"/>
       <c r="F160" s="20" t="s">
         <v>59</v>
       </c>
@@ -14087,7 +14087,7 @@
       <c r="D161" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="E161" s="62"/>
+      <c r="E161" s="55"/>
       <c r="F161" s="33"/>
       <c r="G161" s="15" t="s">
         <v>486</v>
@@ -14112,7 +14112,7 @@
       <c r="D162" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="E162" s="62"/>
+      <c r="E162" s="55"/>
       <c r="F162" s="20" t="s">
         <v>67</v>
       </c>
@@ -14141,8 +14141,8 @@
       <c r="D163" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="E163" s="62"/>
-      <c r="F163" s="57"/>
+      <c r="E163" s="55"/>
+      <c r="F163" s="56"/>
       <c r="G163" s="15" t="s">
         <v>488</v>
       </c>
@@ -14168,8 +14168,8 @@
       <c r="D164" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="E164" s="62"/>
-      <c r="F164" s="58"/>
+      <c r="E164" s="55"/>
+      <c r="F164" s="57"/>
       <c r="G164" s="15" t="s">
         <v>489</v>
       </c>
@@ -14195,8 +14195,8 @@
       <c r="D165" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="E165" s="62"/>
-      <c r="F165" s="58"/>
+      <c r="E165" s="55"/>
+      <c r="F165" s="57"/>
       <c r="G165" s="15" t="s">
         <v>490</v>
       </c>
@@ -14222,8 +14222,8 @@
       <c r="D166" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="E166" s="62"/>
-      <c r="F166" s="58"/>
+      <c r="E166" s="55"/>
+      <c r="F166" s="57"/>
       <c r="G166" s="15" t="s">
         <v>491</v>
       </c>
@@ -14249,8 +14249,8 @@
       <c r="D167" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="E167" s="62"/>
-      <c r="F167" s="58"/>
+      <c r="E167" s="55"/>
+      <c r="F167" s="57"/>
       <c r="G167" s="15" t="s">
         <v>492</v>
       </c>
@@ -14276,11 +14276,11 @@
       <c r="D168" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="E168" s="57"/>
-      <c r="F168" s="54" t="s">
+      <c r="E168" s="56"/>
+      <c r="F168" s="51" t="s">
         <v>70</v>
       </c>
-      <c r="G168" s="56"/>
+      <c r="G168" s="53"/>
       <c r="H168" s="2" t="s">
         <v>43</v>
       </c>
@@ -14464,25 +14464,69 @@
     </row>
   </sheetData>
   <mergeCells count="98">
-    <mergeCell ref="E6:E8"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="E47:E57"/>
-    <mergeCell ref="F59:G59"/>
-    <mergeCell ref="F60:G60"/>
-    <mergeCell ref="F47:G47"/>
-    <mergeCell ref="F48:G48"/>
-    <mergeCell ref="E59:E69"/>
-    <mergeCell ref="F64:F68"/>
+    <mergeCell ref="F94:G94"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="F96:G96"/>
+    <mergeCell ref="F105:G105"/>
+    <mergeCell ref="F106:G106"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="F57:G57"/>
+    <mergeCell ref="F58:G58"/>
+    <mergeCell ref="F69:G69"/>
+    <mergeCell ref="F52:F56"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="F130:G130"/>
+    <mergeCell ref="F131:G131"/>
+    <mergeCell ref="F132:G132"/>
+    <mergeCell ref="F133:G133"/>
+    <mergeCell ref="F142:G142"/>
+    <mergeCell ref="E131:E142"/>
+    <mergeCell ref="E144:E155"/>
+    <mergeCell ref="F150:F154"/>
+    <mergeCell ref="E157:E168"/>
+    <mergeCell ref="F163:F167"/>
+    <mergeCell ref="F156:G156"/>
+    <mergeCell ref="F157:G157"/>
+    <mergeCell ref="F158:G158"/>
+    <mergeCell ref="F159:G159"/>
+    <mergeCell ref="F168:G168"/>
+    <mergeCell ref="F143:G143"/>
+    <mergeCell ref="F144:G144"/>
+    <mergeCell ref="F145:G145"/>
+    <mergeCell ref="F146:G146"/>
+    <mergeCell ref="F155:G155"/>
+    <mergeCell ref="F137:F141"/>
+    <mergeCell ref="E95:E105"/>
+    <mergeCell ref="F100:F104"/>
+    <mergeCell ref="E107:E117"/>
+    <mergeCell ref="F112:F116"/>
+    <mergeCell ref="E119:E129"/>
+    <mergeCell ref="F124:F128"/>
+    <mergeCell ref="F118:G118"/>
+    <mergeCell ref="F119:G119"/>
+    <mergeCell ref="F120:G120"/>
+    <mergeCell ref="F95:G95"/>
+    <mergeCell ref="F129:G129"/>
+    <mergeCell ref="F108:G108"/>
+    <mergeCell ref="F117:G117"/>
+    <mergeCell ref="F107:G107"/>
+    <mergeCell ref="E71:E81"/>
+    <mergeCell ref="F76:F80"/>
+    <mergeCell ref="E83:E93"/>
+    <mergeCell ref="F88:F92"/>
+    <mergeCell ref="F70:G70"/>
+    <mergeCell ref="F71:G71"/>
+    <mergeCell ref="F72:G72"/>
+    <mergeCell ref="F81:G81"/>
+    <mergeCell ref="F82:G82"/>
+    <mergeCell ref="F83:G83"/>
+    <mergeCell ref="F84:G84"/>
+    <mergeCell ref="F93:G93"/>
     <mergeCell ref="I3:I4"/>
     <mergeCell ref="F28:F32"/>
     <mergeCell ref="E23:E33"/>
@@ -14499,69 +14543,25 @@
     <mergeCell ref="F14:G14"/>
     <mergeCell ref="F15:G15"/>
     <mergeCell ref="F20:G20"/>
-    <mergeCell ref="E71:E81"/>
-    <mergeCell ref="F76:F80"/>
-    <mergeCell ref="E83:E93"/>
-    <mergeCell ref="F88:F92"/>
-    <mergeCell ref="F70:G70"/>
-    <mergeCell ref="F71:G71"/>
-    <mergeCell ref="F72:G72"/>
-    <mergeCell ref="F81:G81"/>
-    <mergeCell ref="F82:G82"/>
-    <mergeCell ref="F83:G83"/>
-    <mergeCell ref="F84:G84"/>
-    <mergeCell ref="F93:G93"/>
-    <mergeCell ref="E95:E105"/>
-    <mergeCell ref="F100:F104"/>
-    <mergeCell ref="E107:E117"/>
-    <mergeCell ref="F112:F116"/>
-    <mergeCell ref="E119:E129"/>
-    <mergeCell ref="F124:F128"/>
-    <mergeCell ref="F118:G118"/>
-    <mergeCell ref="F119:G119"/>
-    <mergeCell ref="F120:G120"/>
-    <mergeCell ref="F95:G95"/>
-    <mergeCell ref="F129:G129"/>
-    <mergeCell ref="F108:G108"/>
-    <mergeCell ref="F117:G117"/>
-    <mergeCell ref="F107:G107"/>
-    <mergeCell ref="E131:E142"/>
-    <mergeCell ref="E144:E155"/>
-    <mergeCell ref="F150:F154"/>
-    <mergeCell ref="E157:E168"/>
-    <mergeCell ref="F163:F167"/>
-    <mergeCell ref="F156:G156"/>
-    <mergeCell ref="F157:G157"/>
-    <mergeCell ref="F158:G158"/>
-    <mergeCell ref="F159:G159"/>
-    <mergeCell ref="F168:G168"/>
-    <mergeCell ref="F143:G143"/>
-    <mergeCell ref="F144:G144"/>
-    <mergeCell ref="F145:G145"/>
-    <mergeCell ref="F146:G146"/>
-    <mergeCell ref="F155:G155"/>
-    <mergeCell ref="F137:F141"/>
-    <mergeCell ref="F130:G130"/>
-    <mergeCell ref="F131:G131"/>
-    <mergeCell ref="F132:G132"/>
-    <mergeCell ref="F133:G133"/>
-    <mergeCell ref="F142:G142"/>
-    <mergeCell ref="F94:G94"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="F96:G96"/>
-    <mergeCell ref="F105:G105"/>
-    <mergeCell ref="F106:G106"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="F57:G57"/>
-    <mergeCell ref="F58:G58"/>
-    <mergeCell ref="F69:G69"/>
-    <mergeCell ref="F52:F56"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="E47:E57"/>
+    <mergeCell ref="F59:G59"/>
+    <mergeCell ref="F60:G60"/>
+    <mergeCell ref="F47:G47"/>
+    <mergeCell ref="F48:G48"/>
+    <mergeCell ref="E59:E69"/>
+    <mergeCell ref="F64:F68"/>
+    <mergeCell ref="E6:E8"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="F7:G7"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14573,7 +14573,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:L47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="H39" sqref="H39"/>
     </sheetView>
@@ -14607,11 +14607,11 @@
       <c r="D2" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="E2" s="51" t="s">
+      <c r="E2" s="60" t="s">
         <v>33</v>
       </c>
-      <c r="F2" s="52"/>
-      <c r="G2" s="53"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="62"/>
       <c r="H2" s="6" t="s">
         <v>34</v>
       </c>
@@ -14642,9 +14642,9 @@
       <c r="D3" s="2" t="s">
         <v>558</v>
       </c>
-      <c r="E3" s="54"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="56"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="53"/>
       <c r="H3" s="2" t="s">
         <v>603</v>
       </c>
@@ -14669,11 +14669,11 @@
       <c r="D4" s="2" t="s">
         <v>563</v>
       </c>
-      <c r="E4" s="54" t="s">
+      <c r="E4" s="51" t="s">
         <v>571</v>
       </c>
-      <c r="F4" s="55"/>
-      <c r="G4" s="56"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="53"/>
       <c r="H4" s="2" t="s">
         <v>561</v>
       </c>
@@ -14698,9 +14698,9 @@
       <c r="D5" s="2" t="s">
         <v>563</v>
       </c>
-      <c r="E5" s="54"/>
-      <c r="F5" s="55"/>
-      <c r="G5" s="56"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="52"/>
+      <c r="G5" s="53"/>
       <c r="H5" s="2" t="s">
         <v>561</v>
       </c>
@@ -14725,11 +14725,11 @@
       <c r="D6" s="2" t="s">
         <v>565</v>
       </c>
-      <c r="E6" s="54" t="s">
+      <c r="E6" s="51" t="s">
         <v>572</v>
       </c>
-      <c r="F6" s="55"/>
-      <c r="G6" s="56"/>
+      <c r="F6" s="52"/>
+      <c r="G6" s="53"/>
       <c r="H6" s="2" t="s">
         <v>566</v>
       </c>
@@ -14754,11 +14754,11 @@
       <c r="D7" s="2" t="s">
         <v>563</v>
       </c>
-      <c r="E7" s="54" t="s">
+      <c r="E7" s="51" t="s">
         <v>573</v>
       </c>
-      <c r="F7" s="55"/>
-      <c r="G7" s="56"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="53"/>
       <c r="H7" s="2" t="s">
         <v>568</v>
       </c>
@@ -14786,10 +14786,10 @@
       <c r="E8" s="28" t="s">
         <v>574</v>
       </c>
-      <c r="F8" s="54" t="s">
+      <c r="F8" s="51" t="s">
         <v>575</v>
       </c>
-      <c r="G8" s="56"/>
+      <c r="G8" s="53"/>
       <c r="H8" s="2" t="s">
         <v>577</v>
       </c>
@@ -14814,11 +14814,11 @@
       <c r="D9" s="2" t="s">
         <v>563</v>
       </c>
-      <c r="E9" s="62"/>
-      <c r="F9" s="54" t="s">
+      <c r="E9" s="55"/>
+      <c r="F9" s="51" t="s">
         <v>576</v>
       </c>
-      <c r="G9" s="56"/>
+      <c r="G9" s="53"/>
       <c r="H9" s="2" t="s">
         <v>578</v>
       </c>
@@ -14843,11 +14843,11 @@
       <c r="D10" s="2" t="s">
         <v>563</v>
       </c>
-      <c r="E10" s="62"/>
-      <c r="F10" s="54" t="s">
+      <c r="E10" s="55"/>
+      <c r="F10" s="51" t="s">
         <v>579</v>
       </c>
-      <c r="G10" s="56"/>
+      <c r="G10" s="53"/>
       <c r="H10" s="2" t="s">
         <v>577</v>
       </c>
@@ -14872,11 +14872,11 @@
       <c r="D11" s="2" t="s">
         <v>563</v>
       </c>
-      <c r="E11" s="57"/>
-      <c r="F11" s="54" t="s">
+      <c r="E11" s="56"/>
+      <c r="F11" s="51" t="s">
         <v>580</v>
       </c>
-      <c r="G11" s="56"/>
+      <c r="G11" s="53"/>
       <c r="H11" s="2" t="s">
         <v>578</v>
       </c>
@@ -14901,9 +14901,9 @@
       <c r="D12" s="2" t="s">
         <v>563</v>
       </c>
-      <c r="E12" s="54"/>
-      <c r="F12" s="55"/>
-      <c r="G12" s="56"/>
+      <c r="E12" s="51"/>
+      <c r="F12" s="52"/>
+      <c r="G12" s="53"/>
       <c r="H12" s="2" t="s">
         <v>597</v>
       </c>
@@ -14926,9 +14926,9 @@
         <v>560</v>
       </c>
       <c r="D13" s="2"/>
-      <c r="E13" s="54"/>
-      <c r="F13" s="55"/>
-      <c r="G13" s="56"/>
+      <c r="E13" s="51"/>
+      <c r="F13" s="52"/>
+      <c r="G13" s="53"/>
       <c r="H13" s="2" t="s">
         <v>651</v>
       </c>
@@ -14957,7 +14957,7 @@
         <v>586</v>
       </c>
       <c r="F14" s="76"/>
-      <c r="G14" s="66"/>
+      <c r="G14" s="70"/>
       <c r="H14" s="45" t="s">
         <v>599</v>
       </c>
@@ -14980,9 +14980,9 @@
       <c r="D15" s="2" t="s">
         <v>565</v>
       </c>
-      <c r="E15" s="62"/>
-      <c r="F15" s="54"/>
-      <c r="G15" s="56"/>
+      <c r="E15" s="55"/>
+      <c r="F15" s="51"/>
+      <c r="G15" s="53"/>
       <c r="H15" s="2" t="s">
         <v>654</v>
       </c>
@@ -15005,9 +15005,9 @@
       <c r="D16" s="2" t="s">
         <v>565</v>
       </c>
-      <c r="E16" s="62"/>
-      <c r="F16" s="54"/>
-      <c r="G16" s="56"/>
+      <c r="E16" s="55"/>
+      <c r="F16" s="51"/>
+      <c r="G16" s="53"/>
       <c r="H16" s="2" t="s">
         <v>600</v>
       </c>
@@ -15030,9 +15030,9 @@
       <c r="D17" s="2" t="s">
         <v>565</v>
       </c>
-      <c r="E17" s="62"/>
-      <c r="F17" s="54"/>
-      <c r="G17" s="56"/>
+      <c r="E17" s="55"/>
+      <c r="F17" s="51"/>
+      <c r="G17" s="53"/>
       <c r="H17" s="2" t="s">
         <v>561</v>
       </c>
@@ -15055,9 +15055,9 @@
       <c r="D18" s="2" t="s">
         <v>565</v>
       </c>
-      <c r="E18" s="57"/>
-      <c r="F18" s="54"/>
-      <c r="G18" s="56"/>
+      <c r="E18" s="56"/>
+      <c r="F18" s="51"/>
+      <c r="G18" s="53"/>
       <c r="H18" s="2" t="s">
         <v>561</v>
       </c>
@@ -15083,14 +15083,14 @@
       <c r="E19" s="28" t="s">
         <v>587</v>
       </c>
-      <c r="F19" s="54" t="s">
+      <c r="F19" s="51" t="s">
         <v>588</v>
       </c>
-      <c r="G19" s="56"/>
+      <c r="G19" s="53"/>
       <c r="H19" s="2" t="s">
         <v>597</v>
       </c>
-      <c r="I19" s="69" t="b">
+      <c r="I19" s="72" t="b">
         <v>1</v>
       </c>
       <c r="J19" s="2"/>
@@ -15111,11 +15111,11 @@
       <c r="D20" s="2" t="s">
         <v>563</v>
       </c>
-      <c r="E20" s="62"/>
-      <c r="F20" s="54" t="s">
+      <c r="E20" s="55"/>
+      <c r="F20" s="51" t="s">
         <v>589</v>
       </c>
-      <c r="G20" s="56"/>
+      <c r="G20" s="53"/>
       <c r="H20" s="2" t="s">
         <v>597</v>
       </c>
@@ -15138,11 +15138,11 @@
       <c r="D21" s="2" t="s">
         <v>563</v>
       </c>
-      <c r="E21" s="62"/>
-      <c r="F21" s="54" t="s">
+      <c r="E21" s="55"/>
+      <c r="F21" s="51" t="s">
         <v>590</v>
       </c>
-      <c r="G21" s="56"/>
+      <c r="G21" s="53"/>
       <c r="H21" s="2" t="s">
         <v>597</v>
       </c>
@@ -15165,11 +15165,11 @@
       <c r="D22" s="2" t="s">
         <v>563</v>
       </c>
-      <c r="E22" s="62"/>
-      <c r="F22" s="54" t="s">
+      <c r="E22" s="55"/>
+      <c r="F22" s="51" t="s">
         <v>591</v>
       </c>
-      <c r="G22" s="56"/>
+      <c r="G22" s="53"/>
       <c r="H22" s="2" t="s">
         <v>597</v>
       </c>
@@ -15192,11 +15192,11 @@
       <c r="D23" s="2" t="s">
         <v>563</v>
       </c>
-      <c r="E23" s="62"/>
-      <c r="F23" s="54" t="s">
+      <c r="E23" s="55"/>
+      <c r="F23" s="51" t="s">
         <v>592</v>
       </c>
-      <c r="G23" s="56"/>
+      <c r="G23" s="53"/>
       <c r="H23" s="2" t="s">
         <v>597</v>
       </c>
@@ -15219,11 +15219,11 @@
       <c r="D24" s="2" t="s">
         <v>563</v>
       </c>
-      <c r="E24" s="62"/>
-      <c r="F24" s="54" t="s">
+      <c r="E24" s="55"/>
+      <c r="F24" s="51" t="s">
         <v>593</v>
       </c>
-      <c r="G24" s="56"/>
+      <c r="G24" s="53"/>
       <c r="H24" s="2" t="s">
         <v>597</v>
       </c>
@@ -15246,11 +15246,11 @@
       <c r="D25" s="2" t="s">
         <v>563</v>
       </c>
-      <c r="E25" s="62"/>
-      <c r="F25" s="54" t="s">
+      <c r="E25" s="55"/>
+      <c r="F25" s="51" t="s">
         <v>594</v>
       </c>
-      <c r="G25" s="56"/>
+      <c r="G25" s="53"/>
       <c r="H25" s="2" t="s">
         <v>597</v>
       </c>
@@ -15273,15 +15273,15 @@
       <c r="D26" s="2" t="s">
         <v>563</v>
       </c>
-      <c r="E26" s="57"/>
-      <c r="F26" s="54" t="s">
+      <c r="E26" s="56"/>
+      <c r="F26" s="51" t="s">
         <v>595</v>
       </c>
-      <c r="G26" s="56"/>
+      <c r="G26" s="53"/>
       <c r="H26" s="2" t="s">
         <v>597</v>
       </c>
-      <c r="I26" s="70"/>
+      <c r="I26" s="73"/>
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
@@ -15303,10 +15303,10 @@
       <c r="E27" s="28" t="s">
         <v>596</v>
       </c>
-      <c r="F27" s="54" t="s">
+      <c r="F27" s="51" t="s">
         <v>602</v>
       </c>
-      <c r="G27" s="56"/>
+      <c r="G27" s="53"/>
       <c r="H27" s="2" t="s">
         <v>597</v>
       </c>
@@ -15329,11 +15329,11 @@
       <c r="D28" s="2" t="s">
         <v>563</v>
       </c>
-      <c r="E28" s="62"/>
-      <c r="F28" s="54" t="s">
+      <c r="E28" s="55"/>
+      <c r="F28" s="51" t="s">
         <v>604</v>
       </c>
-      <c r="G28" s="56"/>
+      <c r="G28" s="53"/>
       <c r="H28" s="5" t="s">
         <v>605</v>
       </c>
@@ -15356,11 +15356,11 @@
       <c r="D29" s="2" t="s">
         <v>563</v>
       </c>
-      <c r="E29" s="62"/>
-      <c r="F29" s="54" t="s">
+      <c r="E29" s="55"/>
+      <c r="F29" s="51" t="s">
         <v>575</v>
       </c>
-      <c r="G29" s="56"/>
+      <c r="G29" s="53"/>
       <c r="H29" s="2" t="s">
         <v>577</v>
       </c>
@@ -15383,11 +15383,11 @@
       <c r="D30" s="2" t="s">
         <v>563</v>
       </c>
-      <c r="E30" s="62"/>
-      <c r="F30" s="54" t="s">
+      <c r="E30" s="55"/>
+      <c r="F30" s="51" t="s">
         <v>576</v>
       </c>
-      <c r="G30" s="56"/>
+      <c r="G30" s="53"/>
       <c r="H30" s="2" t="s">
         <v>578</v>
       </c>
@@ -15410,11 +15410,11 @@
       <c r="D31" s="2" t="s">
         <v>563</v>
       </c>
-      <c r="E31" s="62"/>
-      <c r="F31" s="54" t="s">
+      <c r="E31" s="55"/>
+      <c r="F31" s="51" t="s">
         <v>579</v>
       </c>
-      <c r="G31" s="56"/>
+      <c r="G31" s="53"/>
       <c r="H31" s="2" t="s">
         <v>577</v>
       </c>
@@ -15437,11 +15437,11 @@
       <c r="D32" s="2" t="s">
         <v>563</v>
       </c>
-      <c r="E32" s="62"/>
-      <c r="F32" s="54" t="s">
+      <c r="E32" s="55"/>
+      <c r="F32" s="51" t="s">
         <v>580</v>
       </c>
-      <c r="G32" s="56"/>
+      <c r="G32" s="53"/>
       <c r="H32" s="2" t="s">
         <v>578</v>
       </c>
@@ -15464,11 +15464,11 @@
       <c r="D33" s="2" t="s">
         <v>565</v>
       </c>
-      <c r="E33" s="62"/>
-      <c r="F33" s="54" t="s">
+      <c r="E33" s="55"/>
+      <c r="F33" s="51" t="s">
         <v>611</v>
       </c>
-      <c r="G33" s="56"/>
+      <c r="G33" s="53"/>
       <c r="H33" s="2" t="s">
         <v>614</v>
       </c>
@@ -15491,11 +15491,11 @@
       <c r="D34" s="2" t="s">
         <v>565</v>
       </c>
-      <c r="E34" s="57"/>
-      <c r="F34" s="54" t="s">
+      <c r="E34" s="56"/>
+      <c r="F34" s="51" t="s">
         <v>612</v>
       </c>
-      <c r="G34" s="56"/>
+      <c r="G34" s="53"/>
       <c r="H34" s="2" t="s">
         <v>614</v>
       </c>
@@ -15518,11 +15518,11 @@
       <c r="D35" s="2" t="s">
         <v>565</v>
       </c>
-      <c r="E35" s="54" t="s">
+      <c r="E35" s="51" t="s">
         <v>616</v>
       </c>
-      <c r="F35" s="55"/>
-      <c r="G35" s="56"/>
+      <c r="F35" s="52"/>
+      <c r="G35" s="53"/>
       <c r="H35" s="2" t="s">
         <v>617</v>
       </c>
@@ -15545,11 +15545,11 @@
       <c r="D36" s="2" t="s">
         <v>565</v>
       </c>
-      <c r="E36" s="54" t="s">
+      <c r="E36" s="51" t="s">
         <v>619</v>
       </c>
-      <c r="F36" s="55"/>
-      <c r="G36" s="56"/>
+      <c r="F36" s="52"/>
+      <c r="G36" s="53"/>
       <c r="H36" s="2" t="s">
         <v>620</v>
       </c>
@@ -15572,11 +15572,11 @@
       <c r="D37" s="2" t="s">
         <v>563</v>
       </c>
-      <c r="E37" s="61" t="s">
+      <c r="E37" s="54" t="s">
         <v>621</v>
       </c>
-      <c r="F37" s="55"/>
-      <c r="G37" s="56"/>
+      <c r="F37" s="52"/>
+      <c r="G37" s="53"/>
       <c r="H37" s="5" t="s">
         <v>624</v>
       </c>
@@ -15602,10 +15602,10 @@
         <v>565</v>
       </c>
       <c r="E38" s="33"/>
-      <c r="F38" s="54" t="s">
+      <c r="F38" s="51" t="s">
         <v>625</v>
       </c>
-      <c r="G38" s="56"/>
+      <c r="G38" s="53"/>
       <c r="H38" s="2" t="s">
         <v>626</v>
       </c>
@@ -15628,11 +15628,11 @@
       <c r="D39" s="2" t="s">
         <v>563</v>
       </c>
-      <c r="E39" s="61" t="s">
+      <c r="E39" s="54" t="s">
         <v>629</v>
       </c>
-      <c r="F39" s="55"/>
-      <c r="G39" s="56"/>
+      <c r="F39" s="52"/>
+      <c r="G39" s="53"/>
       <c r="H39" s="5" t="s">
         <v>630</v>
       </c>
@@ -15658,10 +15658,10 @@
         <v>565</v>
       </c>
       <c r="E40" s="33"/>
-      <c r="F40" s="54" t="s">
+      <c r="F40" s="51" t="s">
         <v>625</v>
       </c>
-      <c r="G40" s="56"/>
+      <c r="G40" s="53"/>
       <c r="H40" s="2" t="s">
         <v>626</v>
       </c>
@@ -15687,10 +15687,10 @@
       <c r="E41" s="28" t="s">
         <v>632</v>
       </c>
-      <c r="F41" s="54" t="s">
+      <c r="F41" s="51" t="s">
         <v>633</v>
       </c>
-      <c r="G41" s="56"/>
+      <c r="G41" s="53"/>
       <c r="H41" s="2" t="s">
         <v>637</v>
       </c>
@@ -15713,11 +15713,11 @@
       <c r="D42" s="2" t="s">
         <v>563</v>
       </c>
-      <c r="E42" s="62"/>
-      <c r="F42" s="54" t="s">
+      <c r="E42" s="55"/>
+      <c r="F42" s="51" t="s">
         <v>634</v>
       </c>
-      <c r="G42" s="56"/>
+      <c r="G42" s="53"/>
       <c r="H42" s="2" t="s">
         <v>638</v>
       </c>
@@ -15740,11 +15740,11 @@
       <c r="D43" s="2" t="s">
         <v>563</v>
       </c>
-      <c r="E43" s="62"/>
-      <c r="F43" s="54" t="s">
+      <c r="E43" s="55"/>
+      <c r="F43" s="51" t="s">
         <v>635</v>
       </c>
-      <c r="G43" s="56"/>
+      <c r="G43" s="53"/>
       <c r="H43" s="2" t="s">
         <v>639</v>
       </c>
@@ -15767,11 +15767,11 @@
       <c r="D44" s="2" t="s">
         <v>563</v>
       </c>
-      <c r="E44" s="57"/>
-      <c r="F44" s="54" t="s">
+      <c r="E44" s="56"/>
+      <c r="F44" s="51" t="s">
         <v>636</v>
       </c>
-      <c r="G44" s="56"/>
+      <c r="G44" s="53"/>
       <c r="H44" s="2" t="s">
         <v>577</v>
       </c>
@@ -15794,11 +15794,11 @@
       <c r="D45" s="2" t="s">
         <v>563</v>
       </c>
-      <c r="E45" s="54" t="s">
+      <c r="E45" s="51" t="s">
         <v>643</v>
       </c>
-      <c r="F45" s="55"/>
-      <c r="G45" s="56"/>
+      <c r="F45" s="52"/>
+      <c r="G45" s="53"/>
       <c r="H45" s="5" t="s">
         <v>644</v>
       </c>
@@ -15821,9 +15821,9 @@
       <c r="D46" s="2" t="s">
         <v>563</v>
       </c>
-      <c r="E46" s="54"/>
-      <c r="F46" s="55"/>
-      <c r="G46" s="56"/>
+      <c r="E46" s="51"/>
+      <c r="F46" s="52"/>
+      <c r="G46" s="53"/>
       <c r="H46" s="2" t="s">
         <v>646</v>
       </c>
@@ -15846,9 +15846,9 @@
       <c r="D47" s="2" t="s">
         <v>565</v>
       </c>
-      <c r="E47" s="54"/>
-      <c r="F47" s="55"/>
-      <c r="G47" s="56"/>
+      <c r="E47" s="51"/>
+      <c r="F47" s="52"/>
+      <c r="G47" s="53"/>
       <c r="H47" s="2" t="s">
         <v>648</v>
       </c>
@@ -15859,6 +15859,42 @@
     </row>
   </sheetData>
   <mergeCells count="52">
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="I19:I26"/>
+    <mergeCell ref="E28:E34"/>
+    <mergeCell ref="E42:E44"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="E35:G35"/>
+    <mergeCell ref="E36:G36"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="E20:E26"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="E37:G37"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="E9:E11"/>
     <mergeCell ref="E46:G46"/>
     <mergeCell ref="E47:G47"/>
     <mergeCell ref="E45:G45"/>
@@ -15875,42 +15911,6 @@
     <mergeCell ref="F23:G23"/>
     <mergeCell ref="F24:G24"/>
     <mergeCell ref="F25:G25"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="E9:E11"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="E37:G37"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="I19:I26"/>
-    <mergeCell ref="E28:E34"/>
-    <mergeCell ref="E42:E44"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="E39:G39"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="E35:G35"/>
-    <mergeCell ref="E36:G36"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="E20:E26"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="F29:G29"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15956,11 +15956,11 @@
       <c r="D2" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="E2" s="51" t="s">
+      <c r="E2" s="60" t="s">
         <v>33</v>
       </c>
-      <c r="F2" s="52"/>
-      <c r="G2" s="53"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="62"/>
       <c r="H2" s="6" t="s">
         <v>34</v>
       </c>
@@ -16018,11 +16018,11 @@
       <c r="D4" s="2" t="s">
         <v>675</v>
       </c>
-      <c r="E4" s="54" t="s">
+      <c r="E4" s="51" t="s">
         <v>41</v>
       </c>
-      <c r="F4" s="55"/>
-      <c r="G4" s="56"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="53"/>
       <c r="H4" s="2" t="s">
         <v>98</v>
       </c>
@@ -16047,11 +16047,11 @@
       <c r="D5" s="2" t="s">
         <v>675</v>
       </c>
-      <c r="E5" s="54" t="s">
+      <c r="E5" s="51" t="s">
         <v>676</v>
       </c>
-      <c r="F5" s="55"/>
-      <c r="G5" s="56"/>
+      <c r="F5" s="52"/>
+      <c r="G5" s="53"/>
       <c r="H5" s="2" t="s">
         <v>678</v>
       </c>
@@ -16079,10 +16079,10 @@
       <c r="E6" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="F6" s="54" t="s">
+      <c r="F6" s="51" t="s">
         <v>682</v>
       </c>
-      <c r="G6" s="56"/>
+      <c r="G6" s="53"/>
       <c r="H6" s="2" t="s">
         <v>57</v>
       </c>
@@ -16105,11 +16105,11 @@
       <c r="D7" s="2" t="s">
         <v>681</v>
       </c>
-      <c r="E7" s="57"/>
-      <c r="F7" s="54" t="s">
+      <c r="E7" s="56"/>
+      <c r="F7" s="51" t="s">
         <v>683</v>
       </c>
-      <c r="G7" s="56"/>
+      <c r="G7" s="53"/>
       <c r="H7" s="2" t="s">
         <v>77</v>
       </c>
@@ -16132,11 +16132,11 @@
       <c r="D8" s="2" t="s">
         <v>681</v>
       </c>
-      <c r="E8" s="58"/>
-      <c r="F8" s="54" t="s">
+      <c r="E8" s="57"/>
+      <c r="F8" s="51" t="s">
         <v>689</v>
       </c>
-      <c r="G8" s="56"/>
+      <c r="G8" s="53"/>
       <c r="H8" s="2" t="s">
         <v>496</v>
       </c>
@@ -16159,11 +16159,11 @@
       <c r="D9" s="2" t="s">
         <v>681</v>
       </c>
-      <c r="E9" s="58"/>
-      <c r="F9" s="54" t="s">
+      <c r="E9" s="57"/>
+      <c r="F9" s="51" t="s">
         <v>690</v>
       </c>
-      <c r="G9" s="56"/>
+      <c r="G9" s="53"/>
       <c r="H9" s="2" t="s">
         <v>517</v>
       </c>
@@ -16186,11 +16186,11 @@
       <c r="D10" s="2" t="s">
         <v>681</v>
       </c>
-      <c r="E10" s="58"/>
-      <c r="F10" s="54" t="s">
+      <c r="E10" s="57"/>
+      <c r="F10" s="51" t="s">
         <v>691</v>
       </c>
-      <c r="G10" s="56"/>
+      <c r="G10" s="53"/>
       <c r="H10" s="2" t="s">
         <v>515</v>
       </c>
@@ -16213,11 +16213,11 @@
       <c r="D11" s="2" t="s">
         <v>681</v>
       </c>
-      <c r="E11" s="58"/>
-      <c r="F11" s="54" t="s">
+      <c r="E11" s="57"/>
+      <c r="F11" s="51" t="s">
         <v>692</v>
       </c>
-      <c r="G11" s="56"/>
+      <c r="G11" s="53"/>
       <c r="H11" s="2" t="s">
         <v>512</v>
       </c>
@@ -16240,11 +16240,11 @@
       <c r="D12" s="2" t="s">
         <v>694</v>
       </c>
-      <c r="E12" s="54" t="s">
+      <c r="E12" s="51" t="s">
         <v>693</v>
       </c>
-      <c r="F12" s="55"/>
-      <c r="G12" s="56"/>
+      <c r="F12" s="52"/>
+      <c r="G12" s="53"/>
       <c r="H12" s="2" t="s">
         <v>695</v>
       </c>
@@ -16269,11 +16269,11 @@
       <c r="D13" s="2" t="s">
         <v>675</v>
       </c>
-      <c r="E13" s="54" t="s">
+      <c r="E13" s="51" t="s">
         <v>697</v>
       </c>
-      <c r="F13" s="55"/>
-      <c r="G13" s="56"/>
+      <c r="F13" s="52"/>
+      <c r="G13" s="53"/>
       <c r="H13" s="2" t="s">
         <v>698</v>
       </c>
@@ -16298,11 +16298,11 @@
       <c r="D14" s="2" t="s">
         <v>681</v>
       </c>
-      <c r="E14" s="61" t="s">
+      <c r="E14" s="54" t="s">
         <v>74</v>
       </c>
-      <c r="F14" s="55"/>
-      <c r="G14" s="56"/>
+      <c r="F14" s="52"/>
+      <c r="G14" s="53"/>
       <c r="H14" s="5" t="s">
         <v>701</v>
       </c>
@@ -16327,7 +16327,7 @@
       <c r="D15" s="2" t="s">
         <v>681</v>
       </c>
-      <c r="E15" s="57"/>
+      <c r="E15" s="56"/>
       <c r="F15" s="28" t="s">
         <v>702</v>
       </c>
@@ -16356,8 +16356,8 @@
       <c r="D16" s="2" t="s">
         <v>681</v>
       </c>
-      <c r="E16" s="58"/>
-      <c r="F16" s="57"/>
+      <c r="E16" s="57"/>
+      <c r="F16" s="56"/>
       <c r="G16" s="23" t="s">
         <v>704</v>
       </c>
@@ -16385,8 +16385,8 @@
       <c r="D17" s="2" t="s">
         <v>681</v>
       </c>
-      <c r="E17" s="58"/>
-      <c r="F17" s="58"/>
+      <c r="E17" s="57"/>
+      <c r="F17" s="57"/>
       <c r="G17" s="23" t="s">
         <v>705</v>
       </c>
@@ -16414,8 +16414,8 @@
       <c r="D18" s="2" t="s">
         <v>681</v>
       </c>
-      <c r="E18" s="58"/>
-      <c r="F18" s="58"/>
+      <c r="E18" s="57"/>
+      <c r="F18" s="57"/>
       <c r="G18" s="23" t="s">
         <v>706</v>
       </c>
@@ -16443,8 +16443,8 @@
       <c r="D19" s="2" t="s">
         <v>681</v>
       </c>
-      <c r="E19" s="58"/>
-      <c r="F19" s="58"/>
+      <c r="E19" s="57"/>
+      <c r="F19" s="57"/>
       <c r="G19" s="23" t="s">
         <v>707</v>
       </c>
@@ -16472,8 +16472,8 @@
       <c r="D20" s="2" t="s">
         <v>681</v>
       </c>
-      <c r="E20" s="58"/>
-      <c r="F20" s="58"/>
+      <c r="E20" s="57"/>
+      <c r="F20" s="57"/>
       <c r="G20" s="23" t="s">
         <v>708</v>
       </c>
@@ -16501,8 +16501,8 @@
       <c r="D21" s="2" t="s">
         <v>681</v>
       </c>
-      <c r="E21" s="58"/>
-      <c r="F21" s="58"/>
+      <c r="E21" s="57"/>
+      <c r="F21" s="57"/>
       <c r="G21" s="23" t="s">
         <v>709</v>
       </c>
@@ -16530,8 +16530,8 @@
       <c r="D22" s="2" t="s">
         <v>681</v>
       </c>
-      <c r="E22" s="58"/>
-      <c r="F22" s="58"/>
+      <c r="E22" s="57"/>
+      <c r="F22" s="57"/>
       <c r="G22" s="23" t="s">
         <v>710</v>
       </c>
@@ -16559,8 +16559,8 @@
       <c r="D23" s="2" t="s">
         <v>681</v>
       </c>
-      <c r="E23" s="58"/>
-      <c r="F23" s="58"/>
+      <c r="E23" s="57"/>
+      <c r="F23" s="57"/>
       <c r="G23" s="23" t="s">
         <v>711</v>
       </c>
@@ -16588,8 +16588,8 @@
       <c r="D24" s="2" t="s">
         <v>681</v>
       </c>
-      <c r="E24" s="58"/>
-      <c r="F24" s="58"/>
+      <c r="E24" s="57"/>
+      <c r="F24" s="57"/>
       <c r="G24" s="23" t="s">
         <v>712</v>
       </c>
@@ -16617,7 +16617,7 @@
       <c r="D25" s="2" t="s">
         <v>681</v>
       </c>
-      <c r="E25" s="58"/>
+      <c r="E25" s="57"/>
       <c r="F25" s="28" t="s">
         <v>714</v>
       </c>
@@ -16648,8 +16648,8 @@
       <c r="D26" s="2" t="s">
         <v>681</v>
       </c>
-      <c r="E26" s="58"/>
-      <c r="F26" s="57"/>
+      <c r="E26" s="57"/>
+      <c r="F26" s="56"/>
       <c r="G26" s="23" t="s">
         <v>129</v>
       </c>
@@ -16677,8 +16677,8 @@
       <c r="D27" s="2" t="s">
         <v>681</v>
       </c>
-      <c r="E27" s="58"/>
-      <c r="F27" s="58"/>
+      <c r="E27" s="57"/>
+      <c r="F27" s="57"/>
       <c r="G27" s="23" t="s">
         <v>130</v>
       </c>
@@ -16706,8 +16706,8 @@
       <c r="D28" s="2" t="s">
         <v>681</v>
       </c>
-      <c r="E28" s="58"/>
-      <c r="F28" s="58"/>
+      <c r="E28" s="57"/>
+      <c r="F28" s="57"/>
       <c r="G28" s="23" t="s">
         <v>131</v>
       </c>
@@ -16795,11 +16795,11 @@
       <c r="D31" s="2" t="s">
         <v>675</v>
       </c>
-      <c r="E31" s="54" t="s">
+      <c r="E31" s="51" t="s">
         <v>59</v>
       </c>
-      <c r="F31" s="55"/>
-      <c r="G31" s="56"/>
+      <c r="F31" s="52"/>
+      <c r="G31" s="53"/>
       <c r="H31" s="2" t="s">
         <v>734</v>
       </c>
@@ -16824,11 +16824,11 @@
       <c r="D32" s="2" t="s">
         <v>681</v>
       </c>
-      <c r="E32" s="54" t="s">
+      <c r="E32" s="51" t="s">
         <v>735</v>
       </c>
-      <c r="F32" s="55"/>
-      <c r="G32" s="56"/>
+      <c r="F32" s="52"/>
+      <c r="G32" s="53"/>
       <c r="H32" s="5" t="s">
         <v>736</v>
       </c>
@@ -16853,11 +16853,11 @@
       <c r="D33" s="2" t="s">
         <v>675</v>
       </c>
-      <c r="E33" s="54" t="s">
+      <c r="E33" s="51" t="s">
         <v>75</v>
       </c>
-      <c r="F33" s="55"/>
-      <c r="G33" s="56"/>
+      <c r="F33" s="52"/>
+      <c r="G33" s="53"/>
       <c r="H33" s="2" t="s">
         <v>734</v>
       </c>
@@ -16882,11 +16882,11 @@
       <c r="D34" s="2" t="s">
         <v>675</v>
       </c>
-      <c r="E34" s="54" t="s">
+      <c r="E34" s="51" t="s">
         <v>99</v>
       </c>
-      <c r="F34" s="55"/>
-      <c r="G34" s="56"/>
+      <c r="F34" s="52"/>
+      <c r="G34" s="53"/>
       <c r="H34" s="2" t="s">
         <v>739</v>
       </c>
@@ -16911,11 +16911,11 @@
       <c r="D35" s="2" t="s">
         <v>681</v>
       </c>
-      <c r="E35" s="54" t="s">
+      <c r="E35" s="51" t="s">
         <v>741</v>
       </c>
-      <c r="F35" s="55"/>
-      <c r="G35" s="56"/>
+      <c r="F35" s="52"/>
+      <c r="G35" s="53"/>
       <c r="H35" s="2" t="s">
         <v>57</v>
       </c>
@@ -16926,12 +16926,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="E7:E11"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="F11:G11"/>
     <mergeCell ref="E12:G12"/>
     <mergeCell ref="E2:G2"/>
     <mergeCell ref="E33:G33"/>
@@ -16948,6 +16942,12 @@
     <mergeCell ref="E5:G5"/>
     <mergeCell ref="E3:G3"/>
     <mergeCell ref="F6:G6"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="E7:E11"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F11:G11"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16959,9 +16959,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:L50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C18" sqref="C18"/>
+      <selection pane="bottomLeft" activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -16993,11 +16993,11 @@
       <c r="D2" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="E2" s="83" t="s">
+      <c r="E2" s="80" t="s">
         <v>33</v>
       </c>
-      <c r="F2" s="84"/>
-      <c r="G2" s="85"/>
+      <c r="F2" s="81"/>
+      <c r="G2" s="82"/>
       <c r="H2" s="6" t="s">
         <v>34</v>
       </c>
@@ -17058,10 +17058,10 @@
       <c r="E4" s="44" t="s">
         <v>776</v>
       </c>
-      <c r="F4" s="54" t="s">
+      <c r="F4" s="51" t="s">
         <v>775</v>
       </c>
-      <c r="G4" s="56"/>
+      <c r="G4" s="53"/>
       <c r="H4" s="2" t="s">
         <v>64</v>
       </c>
@@ -17086,11 +17086,11 @@
       <c r="D5" s="2" t="s">
         <v>774</v>
       </c>
-      <c r="E5" s="62"/>
-      <c r="F5" s="54" t="s">
+      <c r="E5" s="55"/>
+      <c r="F5" s="51" t="s">
         <v>465</v>
       </c>
-      <c r="G5" s="56"/>
+      <c r="G5" s="53"/>
       <c r="H5" s="2" t="s">
         <v>778</v>
       </c>
@@ -17113,7 +17113,7 @@
       <c r="D6" s="2" t="s">
         <v>780</v>
       </c>
-      <c r="E6" s="62"/>
+      <c r="E6" s="55"/>
       <c r="F6" s="44" t="s">
         <v>781</v>
       </c>
@@ -17142,8 +17142,8 @@
       <c r="D7" s="2" t="s">
         <v>774</v>
       </c>
-      <c r="E7" s="62"/>
-      <c r="F7" s="62"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="55"/>
       <c r="G7" s="43"/>
       <c r="H7" s="2" t="s">
         <v>786</v>
@@ -17167,8 +17167,8 @@
       <c r="D8" s="2" t="s">
         <v>774</v>
       </c>
-      <c r="E8" s="62"/>
-      <c r="F8" s="57"/>
+      <c r="E8" s="55"/>
+      <c r="F8" s="56"/>
       <c r="G8" s="43" t="s">
         <v>784</v>
       </c>
@@ -17194,7 +17194,7 @@
       <c r="D9" s="2" t="s">
         <v>780</v>
       </c>
-      <c r="E9" s="62"/>
+      <c r="E9" s="55"/>
       <c r="F9" s="43" t="s">
         <v>72</v>
       </c>
@@ -17223,8 +17223,8 @@
       <c r="D10" s="2" t="s">
         <v>774</v>
       </c>
-      <c r="E10" s="62"/>
-      <c r="F10" s="86"/>
+      <c r="E10" s="55"/>
+      <c r="F10" s="83"/>
       <c r="G10" s="43" t="s">
         <v>790</v>
       </c>
@@ -17252,8 +17252,8 @@
       <c r="D11" s="2" t="s">
         <v>774</v>
       </c>
-      <c r="E11" s="62"/>
-      <c r="F11" s="62"/>
+      <c r="E11" s="55"/>
+      <c r="F11" s="55"/>
       <c r="G11" s="43" t="s">
         <v>791</v>
       </c>
@@ -17279,8 +17279,8 @@
       <c r="D12" s="2" t="s">
         <v>774</v>
       </c>
-      <c r="E12" s="62"/>
-      <c r="F12" s="57"/>
+      <c r="E12" s="55"/>
+      <c r="F12" s="56"/>
       <c r="G12" s="43" t="s">
         <v>792</v>
       </c>
@@ -17306,11 +17306,11 @@
       <c r="D13" s="2" t="s">
         <v>780</v>
       </c>
-      <c r="E13" s="62"/>
-      <c r="F13" s="54" t="s">
+      <c r="E13" s="55"/>
+      <c r="F13" s="51" t="s">
         <v>104</v>
       </c>
-      <c r="G13" s="56"/>
+      <c r="G13" s="53"/>
       <c r="H13" s="5" t="s">
         <v>794</v>
       </c>
@@ -17335,7 +17335,7 @@
       <c r="D14" s="2" t="s">
         <v>780</v>
       </c>
-      <c r="E14" s="62"/>
+      <c r="E14" s="55"/>
       <c r="F14" s="44" t="s">
         <v>795</v>
       </c>
@@ -17364,8 +17364,8 @@
       <c r="D15" s="2" t="s">
         <v>780</v>
       </c>
-      <c r="E15" s="62"/>
-      <c r="F15" s="62"/>
+      <c r="E15" s="55"/>
+      <c r="F15" s="55"/>
       <c r="G15" s="43" t="s">
         <v>797</v>
       </c>
@@ -17391,8 +17391,8 @@
       <c r="D16" s="2" t="s">
         <v>780</v>
       </c>
-      <c r="E16" s="62"/>
-      <c r="F16" s="62"/>
+      <c r="E16" s="55"/>
+      <c r="F16" s="55"/>
       <c r="G16" s="43" t="s">
         <v>798</v>
       </c>
@@ -17418,8 +17418,8 @@
       <c r="D17" s="2" t="s">
         <v>780</v>
       </c>
-      <c r="E17" s="62"/>
-      <c r="F17" s="57"/>
+      <c r="E17" s="55"/>
+      <c r="F17" s="56"/>
       <c r="G17" s="43" t="s">
         <v>799</v>
       </c>
@@ -17445,11 +17445,11 @@
       <c r="D18" s="2" t="s">
         <v>774</v>
       </c>
-      <c r="E18" s="62"/>
-      <c r="F18" s="54" t="s">
+      <c r="E18" s="55"/>
+      <c r="F18" s="51" t="s">
         <v>76</v>
       </c>
-      <c r="G18" s="56"/>
+      <c r="G18" s="53"/>
       <c r="H18" s="2" t="s">
         <v>64</v>
       </c>
@@ -17472,11 +17472,11 @@
       <c r="D19" s="2" t="s">
         <v>774</v>
       </c>
-      <c r="E19" s="62"/>
-      <c r="F19" s="54" t="s">
+      <c r="E19" s="55"/>
+      <c r="F19" s="51" t="s">
         <v>61</v>
       </c>
-      <c r="G19" s="56"/>
+      <c r="G19" s="53"/>
       <c r="H19" s="2" t="s">
         <v>778</v>
       </c>
@@ -17499,11 +17499,11 @@
       <c r="D20" s="2" t="s">
         <v>774</v>
       </c>
-      <c r="E20" s="62"/>
-      <c r="F20" s="54" t="s">
+      <c r="E20" s="55"/>
+      <c r="F20" s="51" t="s">
         <v>619</v>
       </c>
-      <c r="G20" s="56"/>
+      <c r="G20" s="53"/>
       <c r="H20" s="2" t="s">
         <v>778</v>
       </c>
@@ -17526,7 +17526,7 @@
       <c r="D21" s="2" t="s">
         <v>774</v>
       </c>
-      <c r="E21" s="62"/>
+      <c r="E21" s="55"/>
       <c r="F21" s="44" t="s">
         <v>806</v>
       </c>
@@ -17555,8 +17555,8 @@
       <c r="D22" s="2" t="s">
         <v>780</v>
       </c>
-      <c r="E22" s="62"/>
-      <c r="F22" s="62"/>
+      <c r="E22" s="55"/>
+      <c r="F22" s="55"/>
       <c r="G22" s="43" t="s">
         <v>810</v>
       </c>
@@ -17582,8 +17582,8 @@
       <c r="D23" s="2" t="s">
         <v>780</v>
       </c>
-      <c r="E23" s="62"/>
-      <c r="F23" s="62"/>
+      <c r="E23" s="55"/>
+      <c r="F23" s="55"/>
       <c r="G23" s="43" t="s">
         <v>814</v>
       </c>
@@ -17611,8 +17611,8 @@
       <c r="D24" s="2" t="s">
         <v>780</v>
       </c>
-      <c r="E24" s="62"/>
-      <c r="F24" s="62"/>
+      <c r="E24" s="55"/>
+      <c r="F24" s="55"/>
       <c r="G24" s="43" t="s">
         <v>813</v>
       </c>
@@ -17640,8 +17640,8 @@
       <c r="D25" s="2" t="s">
         <v>780</v>
       </c>
-      <c r="E25" s="62"/>
-      <c r="F25" s="62"/>
+      <c r="E25" s="55"/>
+      <c r="F25" s="55"/>
       <c r="G25" s="43" t="s">
         <v>812</v>
       </c>
@@ -17669,8 +17669,8 @@
       <c r="D26" s="2" t="s">
         <v>780</v>
       </c>
-      <c r="E26" s="62"/>
-      <c r="F26" s="57"/>
+      <c r="E26" s="55"/>
+      <c r="F26" s="56"/>
       <c r="G26" s="43" t="s">
         <v>812</v>
       </c>
@@ -17685,13 +17685,13 @@
       <c r="L26" s="2"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A27" s="80" t="s">
+      <c r="A27" s="84" t="s">
         <v>842</v>
       </c>
-      <c r="B27" s="81"/>
-      <c r="C27" s="81"/>
-      <c r="D27" s="81"/>
-      <c r="E27" s="62"/>
+      <c r="B27" s="85"/>
+      <c r="C27" s="85"/>
+      <c r="D27" s="85"/>
+      <c r="E27" s="55"/>
       <c r="F27" s="41"/>
       <c r="G27" s="43"/>
       <c r="H27" s="2"/>
@@ -17714,7 +17714,7 @@
       <c r="D28" s="2" t="s">
         <v>780</v>
       </c>
-      <c r="E28" s="62"/>
+      <c r="E28" s="55"/>
       <c r="F28" s="44" t="s">
         <v>39</v>
       </c>
@@ -17743,7 +17743,7 @@
       <c r="D29" s="2" t="s">
         <v>780</v>
       </c>
-      <c r="E29" s="62"/>
+      <c r="E29" s="55"/>
       <c r="F29" s="33"/>
       <c r="G29" s="43" t="s">
         <v>819</v>
@@ -17770,11 +17770,11 @@
       <c r="D30" s="2" t="s">
         <v>774</v>
       </c>
-      <c r="E30" s="57"/>
-      <c r="F30" s="54" t="s">
+      <c r="E30" s="56"/>
+      <c r="F30" s="51" t="s">
         <v>821</v>
       </c>
-      <c r="G30" s="56"/>
+      <c r="G30" s="53"/>
       <c r="H30" s="2" t="s">
         <v>808</v>
       </c>
@@ -17799,11 +17799,11 @@
       <c r="D31" s="2" t="s">
         <v>780</v>
       </c>
-      <c r="E31" s="61" t="s">
+      <c r="E31" s="54" t="s">
         <v>822</v>
       </c>
-      <c r="F31" s="55"/>
-      <c r="G31" s="56"/>
+      <c r="F31" s="52"/>
+      <c r="G31" s="53"/>
       <c r="H31" s="5" t="s">
         <v>823</v>
       </c>
@@ -17826,11 +17826,11 @@
       <c r="D32" s="2" t="s">
         <v>774</v>
       </c>
-      <c r="E32" s="59"/>
-      <c r="F32" s="54" t="s">
+      <c r="E32" s="58"/>
+      <c r="F32" s="51" t="s">
         <v>824</v>
       </c>
-      <c r="G32" s="56"/>
+      <c r="G32" s="53"/>
       <c r="H32" s="5" t="s">
         <v>825</v>
       </c>
@@ -17855,11 +17855,11 @@
       <c r="D33" s="2" t="s">
         <v>780</v>
       </c>
-      <c r="E33" s="59"/>
-      <c r="F33" s="54" t="s">
+      <c r="E33" s="58"/>
+      <c r="F33" s="51" t="s">
         <v>46</v>
       </c>
-      <c r="G33" s="56"/>
+      <c r="G33" s="53"/>
       <c r="H33" s="5" t="s">
         <v>826</v>
       </c>
@@ -17882,7 +17882,7 @@
       <c r="D34" s="2" t="s">
         <v>780</v>
       </c>
-      <c r="E34" s="59"/>
+      <c r="E34" s="58"/>
       <c r="F34" s="44" t="s">
         <v>827</v>
       </c>
@@ -17911,7 +17911,7 @@
       <c r="D35" s="2" t="s">
         <v>780</v>
       </c>
-      <c r="E35" s="59"/>
+      <c r="E35" s="58"/>
       <c r="F35" s="33"/>
       <c r="G35" s="43" t="s">
         <v>831</v>
@@ -17938,7 +17938,7 @@
       <c r="D36" s="2" t="s">
         <v>780</v>
       </c>
-      <c r="E36" s="59"/>
+      <c r="E36" s="58"/>
       <c r="F36" s="44" t="s">
         <v>67</v>
       </c>
@@ -17967,8 +17967,8 @@
       <c r="D37" s="2" t="s">
         <v>780</v>
       </c>
-      <c r="E37" s="59"/>
-      <c r="F37" s="62"/>
+      <c r="E37" s="58"/>
+      <c r="F37" s="55"/>
       <c r="G37" s="43" t="s">
         <v>129</v>
       </c>
@@ -17994,8 +17994,8 @@
       <c r="D38" s="2" t="s">
         <v>780</v>
       </c>
-      <c r="E38" s="59"/>
-      <c r="F38" s="62"/>
+      <c r="E38" s="58"/>
+      <c r="F38" s="55"/>
       <c r="G38" s="43" t="s">
         <v>130</v>
       </c>
@@ -18021,8 +18021,8 @@
       <c r="D39" s="2" t="s">
         <v>780</v>
       </c>
-      <c r="E39" s="59"/>
-      <c r="F39" s="57"/>
+      <c r="E39" s="58"/>
+      <c r="F39" s="56"/>
       <c r="G39" s="43" t="s">
         <v>131</v>
       </c>
@@ -18048,11 +18048,11 @@
       <c r="D40" s="2" t="s">
         <v>774</v>
       </c>
-      <c r="E40" s="59"/>
-      <c r="F40" s="54" t="s">
+      <c r="E40" s="58"/>
+      <c r="F40" s="51" t="s">
         <v>833</v>
       </c>
-      <c r="G40" s="56"/>
+      <c r="G40" s="53"/>
       <c r="H40" s="2" t="s">
         <v>64</v>
       </c>
@@ -18075,11 +18075,11 @@
       <c r="D41" s="2" t="s">
         <v>774</v>
       </c>
-      <c r="E41" s="59"/>
-      <c r="F41" s="54" t="s">
+      <c r="E41" s="58"/>
+      <c r="F41" s="51" t="s">
         <v>834</v>
       </c>
-      <c r="G41" s="56"/>
+      <c r="G41" s="53"/>
       <c r="H41" s="2" t="s">
         <v>778</v>
       </c>
@@ -18089,13 +18089,13 @@
       <c r="L41" s="2"/>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A42" s="82" t="s">
+      <c r="A42" s="86" t="s">
         <v>841</v>
       </c>
-      <c r="B42" s="82"/>
-      <c r="C42" s="82"/>
-      <c r="D42" s="82"/>
-      <c r="E42" s="60"/>
+      <c r="B42" s="86"/>
+      <c r="C42" s="86"/>
+      <c r="D42" s="86"/>
+      <c r="E42" s="59"/>
       <c r="F42" s="48"/>
       <c r="G42" s="48"/>
       <c r="H42" s="48"/>
@@ -18121,10 +18121,10 @@
       <c r="E43" s="44" t="s">
         <v>843</v>
       </c>
-      <c r="F43" s="54" t="s">
+      <c r="F43" s="51" t="s">
         <v>844</v>
       </c>
-      <c r="G43" s="56"/>
+      <c r="G43" s="53"/>
       <c r="H43" s="10" t="s">
         <v>845</v>
       </c>
@@ -18148,10 +18148,10 @@
         <v>774</v>
       </c>
       <c r="E44" s="33"/>
-      <c r="F44" s="54" t="s">
+      <c r="F44" s="51" t="s">
         <v>847</v>
       </c>
-      <c r="G44" s="56"/>
+      <c r="G44" s="53"/>
       <c r="H44" s="10" t="s">
         <v>64</v>
       </c>
@@ -18304,6 +18304,17 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A42:D42"/>
+    <mergeCell ref="E32:E42"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="F37:F39"/>
+    <mergeCell ref="E31:G31"/>
     <mergeCell ref="E2:G2"/>
     <mergeCell ref="F18:G18"/>
     <mergeCell ref="F19:G19"/>
@@ -18318,17 +18329,6 @@
     <mergeCell ref="E5:E30"/>
     <mergeCell ref="F22:F26"/>
     <mergeCell ref="F30:G30"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A42:D42"/>
-    <mergeCell ref="E32:E42"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="F37:F39"/>
-    <mergeCell ref="E31:G31"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/excel/必要機能一覧(Zexy以外).xlsx
+++ b/docs/excel/必要機能一覧(Zexy以外).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="90" windowWidth="18180" windowHeight="14850" tabRatio="958" activeTab="4"/>
+    <workbookView xWindow="120" yWindow="90" windowWidth="18180" windowHeight="14850" tabRatio="958" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="必要機能一覧" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
     <sheet name="【すぐ婚】フェア情報登録" sheetId="12" r:id="rId7"/>
     <sheet name="【マイナビ】フェア情報登録" sheetId="13" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -6491,15 +6491,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -6508,6 +6499,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -6521,16 +6518,13 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -6539,20 +6533,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -6561,15 +6570,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
@@ -6587,15 +6587,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -6607,6 +6598,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -7324,7 +7324,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C35" sqref="C35"/>
+      <selection pane="bottomLeft" activeCell="F29" sqref="F29:G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7356,11 +7356,11 @@
       <c r="D2" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="E2" s="57" t="s">
+      <c r="E2" s="66" t="s">
         <v>33</v>
       </c>
-      <c r="F2" s="58"/>
-      <c r="G2" s="59"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="68"/>
       <c r="H2" s="6" t="s">
         <v>34</v>
       </c>
@@ -7391,9 +7391,9 @@
       <c r="D3" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="E3" s="60"/>
-      <c r="F3" s="61"/>
-      <c r="G3" s="62"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="59"/>
       <c r="H3" s="2" t="s">
         <v>82</v>
       </c>
@@ -7416,9 +7416,9 @@
       <c r="D4" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="E4" s="60"/>
-      <c r="F4" s="61"/>
-      <c r="G4" s="62"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="58"/>
+      <c r="G4" s="59"/>
       <c r="H4" s="2" t="s">
         <v>85</v>
       </c>
@@ -7441,9 +7441,9 @@
       <c r="D5" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="E5" s="60"/>
-      <c r="F5" s="61"/>
-      <c r="G5" s="62"/>
+      <c r="E5" s="57"/>
+      <c r="F5" s="58"/>
+      <c r="G5" s="59"/>
       <c r="H5" s="2" t="s">
         <v>71</v>
       </c>
@@ -7466,9 +7466,9 @@
       <c r="D6" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="E6" s="60"/>
-      <c r="F6" s="61"/>
-      <c r="G6" s="62"/>
+      <c r="E6" s="57"/>
+      <c r="F6" s="58"/>
+      <c r="G6" s="59"/>
       <c r="H6" s="2" t="s">
         <v>88</v>
       </c>
@@ -7491,9 +7491,9 @@
       <c r="D7" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="E7" s="60"/>
-      <c r="F7" s="61"/>
-      <c r="G7" s="62"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="58"/>
+      <c r="G7" s="59"/>
       <c r="H7" s="2" t="s">
         <v>550</v>
       </c>
@@ -7516,9 +7516,9 @@
       <c r="D8" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="E8" s="60"/>
-      <c r="F8" s="61"/>
-      <c r="G8" s="62"/>
+      <c r="E8" s="57"/>
+      <c r="F8" s="58"/>
+      <c r="G8" s="59"/>
       <c r="H8" s="2" t="s">
         <v>93</v>
       </c>
@@ -7541,9 +7541,9 @@
       <c r="D9" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="E9" s="60"/>
-      <c r="F9" s="61"/>
-      <c r="G9" s="62"/>
+      <c r="E9" s="57"/>
+      <c r="F9" s="58"/>
+      <c r="G9" s="59"/>
       <c r="H9" s="2" t="s">
         <v>551</v>
       </c>
@@ -7566,9 +7566,9 @@
       <c r="D10" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="E10" s="60"/>
-      <c r="F10" s="61"/>
-      <c r="G10" s="62"/>
+      <c r="E10" s="57"/>
+      <c r="F10" s="58"/>
+      <c r="G10" s="59"/>
       <c r="H10" s="2" t="s">
         <v>94</v>
       </c>
@@ -7591,9 +7591,9 @@
       <c r="D11" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="E11" s="60"/>
-      <c r="F11" s="61"/>
-      <c r="G11" s="62"/>
+      <c r="E11" s="57"/>
+      <c r="F11" s="58"/>
+      <c r="G11" s="59"/>
       <c r="H11" s="2" t="s">
         <v>96</v>
       </c>
@@ -7616,11 +7616,11 @@
       <c r="D12" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="E12" s="60" t="s">
+      <c r="E12" s="57" t="s">
         <v>97</v>
       </c>
-      <c r="F12" s="61"/>
-      <c r="G12" s="62"/>
+      <c r="F12" s="58"/>
+      <c r="G12" s="59"/>
       <c r="H12" s="2" t="s">
         <v>98</v>
       </c>
@@ -7645,11 +7645,11 @@
       <c r="D13" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="E13" s="60" t="s">
+      <c r="E13" s="57" t="s">
         <v>99</v>
       </c>
-      <c r="F13" s="61"/>
-      <c r="G13" s="62"/>
+      <c r="F13" s="58"/>
+      <c r="G13" s="59"/>
       <c r="H13" s="2" t="s">
         <v>100</v>
       </c>
@@ -7674,11 +7674,11 @@
       <c r="D14" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="E14" s="60" t="s">
+      <c r="E14" s="57" t="s">
         <v>101</v>
       </c>
-      <c r="F14" s="61"/>
-      <c r="G14" s="62"/>
+      <c r="F14" s="58"/>
+      <c r="G14" s="59"/>
       <c r="H14" s="2" t="s">
         <v>43</v>
       </c>
@@ -7703,9 +7703,9 @@
       <c r="D15" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="E15" s="60"/>
-      <c r="F15" s="61"/>
-      <c r="G15" s="62"/>
+      <c r="E15" s="57"/>
+      <c r="F15" s="58"/>
+      <c r="G15" s="59"/>
       <c r="H15" s="2" t="s">
         <v>71</v>
       </c>
@@ -7729,10 +7729,10 @@
       <c r="E16" s="26" t="s">
         <v>104</v>
       </c>
-      <c r="F16" s="67" t="s">
+      <c r="F16" s="60" t="s">
         <v>105</v>
       </c>
-      <c r="G16" s="62"/>
+      <c r="G16" s="59"/>
       <c r="H16" s="13" t="s">
         <v>106</v>
       </c>
@@ -7759,8 +7759,8 @@
       <c r="D17" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="E17" s="63"/>
-      <c r="F17" s="65"/>
+      <c r="E17" s="62"/>
+      <c r="F17" s="64"/>
       <c r="G17" s="27"/>
       <c r="H17" s="2" t="s">
         <v>77</v>
@@ -7784,8 +7784,8 @@
       <c r="D18" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="E18" s="64"/>
-      <c r="F18" s="66"/>
+      <c r="E18" s="63"/>
+      <c r="F18" s="65"/>
       <c r="G18" s="23" t="s">
         <v>107</v>
       </c>
@@ -7813,11 +7813,11 @@
       <c r="D19" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="E19" s="64"/>
-      <c r="F19" s="61" t="s">
+      <c r="E19" s="63"/>
+      <c r="F19" s="58" t="s">
         <v>108</v>
       </c>
-      <c r="G19" s="62"/>
+      <c r="G19" s="59"/>
       <c r="H19" s="2" t="s">
         <v>71</v>
       </c>
@@ -7842,11 +7842,11 @@
       <c r="D20" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="E20" s="60" t="s">
+      <c r="E20" s="57" t="s">
         <v>111</v>
       </c>
-      <c r="F20" s="61"/>
-      <c r="G20" s="62"/>
+      <c r="F20" s="58"/>
+      <c r="G20" s="59"/>
       <c r="H20" s="2" t="s">
         <v>113</v>
       </c>
@@ -7874,10 +7874,10 @@
       <c r="E21" s="28" t="s">
         <v>116</v>
       </c>
-      <c r="F21" s="67" t="s">
+      <c r="F21" s="60" t="s">
         <v>123</v>
       </c>
-      <c r="G21" s="62"/>
+      <c r="G21" s="59"/>
       <c r="H21" s="2" t="s">
         <v>124</v>
       </c>
@@ -7900,8 +7900,8 @@
       <c r="D22" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="E22" s="68"/>
-      <c r="F22" s="68"/>
+      <c r="E22" s="61"/>
+      <c r="F22" s="61"/>
       <c r="G22" s="23" t="s">
         <v>128</v>
       </c>
@@ -7929,8 +7929,8 @@
       <c r="D23" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="E23" s="68"/>
-      <c r="F23" s="68"/>
+      <c r="E23" s="61"/>
+      <c r="F23" s="61"/>
       <c r="G23" s="23" t="s">
         <v>129</v>
       </c>
@@ -7958,8 +7958,8 @@
       <c r="D24" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="E24" s="68"/>
-      <c r="F24" s="68"/>
+      <c r="E24" s="61"/>
+      <c r="F24" s="61"/>
       <c r="G24" s="23" t="s">
         <v>130</v>
       </c>
@@ -7987,8 +7987,8 @@
       <c r="D25" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="E25" s="63"/>
-      <c r="F25" s="63"/>
+      <c r="E25" s="62"/>
+      <c r="F25" s="62"/>
       <c r="G25" s="23" t="s">
         <v>131</v>
       </c>
@@ -8019,10 +8019,10 @@
       <c r="E26" s="28" t="s">
         <v>122</v>
       </c>
-      <c r="F26" s="60" t="s">
+      <c r="F26" s="57" t="s">
         <v>117</v>
       </c>
-      <c r="G26" s="62"/>
+      <c r="G26" s="59"/>
       <c r="H26" s="2" t="s">
         <v>121</v>
       </c>
@@ -8045,11 +8045,11 @@
       <c r="D27" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="E27" s="68"/>
-      <c r="F27" s="60" t="s">
+      <c r="E27" s="61"/>
+      <c r="F27" s="57" t="s">
         <v>118</v>
       </c>
-      <c r="G27" s="62"/>
+      <c r="G27" s="59"/>
       <c r="H27" s="2" t="s">
         <v>120</v>
       </c>
@@ -8072,11 +8072,11 @@
       <c r="D28" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="E28" s="68"/>
-      <c r="F28" s="60" t="s">
+      <c r="E28" s="61"/>
+      <c r="F28" s="57" t="s">
         <v>119</v>
       </c>
-      <c r="G28" s="62"/>
+      <c r="G28" s="59"/>
       <c r="H28" s="2" t="s">
         <v>120</v>
       </c>
@@ -8099,11 +8099,11 @@
       <c r="D29" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="E29" s="68"/>
-      <c r="F29" s="60" t="s">
+      <c r="E29" s="61"/>
+      <c r="F29" s="57" t="s">
         <v>39</v>
       </c>
-      <c r="G29" s="62"/>
+      <c r="G29" s="59"/>
       <c r="H29" s="2" t="s">
         <v>136</v>
       </c>
@@ -8126,11 +8126,11 @@
       <c r="D30" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="E30" s="68"/>
-      <c r="F30" s="60" t="s">
+      <c r="E30" s="61"/>
+      <c r="F30" s="57" t="s">
         <v>137</v>
       </c>
-      <c r="G30" s="62"/>
+      <c r="G30" s="59"/>
       <c r="H30" s="2" t="s">
         <v>138</v>
       </c>
@@ -8153,11 +8153,11 @@
       <c r="D31" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="E31" s="68"/>
-      <c r="F31" s="60" t="s">
+      <c r="E31" s="61"/>
+      <c r="F31" s="57" t="s">
         <v>48</v>
       </c>
-      <c r="G31" s="62"/>
+      <c r="G31" s="59"/>
       <c r="H31" s="2" t="s">
         <v>139</v>
       </c>
@@ -8180,7 +8180,7 @@
       <c r="D32" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="E32" s="68"/>
+      <c r="E32" s="61"/>
       <c r="F32" s="28" t="s">
         <v>140</v>
       </c>
@@ -8211,8 +8211,8 @@
       <c r="D33" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="E33" s="68"/>
-      <c r="F33" s="68"/>
+      <c r="E33" s="61"/>
+      <c r="F33" s="61"/>
       <c r="G33" s="23" t="s">
         <v>129</v>
       </c>
@@ -8240,8 +8240,8 @@
       <c r="D34" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="E34" s="68"/>
-      <c r="F34" s="68"/>
+      <c r="E34" s="61"/>
+      <c r="F34" s="61"/>
       <c r="G34" s="23" t="s">
         <v>130</v>
       </c>
@@ -8269,8 +8269,8 @@
       <c r="D35" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="E35" s="63"/>
-      <c r="F35" s="63"/>
+      <c r="E35" s="62"/>
+      <c r="F35" s="62"/>
       <c r="G35" s="23" t="s">
         <v>131</v>
       </c>
@@ -8298,11 +8298,11 @@
       <c r="D36" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="E36" s="60" t="s">
+      <c r="E36" s="57" t="s">
         <v>147</v>
       </c>
-      <c r="F36" s="61"/>
-      <c r="G36" s="62"/>
+      <c r="F36" s="58"/>
+      <c r="G36" s="59"/>
       <c r="H36" s="2"/>
       <c r="I36" s="3"/>
       <c r="J36" s="2"/>
@@ -8311,19 +8311,16 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="E36:G36"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="E22:E25"/>
-    <mergeCell ref="F22:F25"/>
-    <mergeCell ref="E27:E35"/>
-    <mergeCell ref="F33:F35"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="E11:G11"/>
     <mergeCell ref="E17:E19"/>
     <mergeCell ref="F19:G19"/>
     <mergeCell ref="F17:F18"/>
@@ -8332,16 +8329,19 @@
     <mergeCell ref="E14:G14"/>
     <mergeCell ref="E15:G15"/>
     <mergeCell ref="F16:G16"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="E22:E25"/>
+    <mergeCell ref="F22:F25"/>
+    <mergeCell ref="E27:E35"/>
+    <mergeCell ref="F33:F35"/>
+    <mergeCell ref="E36:G36"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="F31:G31"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8355,7 +8355,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F30" sqref="F30:G30"/>
+      <selection pane="bottomLeft" activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8387,11 +8387,11 @@
       <c r="D2" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="E2" s="57" t="s">
+      <c r="E2" s="66" t="s">
         <v>33</v>
       </c>
-      <c r="F2" s="58"/>
-      <c r="G2" s="59"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="68"/>
       <c r="H2" s="6" t="s">
         <v>34</v>
       </c>
@@ -8420,9 +8420,9 @@
         <v>905</v>
       </c>
       <c r="D3" s="2"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="61"/>
-      <c r="G3" s="62"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="59"/>
       <c r="H3" s="2" t="s">
         <v>537</v>
       </c>
@@ -8445,9 +8445,9 @@
       <c r="D4" s="2" t="s">
         <v>906</v>
       </c>
-      <c r="E4" s="60"/>
-      <c r="F4" s="61"/>
-      <c r="G4" s="62"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="58"/>
+      <c r="G4" s="59"/>
       <c r="H4" s="2" t="s">
         <v>907</v>
       </c>
@@ -8475,10 +8475,10 @@
       <c r="E5" s="51" t="s">
         <v>914</v>
       </c>
-      <c r="F5" s="60" t="s">
+      <c r="F5" s="57" t="s">
         <v>934</v>
       </c>
-      <c r="G5" s="62"/>
+      <c r="G5" s="59"/>
       <c r="H5" s="2" t="s">
         <v>910</v>
       </c>
@@ -8503,11 +8503,11 @@
       <c r="D6" s="2" t="s">
         <v>909</v>
       </c>
-      <c r="E6" s="63"/>
-      <c r="F6" s="60" t="s">
+      <c r="E6" s="62"/>
+      <c r="F6" s="57" t="s">
         <v>916</v>
       </c>
-      <c r="G6" s="62"/>
+      <c r="G6" s="59"/>
       <c r="H6" s="53" t="s">
         <v>912</v>
       </c>
@@ -8532,11 +8532,11 @@
       <c r="D7" s="2" t="s">
         <v>906</v>
       </c>
-      <c r="E7" s="64"/>
-      <c r="F7" s="60" t="s">
+      <c r="E7" s="63"/>
+      <c r="F7" s="57" t="s">
         <v>915</v>
       </c>
-      <c r="G7" s="62"/>
+      <c r="G7" s="59"/>
       <c r="H7" s="2" t="s">
         <v>620</v>
       </c>
@@ -8561,11 +8561,11 @@
       <c r="D8" s="2" t="s">
         <v>906</v>
       </c>
-      <c r="E8" s="64"/>
-      <c r="F8" s="60" t="s">
+      <c r="E8" s="63"/>
+      <c r="F8" s="57" t="s">
         <v>917</v>
       </c>
-      <c r="G8" s="62"/>
+      <c r="G8" s="59"/>
       <c r="H8" s="2" t="s">
         <v>43</v>
       </c>
@@ -8590,11 +8590,11 @@
       <c r="D9" s="2" t="s">
         <v>906</v>
       </c>
-      <c r="E9" s="64"/>
-      <c r="F9" s="60" t="s">
+      <c r="E9" s="63"/>
+      <c r="F9" s="57" t="s">
         <v>918</v>
       </c>
-      <c r="G9" s="62"/>
+      <c r="G9" s="59"/>
       <c r="H9" s="2" t="s">
         <v>64</v>
       </c>
@@ -8619,11 +8619,11 @@
       <c r="D10" s="2" t="s">
         <v>906</v>
       </c>
-      <c r="E10" s="64"/>
-      <c r="F10" s="60" t="s">
+      <c r="E10" s="63"/>
+      <c r="F10" s="57" t="s">
         <v>919</v>
       </c>
-      <c r="G10" s="62"/>
+      <c r="G10" s="59"/>
       <c r="H10" s="2" t="s">
         <v>64</v>
       </c>
@@ -8648,7 +8648,7 @@
       <c r="D11" s="2" t="s">
         <v>909</v>
       </c>
-      <c r="E11" s="64"/>
+      <c r="E11" s="63"/>
       <c r="F11" s="55" t="s">
         <v>920</v>
       </c>
@@ -8679,8 +8679,8 @@
       <c r="D12" s="2" t="s">
         <v>906</v>
       </c>
-      <c r="E12" s="64"/>
-      <c r="F12" s="69"/>
+      <c r="E12" s="63"/>
+      <c r="F12" s="71"/>
       <c r="G12" s="50" t="s">
         <v>922</v>
       </c>
@@ -8708,8 +8708,8 @@
       <c r="D13" s="2" t="s">
         <v>906</v>
       </c>
-      <c r="E13" s="64"/>
-      <c r="F13" s="70"/>
+      <c r="E13" s="63"/>
+      <c r="F13" s="72"/>
       <c r="G13" s="50" t="s">
         <v>923</v>
       </c>
@@ -8737,8 +8737,8 @@
       <c r="D14" s="2" t="s">
         <v>909</v>
       </c>
-      <c r="E14" s="64"/>
-      <c r="F14" s="70"/>
+      <c r="E14" s="63"/>
+      <c r="F14" s="72"/>
       <c r="G14" s="50" t="s">
         <v>924</v>
       </c>
@@ -8766,8 +8766,8 @@
       <c r="D15" s="2" t="s">
         <v>906</v>
       </c>
-      <c r="E15" s="64"/>
-      <c r="F15" s="70"/>
+      <c r="E15" s="63"/>
+      <c r="F15" s="72"/>
       <c r="G15" s="50" t="s">
         <v>925</v>
       </c>
@@ -8795,8 +8795,8 @@
       <c r="D16" s="2" t="s">
         <v>906</v>
       </c>
-      <c r="E16" s="64"/>
-      <c r="F16" s="70"/>
+      <c r="E16" s="63"/>
+      <c r="F16" s="72"/>
       <c r="G16" s="50" t="s">
         <v>926</v>
       </c>
@@ -8824,11 +8824,11 @@
       <c r="D17" s="2" t="s">
         <v>909</v>
       </c>
-      <c r="E17" s="64"/>
-      <c r="F17" s="60" t="s">
+      <c r="E17" s="63"/>
+      <c r="F17" s="57" t="s">
         <v>927</v>
       </c>
-      <c r="G17" s="62"/>
+      <c r="G17" s="59"/>
       <c r="H17" s="2" t="s">
         <v>57</v>
       </c>
@@ -8853,11 +8853,11 @@
       <c r="D18" s="2" t="s">
         <v>909</v>
       </c>
-      <c r="E18" s="64"/>
-      <c r="F18" s="60" t="s">
+      <c r="E18" s="63"/>
+      <c r="F18" s="57" t="s">
         <v>934</v>
       </c>
-      <c r="G18" s="62"/>
+      <c r="G18" s="59"/>
       <c r="H18" s="2" t="s">
         <v>910</v>
       </c>
@@ -8882,11 +8882,11 @@
       <c r="D19" s="2" t="s">
         <v>909</v>
       </c>
-      <c r="E19" s="64"/>
-      <c r="F19" s="60" t="s">
+      <c r="E19" s="63"/>
+      <c r="F19" s="57" t="s">
         <v>916</v>
       </c>
-      <c r="G19" s="62"/>
+      <c r="G19" s="59"/>
       <c r="H19" s="53" t="s">
         <v>912</v>
       </c>
@@ -8911,11 +8911,11 @@
       <c r="D20" s="2" t="s">
         <v>906</v>
       </c>
-      <c r="E20" s="64"/>
-      <c r="F20" s="60" t="s">
+      <c r="E20" s="63"/>
+      <c r="F20" s="57" t="s">
         <v>915</v>
       </c>
-      <c r="G20" s="62"/>
+      <c r="G20" s="59"/>
       <c r="H20" s="2" t="s">
         <v>620</v>
       </c>
@@ -8940,11 +8940,11 @@
       <c r="D21" s="2" t="s">
         <v>906</v>
       </c>
-      <c r="E21" s="64"/>
-      <c r="F21" s="60" t="s">
+      <c r="E21" s="63"/>
+      <c r="F21" s="57" t="s">
         <v>917</v>
       </c>
-      <c r="G21" s="62"/>
+      <c r="G21" s="59"/>
       <c r="H21" s="2" t="s">
         <v>43</v>
       </c>
@@ -8969,11 +8969,11 @@
       <c r="D22" s="2" t="s">
         <v>906</v>
       </c>
-      <c r="E22" s="64"/>
-      <c r="F22" s="60" t="s">
+      <c r="E22" s="63"/>
+      <c r="F22" s="57" t="s">
         <v>918</v>
       </c>
-      <c r="G22" s="62"/>
+      <c r="G22" s="59"/>
       <c r="H22" s="2" t="s">
         <v>64</v>
       </c>
@@ -8998,11 +8998,11 @@
       <c r="D23" s="2" t="s">
         <v>906</v>
       </c>
-      <c r="E23" s="64"/>
-      <c r="F23" s="60" t="s">
+      <c r="E23" s="63"/>
+      <c r="F23" s="57" t="s">
         <v>919</v>
       </c>
-      <c r="G23" s="62"/>
+      <c r="G23" s="59"/>
       <c r="H23" s="2" t="s">
         <v>64</v>
       </c>
@@ -9027,7 +9027,7 @@
       <c r="D24" s="2" t="s">
         <v>909</v>
       </c>
-      <c r="E24" s="64"/>
+      <c r="E24" s="63"/>
       <c r="F24" s="55" t="s">
         <v>920</v>
       </c>
@@ -9058,8 +9058,8 @@
       <c r="D25" s="2" t="s">
         <v>906</v>
       </c>
-      <c r="E25" s="64"/>
-      <c r="F25" s="69"/>
+      <c r="E25" s="63"/>
+      <c r="F25" s="71"/>
       <c r="G25" s="50" t="s">
         <v>922</v>
       </c>
@@ -9087,8 +9087,8 @@
       <c r="D26" s="2" t="s">
         <v>906</v>
       </c>
-      <c r="E26" s="64"/>
-      <c r="F26" s="70"/>
+      <c r="E26" s="63"/>
+      <c r="F26" s="72"/>
       <c r="G26" s="50" t="s">
         <v>923</v>
       </c>
@@ -9116,8 +9116,8 @@
       <c r="D27" s="2" t="s">
         <v>909</v>
       </c>
-      <c r="E27" s="64"/>
-      <c r="F27" s="70"/>
+      <c r="E27" s="63"/>
+      <c r="F27" s="72"/>
       <c r="G27" s="50" t="s">
         <v>924</v>
       </c>
@@ -9145,8 +9145,8 @@
       <c r="D28" s="2" t="s">
         <v>906</v>
       </c>
-      <c r="E28" s="64"/>
-      <c r="F28" s="70"/>
+      <c r="E28" s="63"/>
+      <c r="F28" s="72"/>
       <c r="G28" s="50" t="s">
         <v>925</v>
       </c>
@@ -9174,8 +9174,8 @@
       <c r="D29" s="2" t="s">
         <v>906</v>
       </c>
-      <c r="E29" s="64"/>
-      <c r="F29" s="70"/>
+      <c r="E29" s="63"/>
+      <c r="F29" s="72"/>
       <c r="G29" s="50" t="s">
         <v>926</v>
       </c>
@@ -9203,11 +9203,11 @@
       <c r="D30" s="2" t="s">
         <v>909</v>
       </c>
-      <c r="E30" s="64"/>
-      <c r="F30" s="60" t="s">
+      <c r="E30" s="63"/>
+      <c r="F30" s="57" t="s">
         <v>927</v>
       </c>
-      <c r="G30" s="62"/>
+      <c r="G30" s="59"/>
       <c r="H30" s="2" t="s">
         <v>57</v>
       </c>
@@ -9232,11 +9232,11 @@
       <c r="D31" s="2" t="s">
         <v>909</v>
       </c>
-      <c r="E31" s="64"/>
-      <c r="F31" s="60" t="s">
+      <c r="E31" s="63"/>
+      <c r="F31" s="57" t="s">
         <v>934</v>
       </c>
-      <c r="G31" s="62"/>
+      <c r="G31" s="59"/>
       <c r="H31" s="2" t="s">
         <v>910</v>
       </c>
@@ -9261,11 +9261,11 @@
       <c r="D32" s="2" t="s">
         <v>909</v>
       </c>
-      <c r="E32" s="64"/>
-      <c r="F32" s="60" t="s">
+      <c r="E32" s="63"/>
+      <c r="F32" s="57" t="s">
         <v>916</v>
       </c>
-      <c r="G32" s="62"/>
+      <c r="G32" s="59"/>
       <c r="H32" s="53" t="s">
         <v>912</v>
       </c>
@@ -9290,11 +9290,11 @@
       <c r="D33" s="2" t="s">
         <v>906</v>
       </c>
-      <c r="E33" s="64"/>
-      <c r="F33" s="60" t="s">
+      <c r="E33" s="63"/>
+      <c r="F33" s="57" t="s">
         <v>915</v>
       </c>
-      <c r="G33" s="62"/>
+      <c r="G33" s="59"/>
       <c r="H33" s="2" t="s">
         <v>620</v>
       </c>
@@ -9319,11 +9319,11 @@
       <c r="D34" s="2" t="s">
         <v>906</v>
       </c>
-      <c r="E34" s="64"/>
-      <c r="F34" s="60" t="s">
+      <c r="E34" s="63"/>
+      <c r="F34" s="57" t="s">
         <v>917</v>
       </c>
-      <c r="G34" s="62"/>
+      <c r="G34" s="59"/>
       <c r="H34" s="2" t="s">
         <v>43</v>
       </c>
@@ -9348,11 +9348,11 @@
       <c r="D35" s="2" t="s">
         <v>906</v>
       </c>
-      <c r="E35" s="64"/>
-      <c r="F35" s="60" t="s">
+      <c r="E35" s="63"/>
+      <c r="F35" s="57" t="s">
         <v>918</v>
       </c>
-      <c r="G35" s="62"/>
+      <c r="G35" s="59"/>
       <c r="H35" s="2" t="s">
         <v>64</v>
       </c>
@@ -9377,11 +9377,11 @@
       <c r="D36" s="2" t="s">
         <v>906</v>
       </c>
-      <c r="E36" s="64"/>
-      <c r="F36" s="60" t="s">
+      <c r="E36" s="63"/>
+      <c r="F36" s="57" t="s">
         <v>919</v>
       </c>
-      <c r="G36" s="62"/>
+      <c r="G36" s="59"/>
       <c r="H36" s="2" t="s">
         <v>64</v>
       </c>
@@ -9406,7 +9406,7 @@
       <c r="D37" s="2" t="s">
         <v>909</v>
       </c>
-      <c r="E37" s="64"/>
+      <c r="E37" s="63"/>
       <c r="F37" s="55" t="s">
         <v>920</v>
       </c>
@@ -9437,8 +9437,8 @@
       <c r="D38" s="2" t="s">
         <v>906</v>
       </c>
-      <c r="E38" s="64"/>
-      <c r="F38" s="69"/>
+      <c r="E38" s="63"/>
+      <c r="F38" s="71"/>
       <c r="G38" s="50" t="s">
         <v>922</v>
       </c>
@@ -9466,8 +9466,8 @@
       <c r="D39" s="2" t="s">
         <v>906</v>
       </c>
-      <c r="E39" s="64"/>
-      <c r="F39" s="70"/>
+      <c r="E39" s="63"/>
+      <c r="F39" s="72"/>
       <c r="G39" s="50" t="s">
         <v>923</v>
       </c>
@@ -9495,8 +9495,8 @@
       <c r="D40" s="2" t="s">
         <v>909</v>
       </c>
-      <c r="E40" s="64"/>
-      <c r="F40" s="70"/>
+      <c r="E40" s="63"/>
+      <c r="F40" s="72"/>
       <c r="G40" s="50" t="s">
         <v>924</v>
       </c>
@@ -9524,8 +9524,8 @@
       <c r="D41" s="2" t="s">
         <v>906</v>
       </c>
-      <c r="E41" s="64"/>
-      <c r="F41" s="70"/>
+      <c r="E41" s="63"/>
+      <c r="F41" s="72"/>
       <c r="G41" s="50" t="s">
         <v>925</v>
       </c>
@@ -9553,8 +9553,8 @@
       <c r="D42" s="2" t="s">
         <v>906</v>
       </c>
-      <c r="E42" s="64"/>
-      <c r="F42" s="70"/>
+      <c r="E42" s="63"/>
+      <c r="F42" s="72"/>
       <c r="G42" s="50" t="s">
         <v>926</v>
       </c>
@@ -9582,11 +9582,11 @@
       <c r="D43" s="2" t="s">
         <v>909</v>
       </c>
-      <c r="E43" s="64"/>
-      <c r="F43" s="60" t="s">
+      <c r="E43" s="63"/>
+      <c r="F43" s="57" t="s">
         <v>927</v>
       </c>
-      <c r="G43" s="62"/>
+      <c r="G43" s="59"/>
       <c r="H43" s="2" t="s">
         <v>57</v>
       </c>
@@ -9611,11 +9611,11 @@
       <c r="D44" s="2" t="s">
         <v>909</v>
       </c>
-      <c r="E44" s="64"/>
-      <c r="F44" s="60" t="s">
+      <c r="E44" s="63"/>
+      <c r="F44" s="57" t="s">
         <v>934</v>
       </c>
-      <c r="G44" s="62"/>
+      <c r="G44" s="59"/>
       <c r="H44" s="2" t="s">
         <v>910</v>
       </c>
@@ -9640,11 +9640,11 @@
       <c r="D45" s="2" t="s">
         <v>909</v>
       </c>
-      <c r="E45" s="64"/>
-      <c r="F45" s="60" t="s">
+      <c r="E45" s="63"/>
+      <c r="F45" s="57" t="s">
         <v>916</v>
       </c>
-      <c r="G45" s="62"/>
+      <c r="G45" s="59"/>
       <c r="H45" s="53" t="s">
         <v>912</v>
       </c>
@@ -9669,11 +9669,11 @@
       <c r="D46" s="2" t="s">
         <v>906</v>
       </c>
-      <c r="E46" s="64"/>
-      <c r="F46" s="60" t="s">
+      <c r="E46" s="63"/>
+      <c r="F46" s="57" t="s">
         <v>915</v>
       </c>
-      <c r="G46" s="62"/>
+      <c r="G46" s="59"/>
       <c r="H46" s="2" t="s">
         <v>620</v>
       </c>
@@ -9698,11 +9698,11 @@
       <c r="D47" s="2" t="s">
         <v>906</v>
       </c>
-      <c r="E47" s="64"/>
-      <c r="F47" s="60" t="s">
+      <c r="E47" s="63"/>
+      <c r="F47" s="57" t="s">
         <v>917</v>
       </c>
-      <c r="G47" s="62"/>
+      <c r="G47" s="59"/>
       <c r="H47" s="2" t="s">
         <v>43</v>
       </c>
@@ -9727,11 +9727,11 @@
       <c r="D48" s="2" t="s">
         <v>906</v>
       </c>
-      <c r="E48" s="64"/>
-      <c r="F48" s="60" t="s">
+      <c r="E48" s="63"/>
+      <c r="F48" s="57" t="s">
         <v>918</v>
       </c>
-      <c r="G48" s="62"/>
+      <c r="G48" s="59"/>
       <c r="H48" s="2" t="s">
         <v>64</v>
       </c>
@@ -9756,11 +9756,11 @@
       <c r="D49" s="2" t="s">
         <v>906</v>
       </c>
-      <c r="E49" s="64"/>
-      <c r="F49" s="60" t="s">
+      <c r="E49" s="63"/>
+      <c r="F49" s="57" t="s">
         <v>919</v>
       </c>
-      <c r="G49" s="62"/>
+      <c r="G49" s="59"/>
       <c r="H49" s="2" t="s">
         <v>64</v>
       </c>
@@ -9785,7 +9785,7 @@
       <c r="D50" s="2" t="s">
         <v>909</v>
       </c>
-      <c r="E50" s="64"/>
+      <c r="E50" s="63"/>
       <c r="F50" s="55" t="s">
         <v>920</v>
       </c>
@@ -9816,8 +9816,8 @@
       <c r="D51" s="2" t="s">
         <v>906</v>
       </c>
-      <c r="E51" s="64"/>
-      <c r="F51" s="69"/>
+      <c r="E51" s="63"/>
+      <c r="F51" s="71"/>
       <c r="G51" s="50" t="s">
         <v>922</v>
       </c>
@@ -9845,8 +9845,8 @@
       <c r="D52" s="2" t="s">
         <v>906</v>
       </c>
-      <c r="E52" s="64"/>
-      <c r="F52" s="70"/>
+      <c r="E52" s="63"/>
+      <c r="F52" s="72"/>
       <c r="G52" s="50" t="s">
         <v>923</v>
       </c>
@@ -9874,8 +9874,8 @@
       <c r="D53" s="2" t="s">
         <v>909</v>
       </c>
-      <c r="E53" s="64"/>
-      <c r="F53" s="70"/>
+      <c r="E53" s="63"/>
+      <c r="F53" s="72"/>
       <c r="G53" s="50" t="s">
         <v>924</v>
       </c>
@@ -9903,8 +9903,8 @@
       <c r="D54" s="2" t="s">
         <v>906</v>
       </c>
-      <c r="E54" s="64"/>
-      <c r="F54" s="70"/>
+      <c r="E54" s="63"/>
+      <c r="F54" s="72"/>
       <c r="G54" s="50" t="s">
         <v>925</v>
       </c>
@@ -9932,8 +9932,8 @@
       <c r="D55" s="2" t="s">
         <v>906</v>
       </c>
-      <c r="E55" s="64"/>
-      <c r="F55" s="70"/>
+      <c r="E55" s="63"/>
+      <c r="F55" s="72"/>
       <c r="G55" s="50" t="s">
         <v>926</v>
       </c>
@@ -9961,11 +9961,11 @@
       <c r="D56" s="2" t="s">
         <v>909</v>
       </c>
-      <c r="E56" s="64"/>
-      <c r="F56" s="60" t="s">
+      <c r="E56" s="63"/>
+      <c r="F56" s="57" t="s">
         <v>927</v>
       </c>
-      <c r="G56" s="62"/>
+      <c r="G56" s="59"/>
       <c r="H56" s="2" t="s">
         <v>57</v>
       </c>
@@ -9990,11 +9990,11 @@
       <c r="D57" s="2" t="s">
         <v>909</v>
       </c>
-      <c r="E57" s="64"/>
-      <c r="F57" s="60" t="s">
+      <c r="E57" s="63"/>
+      <c r="F57" s="57" t="s">
         <v>934</v>
       </c>
-      <c r="G57" s="62"/>
+      <c r="G57" s="59"/>
       <c r="H57" s="2" t="s">
         <v>910</v>
       </c>
@@ -10019,11 +10019,11 @@
       <c r="D58" s="2" t="s">
         <v>909</v>
       </c>
-      <c r="E58" s="64"/>
-      <c r="F58" s="60" t="s">
+      <c r="E58" s="63"/>
+      <c r="F58" s="57" t="s">
         <v>916</v>
       </c>
-      <c r="G58" s="62"/>
+      <c r="G58" s="59"/>
       <c r="H58" s="53" t="s">
         <v>912</v>
       </c>
@@ -10048,11 +10048,11 @@
       <c r="D59" s="2" t="s">
         <v>906</v>
       </c>
-      <c r="E59" s="64"/>
-      <c r="F59" s="60" t="s">
+      <c r="E59" s="63"/>
+      <c r="F59" s="57" t="s">
         <v>915</v>
       </c>
-      <c r="G59" s="62"/>
+      <c r="G59" s="59"/>
       <c r="H59" s="2" t="s">
         <v>620</v>
       </c>
@@ -10077,11 +10077,11 @@
       <c r="D60" s="2" t="s">
         <v>906</v>
       </c>
-      <c r="E60" s="64"/>
-      <c r="F60" s="60" t="s">
+      <c r="E60" s="63"/>
+      <c r="F60" s="57" t="s">
         <v>917</v>
       </c>
-      <c r="G60" s="62"/>
+      <c r="G60" s="59"/>
       <c r="H60" s="2" t="s">
         <v>43</v>
       </c>
@@ -10106,11 +10106,11 @@
       <c r="D61" s="2" t="s">
         <v>906</v>
       </c>
-      <c r="E61" s="64"/>
-      <c r="F61" s="60" t="s">
+      <c r="E61" s="63"/>
+      <c r="F61" s="57" t="s">
         <v>918</v>
       </c>
-      <c r="G61" s="62"/>
+      <c r="G61" s="59"/>
       <c r="H61" s="2" t="s">
         <v>64</v>
       </c>
@@ -10135,11 +10135,11 @@
       <c r="D62" s="2" t="s">
         <v>906</v>
       </c>
-      <c r="E62" s="64"/>
-      <c r="F62" s="60" t="s">
+      <c r="E62" s="63"/>
+      <c r="F62" s="57" t="s">
         <v>919</v>
       </c>
-      <c r="G62" s="62"/>
+      <c r="G62" s="59"/>
       <c r="H62" s="2" t="s">
         <v>64</v>
       </c>
@@ -10164,7 +10164,7 @@
       <c r="D63" s="2" t="s">
         <v>909</v>
       </c>
-      <c r="E63" s="64"/>
+      <c r="E63" s="63"/>
       <c r="F63" s="55" t="s">
         <v>920</v>
       </c>
@@ -10195,8 +10195,8 @@
       <c r="D64" s="2" t="s">
         <v>906</v>
       </c>
-      <c r="E64" s="64"/>
-      <c r="F64" s="69"/>
+      <c r="E64" s="63"/>
+      <c r="F64" s="71"/>
       <c r="G64" s="50" t="s">
         <v>922</v>
       </c>
@@ -10224,8 +10224,8 @@
       <c r="D65" s="2" t="s">
         <v>906</v>
       </c>
-      <c r="E65" s="64"/>
-      <c r="F65" s="70"/>
+      <c r="E65" s="63"/>
+      <c r="F65" s="72"/>
       <c r="G65" s="50" t="s">
         <v>923</v>
       </c>
@@ -10253,8 +10253,8 @@
       <c r="D66" s="2" t="s">
         <v>909</v>
       </c>
-      <c r="E66" s="64"/>
-      <c r="F66" s="70"/>
+      <c r="E66" s="63"/>
+      <c r="F66" s="72"/>
       <c r="G66" s="50" t="s">
         <v>924</v>
       </c>
@@ -10282,8 +10282,8 @@
       <c r="D67" s="2" t="s">
         <v>906</v>
       </c>
-      <c r="E67" s="64"/>
-      <c r="F67" s="70"/>
+      <c r="E67" s="63"/>
+      <c r="F67" s="72"/>
       <c r="G67" s="50" t="s">
         <v>925</v>
       </c>
@@ -10311,8 +10311,8 @@
       <c r="D68" s="2" t="s">
         <v>906</v>
       </c>
-      <c r="E68" s="64"/>
-      <c r="F68" s="70"/>
+      <c r="E68" s="63"/>
+      <c r="F68" s="72"/>
       <c r="G68" s="50" t="s">
         <v>926</v>
       </c>
@@ -10340,11 +10340,11 @@
       <c r="D69" s="2" t="s">
         <v>909</v>
       </c>
-      <c r="E69" s="64"/>
-      <c r="F69" s="60" t="s">
+      <c r="E69" s="63"/>
+      <c r="F69" s="57" t="s">
         <v>927</v>
       </c>
-      <c r="G69" s="62"/>
+      <c r="G69" s="59"/>
       <c r="H69" s="2" t="s">
         <v>57</v>
       </c>
@@ -10369,9 +10369,9 @@
       <c r="D70" s="54" t="s">
         <v>909</v>
       </c>
-      <c r="E70" s="64"/>
-      <c r="F70" s="71"/>
-      <c r="G70" s="72"/>
+      <c r="E70" s="63"/>
+      <c r="F70" s="69"/>
+      <c r="G70" s="70"/>
       <c r="H70" s="54" t="s">
         <v>937</v>
       </c>
@@ -10397,10 +10397,10 @@
       <c r="E71" s="51" t="s">
         <v>936</v>
       </c>
-      <c r="F71" s="60" t="s">
+      <c r="F71" s="57" t="s">
         <v>934</v>
       </c>
-      <c r="G71" s="62"/>
+      <c r="G71" s="59"/>
       <c r="H71" s="2" t="s">
         <v>910</v>
       </c>
@@ -10425,11 +10425,11 @@
       <c r="D72" s="2" t="s">
         <v>909</v>
       </c>
-      <c r="E72" s="63"/>
-      <c r="F72" s="60" t="s">
+      <c r="E72" s="62"/>
+      <c r="F72" s="57" t="s">
         <v>916</v>
       </c>
-      <c r="G72" s="62"/>
+      <c r="G72" s="59"/>
       <c r="H72" s="53" t="s">
         <v>912</v>
       </c>
@@ -10454,11 +10454,11 @@
       <c r="D73" s="2" t="s">
         <v>906</v>
       </c>
-      <c r="E73" s="64"/>
-      <c r="F73" s="60" t="s">
+      <c r="E73" s="63"/>
+      <c r="F73" s="57" t="s">
         <v>915</v>
       </c>
-      <c r="G73" s="62"/>
+      <c r="G73" s="59"/>
       <c r="H73" s="2" t="s">
         <v>620</v>
       </c>
@@ -10483,11 +10483,11 @@
       <c r="D74" s="2" t="s">
         <v>906</v>
       </c>
-      <c r="E74" s="64"/>
-      <c r="F74" s="60" t="s">
+      <c r="E74" s="63"/>
+      <c r="F74" s="57" t="s">
         <v>917</v>
       </c>
-      <c r="G74" s="62"/>
+      <c r="G74" s="59"/>
       <c r="H74" s="2" t="s">
         <v>43</v>
       </c>
@@ -10512,11 +10512,11 @@
       <c r="D75" s="2" t="s">
         <v>906</v>
       </c>
-      <c r="E75" s="64"/>
-      <c r="F75" s="60" t="s">
+      <c r="E75" s="63"/>
+      <c r="F75" s="57" t="s">
         <v>918</v>
       </c>
-      <c r="G75" s="62"/>
+      <c r="G75" s="59"/>
       <c r="H75" s="2" t="s">
         <v>64</v>
       </c>
@@ -10541,11 +10541,11 @@
       <c r="D76" s="2" t="s">
         <v>906</v>
       </c>
-      <c r="E76" s="64"/>
-      <c r="F76" s="60" t="s">
+      <c r="E76" s="63"/>
+      <c r="F76" s="57" t="s">
         <v>919</v>
       </c>
-      <c r="G76" s="62"/>
+      <c r="G76" s="59"/>
       <c r="H76" s="2" t="s">
         <v>64</v>
       </c>
@@ -10570,7 +10570,7 @@
       <c r="D77" s="2" t="s">
         <v>909</v>
       </c>
-      <c r="E77" s="64"/>
+      <c r="E77" s="63"/>
       <c r="F77" s="55" t="s">
         <v>920</v>
       </c>
@@ -10601,8 +10601,8 @@
       <c r="D78" s="2" t="s">
         <v>906</v>
       </c>
-      <c r="E78" s="64"/>
-      <c r="F78" s="69"/>
+      <c r="E78" s="63"/>
+      <c r="F78" s="71"/>
       <c r="G78" s="50" t="s">
         <v>922</v>
       </c>
@@ -10630,8 +10630,8 @@
       <c r="D79" s="2" t="s">
         <v>906</v>
       </c>
-      <c r="E79" s="64"/>
-      <c r="F79" s="70"/>
+      <c r="E79" s="63"/>
+      <c r="F79" s="72"/>
       <c r="G79" s="50" t="s">
         <v>923</v>
       </c>
@@ -10659,8 +10659,8 @@
       <c r="D80" s="2" t="s">
         <v>909</v>
       </c>
-      <c r="E80" s="64"/>
-      <c r="F80" s="70"/>
+      <c r="E80" s="63"/>
+      <c r="F80" s="72"/>
       <c r="G80" s="50" t="s">
         <v>924</v>
       </c>
@@ -10688,8 +10688,8 @@
       <c r="D81" s="2" t="s">
         <v>906</v>
       </c>
-      <c r="E81" s="64"/>
-      <c r="F81" s="70"/>
+      <c r="E81" s="63"/>
+      <c r="F81" s="72"/>
       <c r="G81" s="50" t="s">
         <v>925</v>
       </c>
@@ -10717,8 +10717,8 @@
       <c r="D82" s="2" t="s">
         <v>906</v>
       </c>
-      <c r="E82" s="64"/>
-      <c r="F82" s="70"/>
+      <c r="E82" s="63"/>
+      <c r="F82" s="72"/>
       <c r="G82" s="50" t="s">
         <v>926</v>
       </c>
@@ -10746,11 +10746,11 @@
       <c r="D83" s="2" t="s">
         <v>909</v>
       </c>
-      <c r="E83" s="64"/>
-      <c r="F83" s="60" t="s">
+      <c r="E83" s="63"/>
+      <c r="F83" s="57" t="s">
         <v>927</v>
       </c>
-      <c r="G83" s="62"/>
+      <c r="G83" s="59"/>
       <c r="H83" s="2" t="s">
         <v>57</v>
       </c>
@@ -10775,11 +10775,11 @@
       <c r="D84" s="2" t="s">
         <v>909</v>
       </c>
-      <c r="E84" s="64"/>
-      <c r="F84" s="60" t="s">
+      <c r="E84" s="63"/>
+      <c r="F84" s="57" t="s">
         <v>934</v>
       </c>
-      <c r="G84" s="62"/>
+      <c r="G84" s="59"/>
       <c r="H84" s="2" t="s">
         <v>910</v>
       </c>
@@ -10804,11 +10804,11 @@
       <c r="D85" s="2" t="s">
         <v>909</v>
       </c>
-      <c r="E85" s="64"/>
-      <c r="F85" s="60" t="s">
+      <c r="E85" s="63"/>
+      <c r="F85" s="57" t="s">
         <v>916</v>
       </c>
-      <c r="G85" s="62"/>
+      <c r="G85" s="59"/>
       <c r="H85" s="53" t="s">
         <v>912</v>
       </c>
@@ -10833,11 +10833,11 @@
       <c r="D86" s="2" t="s">
         <v>906</v>
       </c>
-      <c r="E86" s="64"/>
-      <c r="F86" s="60" t="s">
+      <c r="E86" s="63"/>
+      <c r="F86" s="57" t="s">
         <v>915</v>
       </c>
-      <c r="G86" s="62"/>
+      <c r="G86" s="59"/>
       <c r="H86" s="2" t="s">
         <v>620</v>
       </c>
@@ -10862,11 +10862,11 @@
       <c r="D87" s="2" t="s">
         <v>906</v>
       </c>
-      <c r="E87" s="64"/>
-      <c r="F87" s="60" t="s">
+      <c r="E87" s="63"/>
+      <c r="F87" s="57" t="s">
         <v>917</v>
       </c>
-      <c r="G87" s="62"/>
+      <c r="G87" s="59"/>
       <c r="H87" s="2" t="s">
         <v>43</v>
       </c>
@@ -10891,11 +10891,11 @@
       <c r="D88" s="2" t="s">
         <v>906</v>
       </c>
-      <c r="E88" s="64"/>
-      <c r="F88" s="60" t="s">
+      <c r="E88" s="63"/>
+      <c r="F88" s="57" t="s">
         <v>918</v>
       </c>
-      <c r="G88" s="62"/>
+      <c r="G88" s="59"/>
       <c r="H88" s="2" t="s">
         <v>64</v>
       </c>
@@ -10920,11 +10920,11 @@
       <c r="D89" s="2" t="s">
         <v>906</v>
       </c>
-      <c r="E89" s="64"/>
-      <c r="F89" s="60" t="s">
+      <c r="E89" s="63"/>
+      <c r="F89" s="57" t="s">
         <v>919</v>
       </c>
-      <c r="G89" s="62"/>
+      <c r="G89" s="59"/>
       <c r="H89" s="2" t="s">
         <v>64</v>
       </c>
@@ -10949,7 +10949,7 @@
       <c r="D90" s="2" t="s">
         <v>909</v>
       </c>
-      <c r="E90" s="64"/>
+      <c r="E90" s="63"/>
       <c r="F90" s="55" t="s">
         <v>920</v>
       </c>
@@ -10980,8 +10980,8 @@
       <c r="D91" s="2" t="s">
         <v>906</v>
       </c>
-      <c r="E91" s="64"/>
-      <c r="F91" s="69"/>
+      <c r="E91" s="63"/>
+      <c r="F91" s="71"/>
       <c r="G91" s="50" t="s">
         <v>922</v>
       </c>
@@ -11009,8 +11009,8 @@
       <c r="D92" s="2" t="s">
         <v>906</v>
       </c>
-      <c r="E92" s="64"/>
-      <c r="F92" s="70"/>
+      <c r="E92" s="63"/>
+      <c r="F92" s="72"/>
       <c r="G92" s="50" t="s">
         <v>923</v>
       </c>
@@ -11038,8 +11038,8 @@
       <c r="D93" s="2" t="s">
         <v>909</v>
       </c>
-      <c r="E93" s="64"/>
-      <c r="F93" s="70"/>
+      <c r="E93" s="63"/>
+      <c r="F93" s="72"/>
       <c r="G93" s="50" t="s">
         <v>924</v>
       </c>
@@ -11067,8 +11067,8 @@
       <c r="D94" s="2" t="s">
         <v>906</v>
       </c>
-      <c r="E94" s="64"/>
-      <c r="F94" s="70"/>
+      <c r="E94" s="63"/>
+      <c r="F94" s="72"/>
       <c r="G94" s="50" t="s">
         <v>925</v>
       </c>
@@ -11096,8 +11096,8 @@
       <c r="D95" s="2" t="s">
         <v>906</v>
       </c>
-      <c r="E95" s="64"/>
-      <c r="F95" s="70"/>
+      <c r="E95" s="63"/>
+      <c r="F95" s="72"/>
       <c r="G95" s="50" t="s">
         <v>926</v>
       </c>
@@ -11125,11 +11125,11 @@
       <c r="D96" s="2" t="s">
         <v>909</v>
       </c>
-      <c r="E96" s="64"/>
-      <c r="F96" s="60" t="s">
+      <c r="E96" s="63"/>
+      <c r="F96" s="57" t="s">
         <v>927</v>
       </c>
-      <c r="G96" s="62"/>
+      <c r="G96" s="59"/>
       <c r="H96" s="2" t="s">
         <v>57</v>
       </c>
@@ -11154,11 +11154,11 @@
       <c r="D97" s="2" t="s">
         <v>909</v>
       </c>
-      <c r="E97" s="64"/>
-      <c r="F97" s="60" t="s">
+      <c r="E97" s="63"/>
+      <c r="F97" s="57" t="s">
         <v>934</v>
       </c>
-      <c r="G97" s="62"/>
+      <c r="G97" s="59"/>
       <c r="H97" s="2" t="s">
         <v>910</v>
       </c>
@@ -11183,11 +11183,11 @@
       <c r="D98" s="2" t="s">
         <v>909</v>
       </c>
-      <c r="E98" s="64"/>
-      <c r="F98" s="60" t="s">
+      <c r="E98" s="63"/>
+      <c r="F98" s="57" t="s">
         <v>916</v>
       </c>
-      <c r="G98" s="62"/>
+      <c r="G98" s="59"/>
       <c r="H98" s="53" t="s">
         <v>912</v>
       </c>
@@ -11212,11 +11212,11 @@
       <c r="D99" s="2" t="s">
         <v>906</v>
       </c>
-      <c r="E99" s="64"/>
-      <c r="F99" s="60" t="s">
+      <c r="E99" s="63"/>
+      <c r="F99" s="57" t="s">
         <v>915</v>
       </c>
-      <c r="G99" s="62"/>
+      <c r="G99" s="59"/>
       <c r="H99" s="2" t="s">
         <v>620</v>
       </c>
@@ -11241,11 +11241,11 @@
       <c r="D100" s="2" t="s">
         <v>906</v>
       </c>
-      <c r="E100" s="64"/>
-      <c r="F100" s="60" t="s">
+      <c r="E100" s="63"/>
+      <c r="F100" s="57" t="s">
         <v>917</v>
       </c>
-      <c r="G100" s="62"/>
+      <c r="G100" s="59"/>
       <c r="H100" s="2" t="s">
         <v>43</v>
       </c>
@@ -11270,11 +11270,11 @@
       <c r="D101" s="2" t="s">
         <v>906</v>
       </c>
-      <c r="E101" s="64"/>
-      <c r="F101" s="60" t="s">
+      <c r="E101" s="63"/>
+      <c r="F101" s="57" t="s">
         <v>918</v>
       </c>
-      <c r="G101" s="62"/>
+      <c r="G101" s="59"/>
       <c r="H101" s="2" t="s">
         <v>64</v>
       </c>
@@ -11299,11 +11299,11 @@
       <c r="D102" s="2" t="s">
         <v>906</v>
       </c>
-      <c r="E102" s="64"/>
-      <c r="F102" s="60" t="s">
+      <c r="E102" s="63"/>
+      <c r="F102" s="57" t="s">
         <v>919</v>
       </c>
-      <c r="G102" s="62"/>
+      <c r="G102" s="59"/>
       <c r="H102" s="2" t="s">
         <v>64</v>
       </c>
@@ -11328,7 +11328,7 @@
       <c r="D103" s="2" t="s">
         <v>909</v>
       </c>
-      <c r="E103" s="64"/>
+      <c r="E103" s="63"/>
       <c r="F103" s="55" t="s">
         <v>920</v>
       </c>
@@ -11359,8 +11359,8 @@
       <c r="D104" s="2" t="s">
         <v>906</v>
       </c>
-      <c r="E104" s="64"/>
-      <c r="F104" s="69"/>
+      <c r="E104" s="63"/>
+      <c r="F104" s="71"/>
       <c r="G104" s="50" t="s">
         <v>922</v>
       </c>
@@ -11388,8 +11388,8 @@
       <c r="D105" s="2" t="s">
         <v>906</v>
       </c>
-      <c r="E105" s="64"/>
-      <c r="F105" s="70"/>
+      <c r="E105" s="63"/>
+      <c r="F105" s="72"/>
       <c r="G105" s="50" t="s">
         <v>923</v>
       </c>
@@ -11417,8 +11417,8 @@
       <c r="D106" s="2" t="s">
         <v>909</v>
       </c>
-      <c r="E106" s="64"/>
-      <c r="F106" s="70"/>
+      <c r="E106" s="63"/>
+      <c r="F106" s="72"/>
       <c r="G106" s="50" t="s">
         <v>924</v>
       </c>
@@ -11446,8 +11446,8 @@
       <c r="D107" s="2" t="s">
         <v>906</v>
       </c>
-      <c r="E107" s="64"/>
-      <c r="F107" s="70"/>
+      <c r="E107" s="63"/>
+      <c r="F107" s="72"/>
       <c r="G107" s="50" t="s">
         <v>925</v>
       </c>
@@ -11475,8 +11475,8 @@
       <c r="D108" s="2" t="s">
         <v>906</v>
       </c>
-      <c r="E108" s="64"/>
-      <c r="F108" s="70"/>
+      <c r="E108" s="63"/>
+      <c r="F108" s="72"/>
       <c r="G108" s="50" t="s">
         <v>926</v>
       </c>
@@ -11504,11 +11504,11 @@
       <c r="D109" s="2" t="s">
         <v>909</v>
       </c>
-      <c r="E109" s="64"/>
-      <c r="F109" s="60" t="s">
+      <c r="E109" s="63"/>
+      <c r="F109" s="57" t="s">
         <v>927</v>
       </c>
-      <c r="G109" s="62"/>
+      <c r="G109" s="59"/>
       <c r="H109" s="2" t="s">
         <v>57</v>
       </c>
@@ -11533,11 +11533,11 @@
       <c r="D110" s="2" t="s">
         <v>909</v>
       </c>
-      <c r="E110" s="64"/>
-      <c r="F110" s="60" t="s">
+      <c r="E110" s="63"/>
+      <c r="F110" s="57" t="s">
         <v>934</v>
       </c>
-      <c r="G110" s="62"/>
+      <c r="G110" s="59"/>
       <c r="H110" s="2" t="s">
         <v>910</v>
       </c>
@@ -11562,11 +11562,11 @@
       <c r="D111" s="2" t="s">
         <v>909</v>
       </c>
-      <c r="E111" s="64"/>
-      <c r="F111" s="60" t="s">
+      <c r="E111" s="63"/>
+      <c r="F111" s="57" t="s">
         <v>916</v>
       </c>
-      <c r="G111" s="62"/>
+      <c r="G111" s="59"/>
       <c r="H111" s="53" t="s">
         <v>912</v>
       </c>
@@ -11591,11 +11591,11 @@
       <c r="D112" s="2" t="s">
         <v>906</v>
       </c>
-      <c r="E112" s="64"/>
-      <c r="F112" s="60" t="s">
+      <c r="E112" s="63"/>
+      <c r="F112" s="57" t="s">
         <v>915</v>
       </c>
-      <c r="G112" s="62"/>
+      <c r="G112" s="59"/>
       <c r="H112" s="2" t="s">
         <v>620</v>
       </c>
@@ -11620,11 +11620,11 @@
       <c r="D113" s="2" t="s">
         <v>906</v>
       </c>
-      <c r="E113" s="64"/>
-      <c r="F113" s="60" t="s">
+      <c r="E113" s="63"/>
+      <c r="F113" s="57" t="s">
         <v>917</v>
       </c>
-      <c r="G113" s="62"/>
+      <c r="G113" s="59"/>
       <c r="H113" s="2" t="s">
         <v>43</v>
       </c>
@@ -11649,11 +11649,11 @@
       <c r="D114" s="2" t="s">
         <v>906</v>
       </c>
-      <c r="E114" s="64"/>
-      <c r="F114" s="60" t="s">
+      <c r="E114" s="63"/>
+      <c r="F114" s="57" t="s">
         <v>918</v>
       </c>
-      <c r="G114" s="62"/>
+      <c r="G114" s="59"/>
       <c r="H114" s="2" t="s">
         <v>64</v>
       </c>
@@ -11678,11 +11678,11 @@
       <c r="D115" s="2" t="s">
         <v>906</v>
       </c>
-      <c r="E115" s="64"/>
-      <c r="F115" s="60" t="s">
+      <c r="E115" s="63"/>
+      <c r="F115" s="57" t="s">
         <v>919</v>
       </c>
-      <c r="G115" s="62"/>
+      <c r="G115" s="59"/>
       <c r="H115" s="2" t="s">
         <v>64</v>
       </c>
@@ -11707,7 +11707,7 @@
       <c r="D116" s="2" t="s">
         <v>909</v>
       </c>
-      <c r="E116" s="64"/>
+      <c r="E116" s="63"/>
       <c r="F116" s="55" t="s">
         <v>920</v>
       </c>
@@ -11738,8 +11738,8 @@
       <c r="D117" s="2" t="s">
         <v>906</v>
       </c>
-      <c r="E117" s="64"/>
-      <c r="F117" s="69"/>
+      <c r="E117" s="63"/>
+      <c r="F117" s="71"/>
       <c r="G117" s="50" t="s">
         <v>922</v>
       </c>
@@ -11767,8 +11767,8 @@
       <c r="D118" s="2" t="s">
         <v>906</v>
       </c>
-      <c r="E118" s="64"/>
-      <c r="F118" s="70"/>
+      <c r="E118" s="63"/>
+      <c r="F118" s="72"/>
       <c r="G118" s="50" t="s">
         <v>923</v>
       </c>
@@ -11796,8 +11796,8 @@
       <c r="D119" s="2" t="s">
         <v>909</v>
       </c>
-      <c r="E119" s="64"/>
-      <c r="F119" s="70"/>
+      <c r="E119" s="63"/>
+      <c r="F119" s="72"/>
       <c r="G119" s="50" t="s">
         <v>924</v>
       </c>
@@ -11825,8 +11825,8 @@
       <c r="D120" s="2" t="s">
         <v>906</v>
       </c>
-      <c r="E120" s="64"/>
-      <c r="F120" s="70"/>
+      <c r="E120" s="63"/>
+      <c r="F120" s="72"/>
       <c r="G120" s="50" t="s">
         <v>925</v>
       </c>
@@ -11854,8 +11854,8 @@
       <c r="D121" s="2" t="s">
         <v>906</v>
       </c>
-      <c r="E121" s="64"/>
-      <c r="F121" s="70"/>
+      <c r="E121" s="63"/>
+      <c r="F121" s="72"/>
       <c r="G121" s="50" t="s">
         <v>926</v>
       </c>
@@ -11883,11 +11883,11 @@
       <c r="D122" s="2" t="s">
         <v>909</v>
       </c>
-      <c r="E122" s="64"/>
-      <c r="F122" s="60" t="s">
+      <c r="E122" s="63"/>
+      <c r="F122" s="57" t="s">
         <v>927</v>
       </c>
-      <c r="G122" s="62"/>
+      <c r="G122" s="59"/>
       <c r="H122" s="2" t="s">
         <v>57</v>
       </c>
@@ -11912,11 +11912,11 @@
       <c r="D123" s="2" t="s">
         <v>909</v>
       </c>
-      <c r="E123" s="64"/>
-      <c r="F123" s="60" t="s">
+      <c r="E123" s="63"/>
+      <c r="F123" s="57" t="s">
         <v>934</v>
       </c>
-      <c r="G123" s="62"/>
+      <c r="G123" s="59"/>
       <c r="H123" s="2" t="s">
         <v>910</v>
       </c>
@@ -11941,11 +11941,11 @@
       <c r="D124" s="2" t="s">
         <v>909</v>
       </c>
-      <c r="E124" s="64"/>
-      <c r="F124" s="60" t="s">
+      <c r="E124" s="63"/>
+      <c r="F124" s="57" t="s">
         <v>916</v>
       </c>
-      <c r="G124" s="62"/>
+      <c r="G124" s="59"/>
       <c r="H124" s="53" t="s">
         <v>912</v>
       </c>
@@ -11970,11 +11970,11 @@
       <c r="D125" s="2" t="s">
         <v>906</v>
       </c>
-      <c r="E125" s="64"/>
-      <c r="F125" s="60" t="s">
+      <c r="E125" s="63"/>
+      <c r="F125" s="57" t="s">
         <v>915</v>
       </c>
-      <c r="G125" s="62"/>
+      <c r="G125" s="59"/>
       <c r="H125" s="2" t="s">
         <v>620</v>
       </c>
@@ -11999,11 +11999,11 @@
       <c r="D126" s="2" t="s">
         <v>906</v>
       </c>
-      <c r="E126" s="64"/>
-      <c r="F126" s="60" t="s">
+      <c r="E126" s="63"/>
+      <c r="F126" s="57" t="s">
         <v>917</v>
       </c>
-      <c r="G126" s="62"/>
+      <c r="G126" s="59"/>
       <c r="H126" s="2" t="s">
         <v>43</v>
       </c>
@@ -12028,11 +12028,11 @@
       <c r="D127" s="2" t="s">
         <v>906</v>
       </c>
-      <c r="E127" s="64"/>
-      <c r="F127" s="60" t="s">
+      <c r="E127" s="63"/>
+      <c r="F127" s="57" t="s">
         <v>918</v>
       </c>
-      <c r="G127" s="62"/>
+      <c r="G127" s="59"/>
       <c r="H127" s="2" t="s">
         <v>64</v>
       </c>
@@ -12057,11 +12057,11 @@
       <c r="D128" s="2" t="s">
         <v>906</v>
       </c>
-      <c r="E128" s="64"/>
-      <c r="F128" s="60" t="s">
+      <c r="E128" s="63"/>
+      <c r="F128" s="57" t="s">
         <v>919</v>
       </c>
-      <c r="G128" s="62"/>
+      <c r="G128" s="59"/>
       <c r="H128" s="2" t="s">
         <v>64</v>
       </c>
@@ -12086,7 +12086,7 @@
       <c r="D129" s="2" t="s">
         <v>909</v>
       </c>
-      <c r="E129" s="64"/>
+      <c r="E129" s="63"/>
       <c r="F129" s="55" t="s">
         <v>920</v>
       </c>
@@ -12117,8 +12117,8 @@
       <c r="D130" s="2" t="s">
         <v>906</v>
       </c>
-      <c r="E130" s="64"/>
-      <c r="F130" s="69"/>
+      <c r="E130" s="63"/>
+      <c r="F130" s="71"/>
       <c r="G130" s="50" t="s">
         <v>922</v>
       </c>
@@ -12146,8 +12146,8 @@
       <c r="D131" s="2" t="s">
         <v>906</v>
       </c>
-      <c r="E131" s="64"/>
-      <c r="F131" s="70"/>
+      <c r="E131" s="63"/>
+      <c r="F131" s="72"/>
       <c r="G131" s="50" t="s">
         <v>923</v>
       </c>
@@ -12175,8 +12175,8 @@
       <c r="D132" s="2" t="s">
         <v>909</v>
       </c>
-      <c r="E132" s="64"/>
-      <c r="F132" s="70"/>
+      <c r="E132" s="63"/>
+      <c r="F132" s="72"/>
       <c r="G132" s="50" t="s">
         <v>924</v>
       </c>
@@ -12204,8 +12204,8 @@
       <c r="D133" s="2" t="s">
         <v>906</v>
       </c>
-      <c r="E133" s="64"/>
-      <c r="F133" s="70"/>
+      <c r="E133" s="63"/>
+      <c r="F133" s="72"/>
       <c r="G133" s="50" t="s">
         <v>925</v>
       </c>
@@ -12233,8 +12233,8 @@
       <c r="D134" s="2" t="s">
         <v>906</v>
       </c>
-      <c r="E134" s="64"/>
-      <c r="F134" s="70"/>
+      <c r="E134" s="63"/>
+      <c r="F134" s="72"/>
       <c r="G134" s="50" t="s">
         <v>926</v>
       </c>
@@ -12262,11 +12262,11 @@
       <c r="D135" s="2" t="s">
         <v>909</v>
       </c>
-      <c r="E135" s="64"/>
-      <c r="F135" s="60" t="s">
+      <c r="E135" s="63"/>
+      <c r="F135" s="57" t="s">
         <v>927</v>
       </c>
-      <c r="G135" s="62"/>
+      <c r="G135" s="59"/>
       <c r="H135" s="2" t="s">
         <v>57</v>
       </c>
@@ -12291,9 +12291,9 @@
       <c r="D136" s="2" t="s">
         <v>909</v>
       </c>
-      <c r="E136" s="64"/>
-      <c r="F136" s="60"/>
-      <c r="G136" s="62"/>
+      <c r="E136" s="63"/>
+      <c r="F136" s="57"/>
+      <c r="G136" s="59"/>
       <c r="H136" s="10" t="s">
         <v>938</v>
       </c>
@@ -12304,6 +12304,77 @@
     </row>
   </sheetData>
   <mergeCells count="87">
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="E72:E136"/>
+    <mergeCell ref="E6:E70"/>
+    <mergeCell ref="F12:F16"/>
+    <mergeCell ref="F25:F29"/>
+    <mergeCell ref="F38:F42"/>
+    <mergeCell ref="F51:F55"/>
+    <mergeCell ref="F64:F68"/>
+    <mergeCell ref="F78:F82"/>
+    <mergeCell ref="F91:F95"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="F104:F108"/>
+    <mergeCell ref="F117:F121"/>
+    <mergeCell ref="F130:F134"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="F60:G60"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="F47:G47"/>
+    <mergeCell ref="F48:G48"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="F56:G56"/>
+    <mergeCell ref="F57:G57"/>
+    <mergeCell ref="F58:G58"/>
+    <mergeCell ref="F59:G59"/>
+    <mergeCell ref="F85:G85"/>
+    <mergeCell ref="F61:G61"/>
+    <mergeCell ref="F62:G62"/>
+    <mergeCell ref="F69:G69"/>
+    <mergeCell ref="F71:G71"/>
+    <mergeCell ref="F72:G72"/>
+    <mergeCell ref="F73:G73"/>
+    <mergeCell ref="F74:G74"/>
+    <mergeCell ref="F75:G75"/>
+    <mergeCell ref="F76:G76"/>
+    <mergeCell ref="F83:G83"/>
+    <mergeCell ref="F84:G84"/>
+    <mergeCell ref="F109:G109"/>
+    <mergeCell ref="F86:G86"/>
+    <mergeCell ref="F87:G87"/>
+    <mergeCell ref="F88:G88"/>
+    <mergeCell ref="F89:G89"/>
+    <mergeCell ref="F96:G96"/>
+    <mergeCell ref="F97:G97"/>
+    <mergeCell ref="F98:G98"/>
+    <mergeCell ref="F99:G99"/>
+    <mergeCell ref="F100:G100"/>
+    <mergeCell ref="F101:G101"/>
+    <mergeCell ref="F102:G102"/>
     <mergeCell ref="F128:G128"/>
     <mergeCell ref="F135:G135"/>
     <mergeCell ref="F70:G70"/>
@@ -12320,77 +12391,6 @@
     <mergeCell ref="F113:G113"/>
     <mergeCell ref="F114:G114"/>
     <mergeCell ref="F115:G115"/>
-    <mergeCell ref="F109:G109"/>
-    <mergeCell ref="F86:G86"/>
-    <mergeCell ref="F87:G87"/>
-    <mergeCell ref="F88:G88"/>
-    <mergeCell ref="F89:G89"/>
-    <mergeCell ref="F96:G96"/>
-    <mergeCell ref="F97:G97"/>
-    <mergeCell ref="F98:G98"/>
-    <mergeCell ref="F99:G99"/>
-    <mergeCell ref="F100:G100"/>
-    <mergeCell ref="F101:G101"/>
-    <mergeCell ref="F102:G102"/>
-    <mergeCell ref="F58:G58"/>
-    <mergeCell ref="F59:G59"/>
-    <mergeCell ref="F85:G85"/>
-    <mergeCell ref="F61:G61"/>
-    <mergeCell ref="F62:G62"/>
-    <mergeCell ref="F69:G69"/>
-    <mergeCell ref="F71:G71"/>
-    <mergeCell ref="F72:G72"/>
-    <mergeCell ref="F73:G73"/>
-    <mergeCell ref="F74:G74"/>
-    <mergeCell ref="F75:G75"/>
-    <mergeCell ref="F76:G76"/>
-    <mergeCell ref="F83:G83"/>
-    <mergeCell ref="F84:G84"/>
-    <mergeCell ref="F47:G47"/>
-    <mergeCell ref="F48:G48"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="F56:G56"/>
-    <mergeCell ref="F57:G57"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="F104:F108"/>
-    <mergeCell ref="F117:F121"/>
-    <mergeCell ref="F130:F134"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="F60:G60"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="E72:E136"/>
-    <mergeCell ref="E6:E70"/>
-    <mergeCell ref="F12:F16"/>
-    <mergeCell ref="F25:F29"/>
-    <mergeCell ref="F38:F42"/>
-    <mergeCell ref="F51:F55"/>
-    <mergeCell ref="F64:F68"/>
-    <mergeCell ref="F78:F82"/>
-    <mergeCell ref="F91:F95"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="F5:G5"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12436,11 +12436,11 @@
       <c r="D2" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="E2" s="57" t="s">
+      <c r="E2" s="66" t="s">
         <v>33</v>
       </c>
-      <c r="F2" s="58"/>
-      <c r="G2" s="59"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="68"/>
       <c r="H2" s="6" t="s">
         <v>34</v>
       </c>
@@ -12471,9 +12471,9 @@
       <c r="D3" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E3" s="60"/>
-      <c r="F3" s="61"/>
-      <c r="G3" s="62"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="59"/>
       <c r="H3" s="2" t="s">
         <v>184</v>
       </c>
@@ -12496,9 +12496,9 @@
       <c r="D4" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E4" s="60"/>
-      <c r="F4" s="61"/>
-      <c r="G4" s="62"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="58"/>
+      <c r="G4" s="59"/>
       <c r="H4" s="5" t="s">
         <v>288</v>
       </c>
@@ -12523,9 +12523,9 @@
       <c r="D5" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E5" s="60"/>
-      <c r="F5" s="61"/>
-      <c r="G5" s="62"/>
+      <c r="E5" s="57"/>
+      <c r="F5" s="58"/>
+      <c r="G5" s="59"/>
       <c r="H5" s="5" t="s">
         <v>289</v>
       </c>
@@ -12550,9 +12550,9 @@
       <c r="D6" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="E6" s="60"/>
-      <c r="F6" s="61"/>
-      <c r="G6" s="62"/>
+      <c r="E6" s="57"/>
+      <c r="F6" s="58"/>
+      <c r="G6" s="59"/>
       <c r="H6" s="2" t="s">
         <v>192</v>
       </c>
@@ -12575,9 +12575,9 @@
       <c r="D7" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="E7" s="60"/>
-      <c r="F7" s="61"/>
-      <c r="G7" s="62"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="58"/>
+      <c r="G7" s="59"/>
       <c r="H7" s="2" t="s">
         <v>196</v>
       </c>
@@ -12600,9 +12600,9 @@
       <c r="D8" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="E8" s="60"/>
-      <c r="F8" s="61"/>
-      <c r="G8" s="62"/>
+      <c r="E8" s="57"/>
+      <c r="F8" s="58"/>
+      <c r="G8" s="59"/>
       <c r="H8" s="2" t="s">
         <v>195</v>
       </c>
@@ -12625,9 +12625,9 @@
       <c r="D9" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="E9" s="60"/>
-      <c r="F9" s="61"/>
-      <c r="G9" s="62"/>
+      <c r="E9" s="57"/>
+      <c r="F9" s="58"/>
+      <c r="G9" s="59"/>
       <c r="H9" s="2" t="s">
         <v>194</v>
       </c>
@@ -12650,9 +12650,9 @@
       <c r="D10" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="E10" s="60"/>
-      <c r="F10" s="61"/>
-      <c r="G10" s="62"/>
+      <c r="E10" s="57"/>
+      <c r="F10" s="58"/>
+      <c r="G10" s="59"/>
       <c r="H10" s="2" t="s">
         <v>194</v>
       </c>
@@ -12675,9 +12675,9 @@
       <c r="D11" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="E11" s="60"/>
-      <c r="F11" s="61"/>
-      <c r="G11" s="62"/>
+      <c r="E11" s="57"/>
+      <c r="F11" s="58"/>
+      <c r="G11" s="59"/>
       <c r="H11" s="2" t="s">
         <v>194</v>
       </c>
@@ -12700,9 +12700,9 @@
       <c r="D12" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="E12" s="60"/>
-      <c r="F12" s="61"/>
-      <c r="G12" s="62"/>
+      <c r="E12" s="57"/>
+      <c r="F12" s="58"/>
+      <c r="G12" s="59"/>
       <c r="H12" s="5" t="s">
         <v>191</v>
       </c>
@@ -12725,9 +12725,9 @@
       <c r="D13" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="E13" s="60"/>
-      <c r="F13" s="61"/>
-      <c r="G13" s="62"/>
+      <c r="E13" s="57"/>
+      <c r="F13" s="58"/>
+      <c r="G13" s="59"/>
       <c r="H13" s="5" t="s">
         <v>190</v>
       </c>
@@ -12750,9 +12750,9 @@
       <c r="D14" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="E14" s="60"/>
-      <c r="F14" s="61"/>
-      <c r="G14" s="62"/>
+      <c r="E14" s="57"/>
+      <c r="F14" s="58"/>
+      <c r="G14" s="59"/>
       <c r="H14" s="2" t="s">
         <v>189</v>
       </c>
@@ -12775,9 +12775,9 @@
       <c r="D15" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="E15" s="60"/>
-      <c r="F15" s="61"/>
-      <c r="G15" s="62"/>
+      <c r="E15" s="57"/>
+      <c r="F15" s="58"/>
+      <c r="G15" s="59"/>
       <c r="H15" s="2" t="s">
         <v>187</v>
       </c>
@@ -12800,9 +12800,9 @@
       <c r="D16" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="E16" s="60"/>
-      <c r="F16" s="61"/>
-      <c r="G16" s="62"/>
+      <c r="E16" s="57"/>
+      <c r="F16" s="58"/>
+      <c r="G16" s="59"/>
       <c r="H16" s="5" t="s">
         <v>188</v>
       </c>
@@ -12825,11 +12825,11 @@
       <c r="D17" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="E17" s="60" t="s">
+      <c r="E17" s="57" t="s">
         <v>41</v>
       </c>
-      <c r="F17" s="61"/>
-      <c r="G17" s="62"/>
+      <c r="F17" s="58"/>
+      <c r="G17" s="59"/>
       <c r="H17" s="5" t="s">
         <v>292</v>
       </c>
@@ -12854,11 +12854,11 @@
       <c r="D18" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="E18" s="60" t="s">
+      <c r="E18" s="57" t="s">
         <v>167</v>
       </c>
-      <c r="F18" s="61"/>
-      <c r="G18" s="62"/>
+      <c r="F18" s="58"/>
+      <c r="G18" s="59"/>
       <c r="H18" s="5" t="s">
         <v>179</v>
       </c>
@@ -12912,7 +12912,7 @@
       <c r="D20" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="E20" s="68"/>
+      <c r="E20" s="61"/>
       <c r="F20" s="73" t="s">
         <v>129</v>
       </c>
@@ -12939,7 +12939,7 @@
       <c r="D21" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="E21" s="68"/>
+      <c r="E21" s="61"/>
       <c r="F21" s="73" t="s">
         <v>130</v>
       </c>
@@ -12966,7 +12966,7 @@
       <c r="D22" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="E22" s="68"/>
+      <c r="E22" s="61"/>
       <c r="F22" s="73" t="s">
         <v>131</v>
       </c>
@@ -12993,7 +12993,7 @@
       <c r="D23" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="E23" s="63"/>
+      <c r="E23" s="62"/>
       <c r="F23" s="73" t="s">
         <v>169</v>
       </c>
@@ -13078,7 +13078,7 @@
       <c r="D26" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="E26" s="68"/>
+      <c r="E26" s="61"/>
       <c r="F26" s="73" t="s">
         <v>199</v>
       </c>
@@ -13105,7 +13105,7 @@
       <c r="D27" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="E27" s="68"/>
+      <c r="E27" s="61"/>
       <c r="F27" s="73" t="s">
         <v>291</v>
       </c>
@@ -13132,7 +13132,7 @@
       <c r="D28" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="E28" s="68"/>
+      <c r="E28" s="61"/>
       <c r="F28" s="73" t="s">
         <v>116</v>
       </c>
@@ -13159,7 +13159,7 @@
       <c r="D29" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="E29" s="68"/>
+      <c r="E29" s="61"/>
       <c r="F29" s="73" t="s">
         <v>208</v>
       </c>
@@ -13186,7 +13186,7 @@
       <c r="D30" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="E30" s="68"/>
+      <c r="E30" s="61"/>
       <c r="F30" s="19" t="s">
         <v>209</v>
       </c>
@@ -13215,8 +13215,8 @@
       <c r="D31" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="E31" s="68"/>
-      <c r="F31" s="63"/>
+      <c r="E31" s="61"/>
+      <c r="F31" s="62"/>
       <c r="G31" s="11" t="s">
         <v>212</v>
       </c>
@@ -13242,8 +13242,8 @@
       <c r="D32" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="E32" s="68"/>
-      <c r="F32" s="64"/>
+      <c r="E32" s="61"/>
+      <c r="F32" s="63"/>
       <c r="G32" s="11" t="s">
         <v>215</v>
       </c>
@@ -13269,8 +13269,8 @@
       <c r="D33" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="E33" s="68"/>
-      <c r="F33" s="64"/>
+      <c r="E33" s="61"/>
+      <c r="F33" s="63"/>
       <c r="G33" s="11" t="s">
         <v>216</v>
       </c>
@@ -13296,8 +13296,8 @@
       <c r="D34" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="E34" s="68"/>
-      <c r="F34" s="64"/>
+      <c r="E34" s="61"/>
+      <c r="F34" s="63"/>
       <c r="G34" s="11" t="s">
         <v>217</v>
       </c>
@@ -13323,8 +13323,8 @@
       <c r="D35" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="E35" s="68"/>
-      <c r="F35" s="64"/>
+      <c r="E35" s="61"/>
+      <c r="F35" s="63"/>
       <c r="G35" s="11" t="s">
         <v>218</v>
       </c>
@@ -13350,8 +13350,8 @@
       <c r="D36" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="E36" s="68"/>
-      <c r="F36" s="64"/>
+      <c r="E36" s="61"/>
+      <c r="F36" s="63"/>
       <c r="G36" s="11" t="s">
         <v>225</v>
       </c>
@@ -13377,8 +13377,8 @@
       <c r="D37" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="E37" s="68"/>
-      <c r="F37" s="64"/>
+      <c r="E37" s="61"/>
+      <c r="F37" s="63"/>
       <c r="G37" s="11" t="s">
         <v>226</v>
       </c>
@@ -13404,8 +13404,8 @@
       <c r="D38" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="E38" s="68"/>
-      <c r="F38" s="64"/>
+      <c r="E38" s="61"/>
+      <c r="F38" s="63"/>
       <c r="G38" s="11" t="s">
         <v>227</v>
       </c>
@@ -13431,8 +13431,8 @@
       <c r="D39" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="E39" s="68"/>
-      <c r="F39" s="64"/>
+      <c r="E39" s="61"/>
+      <c r="F39" s="63"/>
       <c r="G39" s="11" t="s">
         <v>222</v>
       </c>
@@ -13458,8 +13458,8 @@
       <c r="D40" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="E40" s="68"/>
-      <c r="F40" s="64"/>
+      <c r="E40" s="61"/>
+      <c r="F40" s="63"/>
       <c r="G40" s="11" t="s">
         <v>223</v>
       </c>
@@ -13485,8 +13485,8 @@
       <c r="D41" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="E41" s="68"/>
-      <c r="F41" s="64"/>
+      <c r="E41" s="61"/>
+      <c r="F41" s="63"/>
       <c r="G41" s="11" t="s">
         <v>224</v>
       </c>
@@ -13512,8 +13512,8 @@
       <c r="D42" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="E42" s="68"/>
-      <c r="F42" s="64"/>
+      <c r="E42" s="61"/>
+      <c r="F42" s="63"/>
       <c r="G42" s="11" t="s">
         <v>219</v>
       </c>
@@ -13539,8 +13539,8 @@
       <c r="D43" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="E43" s="68"/>
-      <c r="F43" s="64"/>
+      <c r="E43" s="61"/>
+      <c r="F43" s="63"/>
       <c r="G43" s="11" t="s">
         <v>220</v>
       </c>
@@ -13566,8 +13566,8 @@
       <c r="D44" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="E44" s="68"/>
-      <c r="F44" s="64"/>
+      <c r="E44" s="61"/>
+      <c r="F44" s="63"/>
       <c r="G44" s="11" t="s">
         <v>221</v>
       </c>
@@ -13593,7 +13593,7 @@
       <c r="D45" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="E45" s="63"/>
+      <c r="E45" s="62"/>
       <c r="F45" s="73" t="s">
         <v>240</v>
       </c>
@@ -13649,7 +13649,7 @@
       <c r="D47" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="E47" s="68"/>
+      <c r="E47" s="61"/>
       <c r="F47" s="73" t="s">
         <v>47</v>
       </c>
@@ -13676,7 +13676,7 @@
       <c r="D48" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="E48" s="68"/>
+      <c r="E48" s="61"/>
       <c r="F48" s="73" t="s">
         <v>50</v>
       </c>
@@ -13703,7 +13703,7 @@
       <c r="D49" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="E49" s="68"/>
+      <c r="E49" s="61"/>
       <c r="F49" s="73" t="s">
         <v>244</v>
       </c>
@@ -13730,7 +13730,7 @@
       <c r="D50" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="E50" s="68"/>
+      <c r="E50" s="61"/>
       <c r="F50" s="73" t="s">
         <v>245</v>
       </c>
@@ -13757,7 +13757,7 @@
       <c r="D51" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="E51" s="68"/>
+      <c r="E51" s="61"/>
       <c r="F51" s="73" t="s">
         <v>246</v>
       </c>
@@ -13784,7 +13784,7 @@
       <c r="D52" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="E52" s="68"/>
+      <c r="E52" s="61"/>
       <c r="F52" s="73" t="s">
         <v>247</v>
       </c>
@@ -13811,7 +13811,7 @@
       <c r="D53" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="E53" s="68"/>
+      <c r="E53" s="61"/>
       <c r="F53" s="74" t="s">
         <v>51</v>
       </c>
@@ -13838,8 +13838,8 @@
       <c r="D54" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="E54" s="68"/>
-      <c r="F54" s="68"/>
+      <c r="E54" s="61"/>
+      <c r="F54" s="61"/>
       <c r="G54" s="21" t="s">
         <v>248</v>
       </c>
@@ -13865,8 +13865,8 @@
       <c r="D55" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="E55" s="68"/>
-      <c r="F55" s="68"/>
+      <c r="E55" s="61"/>
+      <c r="F55" s="61"/>
       <c r="G55" s="8" t="s">
         <v>250</v>
       </c>
@@ -13894,8 +13894,8 @@
       <c r="D56" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="E56" s="68"/>
-      <c r="F56" s="68"/>
+      <c r="E56" s="61"/>
+      <c r="F56" s="61"/>
       <c r="G56" s="8" t="s">
         <v>251</v>
       </c>
@@ -13923,8 +13923,8 @@
       <c r="D57" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="E57" s="68"/>
-      <c r="F57" s="63"/>
+      <c r="E57" s="61"/>
+      <c r="F57" s="62"/>
       <c r="G57" s="8" t="s">
         <v>252</v>
       </c>
@@ -13952,7 +13952,7 @@
       <c r="D58" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="E58" s="68"/>
+      <c r="E58" s="61"/>
       <c r="F58" s="73" t="s">
         <v>253</v>
       </c>
@@ -13979,7 +13979,7 @@
       <c r="D59" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="E59" s="68"/>
+      <c r="E59" s="61"/>
       <c r="F59" s="73" t="s">
         <v>254</v>
       </c>
@@ -14006,7 +14006,7 @@
       <c r="D60" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="E60" s="68"/>
+      <c r="E60" s="61"/>
       <c r="F60" s="73" t="s">
         <v>255</v>
       </c>
@@ -14033,7 +14033,7 @@
       <c r="D61" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="E61" s="68"/>
+      <c r="E61" s="61"/>
       <c r="F61" s="73" t="s">
         <v>256</v>
       </c>
@@ -14060,7 +14060,7 @@
       <c r="D62" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="E62" s="68"/>
+      <c r="E62" s="61"/>
       <c r="F62" s="73" t="s">
         <v>257</v>
       </c>
@@ -14087,7 +14087,7 @@
       <c r="D63" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="E63" s="68"/>
+      <c r="E63" s="61"/>
       <c r="F63" s="73" t="s">
         <v>258</v>
       </c>
@@ -14114,7 +14114,7 @@
       <c r="D64" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="E64" s="63"/>
+      <c r="E64" s="62"/>
       <c r="F64" s="73" t="s">
         <v>259</v>
       </c>
@@ -14141,11 +14141,11 @@
       <c r="D65" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="E65" s="60" t="s">
+      <c r="E65" s="57" t="s">
         <v>263</v>
       </c>
-      <c r="F65" s="61"/>
-      <c r="G65" s="62"/>
+      <c r="F65" s="58"/>
+      <c r="G65" s="59"/>
       <c r="H65" s="2" t="s">
         <v>136</v>
       </c>
@@ -14168,11 +14168,11 @@
       <c r="D66" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="E66" s="60" t="s">
+      <c r="E66" s="57" t="s">
         <v>264</v>
       </c>
-      <c r="F66" s="61"/>
-      <c r="G66" s="62"/>
+      <c r="F66" s="58"/>
+      <c r="G66" s="59"/>
       <c r="H66" s="5" t="s">
         <v>285</v>
       </c>
@@ -14183,15 +14183,32 @@
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="E47:E64"/>
+    <mergeCell ref="E26:E45"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="F47:G47"/>
+    <mergeCell ref="F48:G48"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="F62:G62"/>
+    <mergeCell ref="F63:G63"/>
+    <mergeCell ref="F64:G64"/>
+    <mergeCell ref="F31:F44"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="F54:F57"/>
+    <mergeCell ref="F58:G58"/>
+    <mergeCell ref="F59:G59"/>
+    <mergeCell ref="F60:G60"/>
+    <mergeCell ref="F61:G61"/>
     <mergeCell ref="E18:G18"/>
     <mergeCell ref="E65:G65"/>
     <mergeCell ref="E66:G66"/>
@@ -14208,32 +14225,15 @@
     <mergeCell ref="F27:G27"/>
     <mergeCell ref="F28:G28"/>
     <mergeCell ref="F29:G29"/>
-    <mergeCell ref="F63:G63"/>
-    <mergeCell ref="F64:G64"/>
-    <mergeCell ref="F31:F44"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="F53:G53"/>
-    <mergeCell ref="F54:F57"/>
-    <mergeCell ref="F58:G58"/>
-    <mergeCell ref="F59:G59"/>
-    <mergeCell ref="F60:G60"/>
-    <mergeCell ref="F61:G61"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="E47:E64"/>
-    <mergeCell ref="E26:E45"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="F47:G47"/>
-    <mergeCell ref="F48:G48"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="F52:G52"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="F62:G62"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="E14:G14"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14245,7 +14245,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:L175"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A99" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="H114" sqref="H114"/>
     </sheetView>
@@ -14279,11 +14279,11 @@
       <c r="D2" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="E2" s="57" t="s">
+      <c r="E2" s="66" t="s">
         <v>33</v>
       </c>
-      <c r="F2" s="58"/>
-      <c r="G2" s="59"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="68"/>
       <c r="H2" s="6" t="s">
         <v>34</v>
       </c>
@@ -14317,14 +14317,14 @@
       <c r="E3" s="16" t="s">
         <v>452</v>
       </c>
-      <c r="F3" s="60" t="s">
+      <c r="F3" s="57" t="s">
         <v>453</v>
       </c>
-      <c r="G3" s="62"/>
+      <c r="G3" s="59"/>
       <c r="H3" s="2" t="s">
         <v>454</v>
       </c>
-      <c r="I3" s="79" t="b">
+      <c r="I3" s="82" t="b">
         <v>1</v>
       </c>
       <c r="J3" s="2"/>
@@ -14346,14 +14346,14 @@
         <v>456</v>
       </c>
       <c r="E4" s="38"/>
-      <c r="F4" s="60" t="s">
+      <c r="F4" s="57" t="s">
         <v>457</v>
       </c>
-      <c r="G4" s="62"/>
+      <c r="G4" s="59"/>
       <c r="H4" s="2" t="s">
         <v>458</v>
       </c>
-      <c r="I4" s="80"/>
+      <c r="I4" s="83"/>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
@@ -14375,10 +14375,10 @@
       <c r="E5" s="16" t="s">
         <v>449</v>
       </c>
-      <c r="F5" s="60" t="s">
+      <c r="F5" s="57" t="s">
         <v>128</v>
       </c>
-      <c r="G5" s="62"/>
+      <c r="G5" s="59"/>
       <c r="H5" s="2" t="s">
         <v>65</v>
       </c>
@@ -14403,11 +14403,11 @@
       <c r="D6" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E6" s="81"/>
-      <c r="F6" s="60" t="s">
+      <c r="E6" s="75"/>
+      <c r="F6" s="57" t="s">
         <v>129</v>
       </c>
-      <c r="G6" s="62"/>
+      <c r="G6" s="59"/>
       <c r="H6" s="2" t="s">
         <v>66</v>
       </c>
@@ -14432,11 +14432,11 @@
       <c r="D7" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E7" s="81"/>
-      <c r="F7" s="60" t="s">
+      <c r="E7" s="75"/>
+      <c r="F7" s="57" t="s">
         <v>130</v>
       </c>
-      <c r="G7" s="62"/>
+      <c r="G7" s="59"/>
       <c r="H7" s="2"/>
       <c r="I7" s="3" t="b">
         <v>1</v>
@@ -14459,11 +14459,11 @@
       <c r="D8" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E8" s="82"/>
-      <c r="F8" s="60" t="s">
+      <c r="E8" s="76"/>
+      <c r="F8" s="57" t="s">
         <v>131</v>
       </c>
-      <c r="G8" s="62"/>
+      <c r="G8" s="59"/>
       <c r="H8" s="2"/>
       <c r="I8" s="3" t="b">
         <v>1</v>
@@ -14486,11 +14486,11 @@
       <c r="D9" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="E9" s="60" t="s">
+      <c r="E9" s="57" t="s">
         <v>451</v>
       </c>
-      <c r="F9" s="61"/>
-      <c r="G9" s="62"/>
+      <c r="F9" s="58"/>
+      <c r="G9" s="59"/>
       <c r="H9" s="2" t="s">
         <v>292</v>
       </c>
@@ -14515,11 +14515,11 @@
       <c r="D10" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="E10" s="60" t="s">
+      <c r="E10" s="57" t="s">
         <v>531</v>
       </c>
-      <c r="F10" s="61"/>
-      <c r="G10" s="62"/>
+      <c r="F10" s="58"/>
+      <c r="G10" s="59"/>
       <c r="H10" s="5" t="s">
         <v>447</v>
       </c>
@@ -14542,11 +14542,11 @@
       <c r="D11" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="E11" s="60" t="s">
+      <c r="E11" s="57" t="s">
         <v>461</v>
       </c>
-      <c r="F11" s="61"/>
-      <c r="G11" s="62"/>
+      <c r="F11" s="58"/>
+      <c r="G11" s="59"/>
       <c r="H11" s="5" t="s">
         <v>460</v>
       </c>
@@ -14572,10 +14572,10 @@
       <c r="E12" s="16" t="s">
         <v>463</v>
       </c>
-      <c r="F12" s="60" t="s">
+      <c r="F12" s="57" t="s">
         <v>47</v>
       </c>
-      <c r="G12" s="62"/>
+      <c r="G12" s="59"/>
       <c r="H12" s="2" t="s">
         <v>178</v>
       </c>
@@ -14598,11 +14598,11 @@
       <c r="D13" s="2" t="s">
         <v>456</v>
       </c>
-      <c r="E13" s="81"/>
-      <c r="F13" s="60" t="s">
+      <c r="E13" s="75"/>
+      <c r="F13" s="57" t="s">
         <v>50</v>
       </c>
-      <c r="G13" s="62"/>
+      <c r="G13" s="59"/>
       <c r="H13" s="2" t="s">
         <v>178</v>
       </c>
@@ -14625,11 +14625,11 @@
       <c r="D14" s="2" t="s">
         <v>456</v>
       </c>
-      <c r="E14" s="81"/>
-      <c r="F14" s="60" t="s">
+      <c r="E14" s="75"/>
+      <c r="F14" s="57" t="s">
         <v>51</v>
       </c>
-      <c r="G14" s="62"/>
+      <c r="G14" s="59"/>
       <c r="H14" s="2" t="s">
         <v>178</v>
       </c>
@@ -14652,11 +14652,11 @@
       <c r="D15" s="2" t="s">
         <v>456</v>
       </c>
-      <c r="E15" s="81"/>
-      <c r="F15" s="60" t="s">
+      <c r="E15" s="75"/>
+      <c r="F15" s="57" t="s">
         <v>52</v>
       </c>
-      <c r="G15" s="62"/>
+      <c r="G15" s="59"/>
       <c r="H15" s="2" t="s">
         <v>178</v>
       </c>
@@ -14679,11 +14679,11 @@
       <c r="D16" s="2" t="s">
         <v>456</v>
       </c>
-      <c r="E16" s="81"/>
-      <c r="F16" s="60" t="s">
+      <c r="E16" s="75"/>
+      <c r="F16" s="57" t="s">
         <v>464</v>
       </c>
-      <c r="G16" s="62"/>
+      <c r="G16" s="59"/>
       <c r="H16" s="2" t="s">
         <v>178</v>
       </c>
@@ -14706,11 +14706,11 @@
       <c r="D17" s="2" t="s">
         <v>456</v>
       </c>
-      <c r="E17" s="81"/>
-      <c r="F17" s="60" t="s">
+      <c r="E17" s="75"/>
+      <c r="F17" s="57" t="s">
         <v>465</v>
       </c>
-      <c r="G17" s="62"/>
+      <c r="G17" s="59"/>
       <c r="H17" s="2" t="s">
         <v>178</v>
       </c>
@@ -14733,11 +14733,11 @@
       <c r="D18" s="2" t="s">
         <v>456</v>
       </c>
-      <c r="E18" s="81"/>
-      <c r="F18" s="60" t="s">
+      <c r="E18" s="75"/>
+      <c r="F18" s="57" t="s">
         <v>254</v>
       </c>
-      <c r="G18" s="62"/>
+      <c r="G18" s="59"/>
       <c r="H18" s="2" t="s">
         <v>178</v>
       </c>
@@ -14760,11 +14760,11 @@
       <c r="D19" s="2" t="s">
         <v>456</v>
       </c>
-      <c r="E19" s="81"/>
-      <c r="F19" s="60" t="s">
+      <c r="E19" s="75"/>
+      <c r="F19" s="57" t="s">
         <v>42</v>
       </c>
-      <c r="G19" s="62"/>
+      <c r="G19" s="59"/>
       <c r="H19" s="2" t="s">
         <v>178</v>
       </c>
@@ -14787,11 +14787,11 @@
       <c r="D20" s="2" t="s">
         <v>456</v>
       </c>
-      <c r="E20" s="81"/>
-      <c r="F20" s="60" t="s">
+      <c r="E20" s="75"/>
+      <c r="F20" s="57" t="s">
         <v>53</v>
       </c>
-      <c r="G20" s="62"/>
+      <c r="G20" s="59"/>
       <c r="H20" s="2" t="s">
         <v>178</v>
       </c>
@@ -14814,11 +14814,11 @@
       <c r="D21" s="2" t="s">
         <v>456</v>
       </c>
-      <c r="E21" s="82"/>
-      <c r="F21" s="60" t="s">
+      <c r="E21" s="76"/>
+      <c r="F21" s="57" t="s">
         <v>466</v>
       </c>
-      <c r="G21" s="62"/>
+      <c r="G21" s="59"/>
       <c r="H21" s="2" t="s">
         <v>178</v>
       </c>
@@ -14844,10 +14844,10 @@
       <c r="E22" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="F22" s="60" t="s">
+      <c r="F22" s="57" t="s">
         <v>490</v>
       </c>
-      <c r="G22" s="62"/>
+      <c r="G22" s="59"/>
       <c r="H22" s="2" t="s">
         <v>491</v>
       </c>
@@ -14870,11 +14870,11 @@
       <c r="D23" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="E23" s="68"/>
-      <c r="F23" s="60" t="s">
+      <c r="E23" s="61"/>
+      <c r="F23" s="57" t="s">
         <v>478</v>
       </c>
-      <c r="G23" s="62"/>
+      <c r="G23" s="59"/>
       <c r="H23" s="2" t="s">
         <v>477</v>
       </c>
@@ -14897,11 +14897,11 @@
       <c r="D24" s="2" t="s">
         <v>456</v>
       </c>
-      <c r="E24" s="68"/>
-      <c r="F24" s="60" t="s">
+      <c r="E24" s="61"/>
+      <c r="F24" s="57" t="s">
         <v>480</v>
       </c>
-      <c r="G24" s="62"/>
+      <c r="G24" s="59"/>
       <c r="H24" s="2" t="s">
         <v>178</v>
       </c>
@@ -14924,7 +14924,7 @@
       <c r="D25" s="2" t="s">
         <v>456</v>
       </c>
-      <c r="E25" s="68"/>
+      <c r="E25" s="61"/>
       <c r="F25" s="20" t="s">
         <v>59</v>
       </c>
@@ -14951,7 +14951,7 @@
       <c r="D26" s="2" t="s">
         <v>456</v>
       </c>
-      <c r="E26" s="68"/>
+      <c r="E26" s="61"/>
       <c r="F26" s="33"/>
       <c r="G26" s="15" t="s">
         <v>482</v>
@@ -14976,7 +14976,7 @@
       <c r="D27" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="E27" s="68"/>
+      <c r="E27" s="61"/>
       <c r="F27" s="20" t="s">
         <v>67</v>
       </c>
@@ -15005,8 +15005,8 @@
       <c r="D28" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="E28" s="68"/>
-      <c r="F28" s="63"/>
+      <c r="E28" s="61"/>
+      <c r="F28" s="62"/>
       <c r="G28" s="15" t="s">
         <v>484</v>
       </c>
@@ -15032,8 +15032,8 @@
       <c r="D29" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="E29" s="68"/>
-      <c r="F29" s="64"/>
+      <c r="E29" s="61"/>
+      <c r="F29" s="63"/>
       <c r="G29" s="15" t="s">
         <v>485</v>
       </c>
@@ -15059,8 +15059,8 @@
       <c r="D30" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="E30" s="68"/>
-      <c r="F30" s="64"/>
+      <c r="E30" s="61"/>
+      <c r="F30" s="63"/>
       <c r="G30" s="15" t="s">
         <v>486</v>
       </c>
@@ -15086,8 +15086,8 @@
       <c r="D31" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="E31" s="68"/>
-      <c r="F31" s="64"/>
+      <c r="E31" s="61"/>
+      <c r="F31" s="63"/>
       <c r="G31" s="15" t="s">
         <v>487</v>
       </c>
@@ -15113,8 +15113,8 @@
       <c r="D32" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="E32" s="68"/>
-      <c r="F32" s="64"/>
+      <c r="E32" s="61"/>
+      <c r="F32" s="63"/>
       <c r="G32" s="15" t="s">
         <v>488</v>
       </c>
@@ -15140,11 +15140,11 @@
       <c r="D33" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="E33" s="63"/>
-      <c r="F33" s="60" t="s">
+      <c r="E33" s="62"/>
+      <c r="F33" s="57" t="s">
         <v>70</v>
       </c>
-      <c r="G33" s="62"/>
+      <c r="G33" s="59"/>
       <c r="H33" s="2" t="s">
         <v>43</v>
       </c>
@@ -15170,10 +15170,10 @@
       <c r="E34" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="F34" s="60" t="s">
+      <c r="F34" s="57" t="s">
         <v>529</v>
       </c>
-      <c r="G34" s="62"/>
+      <c r="G34" s="59"/>
       <c r="H34" s="2" t="s">
         <v>492</v>
       </c>
@@ -15196,11 +15196,11 @@
       <c r="D35" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="E35" s="68"/>
-      <c r="F35" s="60" t="s">
+      <c r="E35" s="61"/>
+      <c r="F35" s="57" t="s">
         <v>530</v>
       </c>
-      <c r="G35" s="62"/>
+      <c r="G35" s="59"/>
       <c r="H35" s="2" t="s">
         <v>493</v>
       </c>
@@ -15223,11 +15223,11 @@
       <c r="D36" s="2" t="s">
         <v>456</v>
       </c>
-      <c r="E36" s="68"/>
-      <c r="F36" s="60" t="s">
+      <c r="E36" s="61"/>
+      <c r="F36" s="57" t="s">
         <v>480</v>
       </c>
-      <c r="G36" s="62"/>
+      <c r="G36" s="59"/>
       <c r="H36" s="2" t="s">
         <v>178</v>
       </c>
@@ -15250,7 +15250,7 @@
       <c r="D37" s="2" t="s">
         <v>456</v>
       </c>
-      <c r="E37" s="68"/>
+      <c r="E37" s="61"/>
       <c r="F37" s="20" t="s">
         <v>59</v>
       </c>
@@ -15277,7 +15277,7 @@
       <c r="D38" s="2" t="s">
         <v>456</v>
       </c>
-      <c r="E38" s="68"/>
+      <c r="E38" s="61"/>
       <c r="F38" s="33"/>
       <c r="G38" s="15" t="s">
         <v>482</v>
@@ -15302,7 +15302,7 @@
       <c r="D39" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="E39" s="68"/>
+      <c r="E39" s="61"/>
       <c r="F39" s="20" t="s">
         <v>67</v>
       </c>
@@ -15331,8 +15331,8 @@
       <c r="D40" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="E40" s="68"/>
-      <c r="F40" s="63"/>
+      <c r="E40" s="61"/>
+      <c r="F40" s="62"/>
       <c r="G40" s="15" t="s">
         <v>484</v>
       </c>
@@ -15358,8 +15358,8 @@
       <c r="D41" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="E41" s="68"/>
-      <c r="F41" s="64"/>
+      <c r="E41" s="61"/>
+      <c r="F41" s="63"/>
       <c r="G41" s="15" t="s">
         <v>485</v>
       </c>
@@ -15385,8 +15385,8 @@
       <c r="D42" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="E42" s="68"/>
-      <c r="F42" s="64"/>
+      <c r="E42" s="61"/>
+      <c r="F42" s="63"/>
       <c r="G42" s="15" t="s">
         <v>486</v>
       </c>
@@ -15412,8 +15412,8 @@
       <c r="D43" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="E43" s="68"/>
-      <c r="F43" s="64"/>
+      <c r="E43" s="61"/>
+      <c r="F43" s="63"/>
       <c r="G43" s="15" t="s">
         <v>487</v>
       </c>
@@ -15439,8 +15439,8 @@
       <c r="D44" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="E44" s="68"/>
-      <c r="F44" s="64"/>
+      <c r="E44" s="61"/>
+      <c r="F44" s="63"/>
       <c r="G44" s="15" t="s">
         <v>488</v>
       </c>
@@ -15466,11 +15466,11 @@
       <c r="D45" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="E45" s="63"/>
-      <c r="F45" s="60" t="s">
+      <c r="E45" s="62"/>
+      <c r="F45" s="57" t="s">
         <v>70</v>
       </c>
-      <c r="G45" s="62"/>
+      <c r="G45" s="59"/>
       <c r="H45" s="2" t="s">
         <v>43</v>
       </c>
@@ -15496,10 +15496,10 @@
       <c r="E46" s="39" t="s">
         <v>525</v>
       </c>
-      <c r="F46" s="75" t="s">
+      <c r="F46" s="79" t="s">
         <v>529</v>
       </c>
-      <c r="G46" s="76"/>
+      <c r="G46" s="80"/>
       <c r="H46" s="30" t="s">
         <v>513</v>
       </c>
@@ -15522,11 +15522,11 @@
       <c r="D47" s="30" t="s">
         <v>444</v>
       </c>
-      <c r="E47" s="83"/>
-      <c r="F47" s="75" t="s">
+      <c r="E47" s="77"/>
+      <c r="F47" s="79" t="s">
         <v>530</v>
       </c>
-      <c r="G47" s="76"/>
+      <c r="G47" s="80"/>
       <c r="H47" s="30" t="s">
         <v>512</v>
       </c>
@@ -15549,11 +15549,11 @@
       <c r="D48" s="30" t="s">
         <v>456</v>
       </c>
-      <c r="E48" s="83"/>
-      <c r="F48" s="75" t="s">
+      <c r="E48" s="77"/>
+      <c r="F48" s="79" t="s">
         <v>480</v>
       </c>
-      <c r="G48" s="76"/>
+      <c r="G48" s="80"/>
       <c r="H48" s="30" t="s">
         <v>178</v>
       </c>
@@ -15576,7 +15576,7 @@
       <c r="D49" s="30" t="s">
         <v>456</v>
       </c>
-      <c r="E49" s="83"/>
+      <c r="E49" s="77"/>
       <c r="F49" s="34" t="s">
         <v>59</v>
       </c>
@@ -15603,7 +15603,7 @@
       <c r="D50" s="30" t="s">
         <v>456</v>
       </c>
-      <c r="E50" s="83"/>
+      <c r="E50" s="77"/>
       <c r="F50" s="36"/>
       <c r="G50" s="35" t="s">
         <v>482</v>
@@ -15628,7 +15628,7 @@
       <c r="D51" s="30" t="s">
         <v>444</v>
       </c>
-      <c r="E51" s="83"/>
+      <c r="E51" s="77"/>
       <c r="F51" s="34" t="s">
         <v>67</v>
       </c>
@@ -15657,8 +15657,8 @@
       <c r="D52" s="30" t="s">
         <v>444</v>
       </c>
-      <c r="E52" s="83"/>
-      <c r="F52" s="77"/>
+      <c r="E52" s="77"/>
+      <c r="F52" s="78"/>
       <c r="G52" s="35" t="s">
         <v>484</v>
       </c>
@@ -15684,8 +15684,8 @@
       <c r="D53" s="30" t="s">
         <v>444</v>
       </c>
-      <c r="E53" s="83"/>
-      <c r="F53" s="78"/>
+      <c r="E53" s="77"/>
+      <c r="F53" s="81"/>
       <c r="G53" s="35" t="s">
         <v>485</v>
       </c>
@@ -15711,8 +15711,8 @@
       <c r="D54" s="30" t="s">
         <v>444</v>
       </c>
-      <c r="E54" s="83"/>
-      <c r="F54" s="78"/>
+      <c r="E54" s="77"/>
+      <c r="F54" s="81"/>
       <c r="G54" s="35" t="s">
         <v>486</v>
       </c>
@@ -15738,8 +15738,8 @@
       <c r="D55" s="30" t="s">
         <v>444</v>
       </c>
-      <c r="E55" s="83"/>
-      <c r="F55" s="78"/>
+      <c r="E55" s="77"/>
+      <c r="F55" s="81"/>
       <c r="G55" s="35" t="s">
         <v>487</v>
       </c>
@@ -15765,8 +15765,8 @@
       <c r="D56" s="30" t="s">
         <v>444</v>
       </c>
-      <c r="E56" s="83"/>
-      <c r="F56" s="78"/>
+      <c r="E56" s="77"/>
+      <c r="F56" s="81"/>
       <c r="G56" s="35" t="s">
         <v>488</v>
       </c>
@@ -15792,11 +15792,11 @@
       <c r="D57" s="30" t="s">
         <v>444</v>
       </c>
-      <c r="E57" s="77"/>
-      <c r="F57" s="75" t="s">
+      <c r="E57" s="78"/>
+      <c r="F57" s="79" t="s">
         <v>70</v>
       </c>
-      <c r="G57" s="76"/>
+      <c r="G57" s="80"/>
       <c r="H57" s="30" t="s">
         <v>43</v>
       </c>
@@ -15822,10 +15822,10 @@
       <c r="E58" s="39" t="s">
         <v>526</v>
       </c>
-      <c r="F58" s="75" t="s">
+      <c r="F58" s="79" t="s">
         <v>529</v>
       </c>
-      <c r="G58" s="76"/>
+      <c r="G58" s="80"/>
       <c r="H58" s="30" t="s">
         <v>511</v>
       </c>
@@ -15848,11 +15848,11 @@
       <c r="D59" s="30" t="s">
         <v>444</v>
       </c>
-      <c r="E59" s="83"/>
-      <c r="F59" s="75" t="s">
+      <c r="E59" s="77"/>
+      <c r="F59" s="79" t="s">
         <v>530</v>
       </c>
-      <c r="G59" s="76"/>
+      <c r="G59" s="80"/>
       <c r="H59" s="30" t="s">
         <v>510</v>
       </c>
@@ -15875,11 +15875,11 @@
       <c r="D60" s="30" t="s">
         <v>456</v>
       </c>
-      <c r="E60" s="83"/>
-      <c r="F60" s="75" t="s">
+      <c r="E60" s="77"/>
+      <c r="F60" s="79" t="s">
         <v>480</v>
       </c>
-      <c r="G60" s="76"/>
+      <c r="G60" s="80"/>
       <c r="H60" s="30" t="s">
         <v>178</v>
       </c>
@@ -15902,7 +15902,7 @@
       <c r="D61" s="30" t="s">
         <v>456</v>
       </c>
-      <c r="E61" s="83"/>
+      <c r="E61" s="77"/>
       <c r="F61" s="34" t="s">
         <v>59</v>
       </c>
@@ -15929,7 +15929,7 @@
       <c r="D62" s="30" t="s">
         <v>456</v>
       </c>
-      <c r="E62" s="83"/>
+      <c r="E62" s="77"/>
       <c r="F62" s="36"/>
       <c r="G62" s="35" t="s">
         <v>482</v>
@@ -15954,7 +15954,7 @@
       <c r="D63" s="30" t="s">
         <v>444</v>
       </c>
-      <c r="E63" s="83"/>
+      <c r="E63" s="77"/>
       <c r="F63" s="34" t="s">
         <v>67</v>
       </c>
@@ -15983,8 +15983,8 @@
       <c r="D64" s="30" t="s">
         <v>444</v>
       </c>
-      <c r="E64" s="83"/>
-      <c r="F64" s="77"/>
+      <c r="E64" s="77"/>
+      <c r="F64" s="78"/>
       <c r="G64" s="35" t="s">
         <v>484</v>
       </c>
@@ -16010,8 +16010,8 @@
       <c r="D65" s="30" t="s">
         <v>444</v>
       </c>
-      <c r="E65" s="83"/>
-      <c r="F65" s="78"/>
+      <c r="E65" s="77"/>
+      <c r="F65" s="81"/>
       <c r="G65" s="35" t="s">
         <v>485</v>
       </c>
@@ -16037,8 +16037,8 @@
       <c r="D66" s="30" t="s">
         <v>444</v>
       </c>
-      <c r="E66" s="83"/>
-      <c r="F66" s="78"/>
+      <c r="E66" s="77"/>
+      <c r="F66" s="81"/>
       <c r="G66" s="35" t="s">
         <v>486</v>
       </c>
@@ -16064,8 +16064,8 @@
       <c r="D67" s="30" t="s">
         <v>444</v>
       </c>
-      <c r="E67" s="83"/>
-      <c r="F67" s="78"/>
+      <c r="E67" s="77"/>
+      <c r="F67" s="81"/>
       <c r="G67" s="35" t="s">
         <v>487</v>
       </c>
@@ -16091,8 +16091,8 @@
       <c r="D68" s="30" t="s">
         <v>444</v>
       </c>
-      <c r="E68" s="83"/>
-      <c r="F68" s="78"/>
+      <c r="E68" s="77"/>
+      <c r="F68" s="81"/>
       <c r="G68" s="35" t="s">
         <v>488</v>
       </c>
@@ -16118,11 +16118,11 @@
       <c r="D69" s="30" t="s">
         <v>444</v>
       </c>
-      <c r="E69" s="77"/>
-      <c r="F69" s="75" t="s">
+      <c r="E69" s="78"/>
+      <c r="F69" s="79" t="s">
         <v>70</v>
       </c>
-      <c r="G69" s="76"/>
+      <c r="G69" s="80"/>
       <c r="H69" s="30" t="s">
         <v>43</v>
       </c>
@@ -16148,10 +16148,10 @@
       <c r="E70" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="F70" s="60" t="s">
+      <c r="F70" s="57" t="s">
         <v>529</v>
       </c>
-      <c r="G70" s="62"/>
+      <c r="G70" s="59"/>
       <c r="H70" s="2" t="s">
         <v>508</v>
       </c>
@@ -16174,11 +16174,11 @@
       <c r="D71" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="E71" s="68"/>
-      <c r="F71" s="60" t="s">
+      <c r="E71" s="61"/>
+      <c r="F71" s="57" t="s">
         <v>530</v>
       </c>
-      <c r="G71" s="62"/>
+      <c r="G71" s="59"/>
       <c r="H71" s="2" t="s">
         <v>509</v>
       </c>
@@ -16201,11 +16201,11 @@
       <c r="D72" s="2" t="s">
         <v>456</v>
       </c>
-      <c r="E72" s="68"/>
-      <c r="F72" s="60" t="s">
+      <c r="E72" s="61"/>
+      <c r="F72" s="57" t="s">
         <v>480</v>
       </c>
-      <c r="G72" s="62"/>
+      <c r="G72" s="59"/>
       <c r="H72" s="2" t="s">
         <v>178</v>
       </c>
@@ -16228,7 +16228,7 @@
       <c r="D73" s="2" t="s">
         <v>456</v>
       </c>
-      <c r="E73" s="68"/>
+      <c r="E73" s="61"/>
       <c r="F73" s="20" t="s">
         <v>59</v>
       </c>
@@ -16255,7 +16255,7 @@
       <c r="D74" s="2" t="s">
         <v>456</v>
       </c>
-      <c r="E74" s="68"/>
+      <c r="E74" s="61"/>
       <c r="F74" s="33"/>
       <c r="G74" s="15" t="s">
         <v>482</v>
@@ -16280,7 +16280,7 @@
       <c r="D75" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="E75" s="68"/>
+      <c r="E75" s="61"/>
       <c r="F75" s="20" t="s">
         <v>67</v>
       </c>
@@ -16309,8 +16309,8 @@
       <c r="D76" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="E76" s="68"/>
-      <c r="F76" s="63"/>
+      <c r="E76" s="61"/>
+      <c r="F76" s="62"/>
       <c r="G76" s="15" t="s">
         <v>484</v>
       </c>
@@ -16336,8 +16336,8 @@
       <c r="D77" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="E77" s="68"/>
-      <c r="F77" s="64"/>
+      <c r="E77" s="61"/>
+      <c r="F77" s="63"/>
       <c r="G77" s="15" t="s">
         <v>485</v>
       </c>
@@ -16363,8 +16363,8 @@
       <c r="D78" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="E78" s="68"/>
-      <c r="F78" s="64"/>
+      <c r="E78" s="61"/>
+      <c r="F78" s="63"/>
       <c r="G78" s="15" t="s">
         <v>486</v>
       </c>
@@ -16390,8 +16390,8 @@
       <c r="D79" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="E79" s="68"/>
-      <c r="F79" s="64"/>
+      <c r="E79" s="61"/>
+      <c r="F79" s="63"/>
       <c r="G79" s="15" t="s">
         <v>487</v>
       </c>
@@ -16417,8 +16417,8 @@
       <c r="D80" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="E80" s="68"/>
-      <c r="F80" s="64"/>
+      <c r="E80" s="61"/>
+      <c r="F80" s="63"/>
       <c r="G80" s="15" t="s">
         <v>488</v>
       </c>
@@ -16444,11 +16444,11 @@
       <c r="D81" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="E81" s="63"/>
-      <c r="F81" s="60" t="s">
+      <c r="E81" s="62"/>
+      <c r="F81" s="57" t="s">
         <v>70</v>
       </c>
-      <c r="G81" s="62"/>
+      <c r="G81" s="59"/>
       <c r="H81" s="2" t="s">
         <v>43</v>
       </c>
@@ -16474,10 +16474,10 @@
       <c r="E82" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="F82" s="60" t="s">
+      <c r="F82" s="57" t="s">
         <v>529</v>
       </c>
-      <c r="G82" s="62"/>
+      <c r="G82" s="59"/>
       <c r="H82" s="2" t="s">
         <v>506</v>
       </c>
@@ -16500,11 +16500,11 @@
       <c r="D83" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="E83" s="68"/>
-      <c r="F83" s="60" t="s">
+      <c r="E83" s="61"/>
+      <c r="F83" s="57" t="s">
         <v>530</v>
       </c>
-      <c r="G83" s="62"/>
+      <c r="G83" s="59"/>
       <c r="H83" s="2" t="s">
         <v>507</v>
       </c>
@@ -16527,11 +16527,11 @@
       <c r="D84" s="2" t="s">
         <v>456</v>
       </c>
-      <c r="E84" s="68"/>
-      <c r="F84" s="60" t="s">
+      <c r="E84" s="61"/>
+      <c r="F84" s="57" t="s">
         <v>480</v>
       </c>
-      <c r="G84" s="62"/>
+      <c r="G84" s="59"/>
       <c r="H84" s="2" t="s">
         <v>178</v>
       </c>
@@ -16554,7 +16554,7 @@
       <c r="D85" s="2" t="s">
         <v>456</v>
       </c>
-      <c r="E85" s="68"/>
+      <c r="E85" s="61"/>
       <c r="F85" s="20" t="s">
         <v>59</v>
       </c>
@@ -16581,7 +16581,7 @@
       <c r="D86" s="2" t="s">
         <v>456</v>
       </c>
-      <c r="E86" s="68"/>
+      <c r="E86" s="61"/>
       <c r="F86" s="33"/>
       <c r="G86" s="15" t="s">
         <v>482</v>
@@ -16606,7 +16606,7 @@
       <c r="D87" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="E87" s="68"/>
+      <c r="E87" s="61"/>
       <c r="F87" s="20" t="s">
         <v>67</v>
       </c>
@@ -16635,8 +16635,8 @@
       <c r="D88" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="E88" s="68"/>
-      <c r="F88" s="63"/>
+      <c r="E88" s="61"/>
+      <c r="F88" s="62"/>
       <c r="G88" s="15" t="s">
         <v>484</v>
       </c>
@@ -16662,8 +16662,8 @@
       <c r="D89" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="E89" s="68"/>
-      <c r="F89" s="64"/>
+      <c r="E89" s="61"/>
+      <c r="F89" s="63"/>
       <c r="G89" s="15" t="s">
         <v>485</v>
       </c>
@@ -16689,8 +16689,8 @@
       <c r="D90" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="E90" s="68"/>
-      <c r="F90" s="64"/>
+      <c r="E90" s="61"/>
+      <c r="F90" s="63"/>
       <c r="G90" s="15" t="s">
         <v>486</v>
       </c>
@@ -16716,8 +16716,8 @@
       <c r="D91" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="E91" s="68"/>
-      <c r="F91" s="64"/>
+      <c r="E91" s="61"/>
+      <c r="F91" s="63"/>
       <c r="G91" s="15" t="s">
         <v>487</v>
       </c>
@@ -16743,8 +16743,8 @@
       <c r="D92" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="E92" s="68"/>
-      <c r="F92" s="64"/>
+      <c r="E92" s="61"/>
+      <c r="F92" s="63"/>
       <c r="G92" s="15" t="s">
         <v>488</v>
       </c>
@@ -16770,11 +16770,11 @@
       <c r="D93" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="E93" s="63"/>
-      <c r="F93" s="60" t="s">
+      <c r="E93" s="62"/>
+      <c r="F93" s="57" t="s">
         <v>70</v>
       </c>
-      <c r="G93" s="62"/>
+      <c r="G93" s="59"/>
       <c r="H93" s="2" t="s">
         <v>43</v>
       </c>
@@ -16800,10 +16800,10 @@
       <c r="E94" s="16" t="s">
         <v>464</v>
       </c>
-      <c r="F94" s="60" t="s">
+      <c r="F94" s="57" t="s">
         <v>529</v>
       </c>
-      <c r="G94" s="62"/>
+      <c r="G94" s="59"/>
       <c r="H94" s="2" t="s">
         <v>504</v>
       </c>
@@ -16826,11 +16826,11 @@
       <c r="D95" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="E95" s="68"/>
-      <c r="F95" s="60" t="s">
+      <c r="E95" s="61"/>
+      <c r="F95" s="57" t="s">
         <v>530</v>
       </c>
-      <c r="G95" s="62"/>
+      <c r="G95" s="59"/>
       <c r="H95" s="2" t="s">
         <v>505</v>
       </c>
@@ -16853,11 +16853,11 @@
       <c r="D96" s="2" t="s">
         <v>456</v>
       </c>
-      <c r="E96" s="68"/>
-      <c r="F96" s="60" t="s">
+      <c r="E96" s="61"/>
+      <c r="F96" s="57" t="s">
         <v>480</v>
       </c>
-      <c r="G96" s="62"/>
+      <c r="G96" s="59"/>
       <c r="H96" s="2" t="s">
         <v>178</v>
       </c>
@@ -16880,7 +16880,7 @@
       <c r="D97" s="2" t="s">
         <v>456</v>
       </c>
-      <c r="E97" s="68"/>
+      <c r="E97" s="61"/>
       <c r="F97" s="20" t="s">
         <v>59</v>
       </c>
@@ -16907,7 +16907,7 @@
       <c r="D98" s="2" t="s">
         <v>456</v>
       </c>
-      <c r="E98" s="68"/>
+      <c r="E98" s="61"/>
       <c r="F98" s="33"/>
       <c r="G98" s="15" t="s">
         <v>482</v>
@@ -16932,7 +16932,7 @@
       <c r="D99" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="E99" s="68"/>
+      <c r="E99" s="61"/>
       <c r="F99" s="20" t="s">
         <v>67</v>
       </c>
@@ -16961,8 +16961,8 @@
       <c r="D100" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="E100" s="68"/>
-      <c r="F100" s="63"/>
+      <c r="E100" s="61"/>
+      <c r="F100" s="62"/>
       <c r="G100" s="15" t="s">
         <v>484</v>
       </c>
@@ -16988,8 +16988,8 @@
       <c r="D101" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="E101" s="68"/>
-      <c r="F101" s="64"/>
+      <c r="E101" s="61"/>
+      <c r="F101" s="63"/>
       <c r="G101" s="15" t="s">
         <v>485</v>
       </c>
@@ -17015,8 +17015,8 @@
       <c r="D102" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="E102" s="68"/>
-      <c r="F102" s="64"/>
+      <c r="E102" s="61"/>
+      <c r="F102" s="63"/>
       <c r="G102" s="15" t="s">
         <v>486</v>
       </c>
@@ -17042,8 +17042,8 @@
       <c r="D103" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="E103" s="68"/>
-      <c r="F103" s="64"/>
+      <c r="E103" s="61"/>
+      <c r="F103" s="63"/>
       <c r="G103" s="15" t="s">
         <v>487</v>
       </c>
@@ -17069,8 +17069,8 @@
       <c r="D104" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="E104" s="68"/>
-      <c r="F104" s="64"/>
+      <c r="E104" s="61"/>
+      <c r="F104" s="63"/>
       <c r="G104" s="15" t="s">
         <v>488</v>
       </c>
@@ -17096,11 +17096,11 @@
       <c r="D105" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="E105" s="63"/>
-      <c r="F105" s="60" t="s">
+      <c r="E105" s="62"/>
+      <c r="F105" s="57" t="s">
         <v>70</v>
       </c>
-      <c r="G105" s="62"/>
+      <c r="G105" s="59"/>
       <c r="H105" s="2" t="s">
         <v>43</v>
       </c>
@@ -17126,10 +17126,10 @@
       <c r="E106" s="16" t="s">
         <v>465</v>
       </c>
-      <c r="F106" s="60" t="s">
+      <c r="F106" s="57" t="s">
         <v>529</v>
       </c>
-      <c r="G106" s="62"/>
+      <c r="G106" s="59"/>
       <c r="H106" s="2" t="s">
         <v>502</v>
       </c>
@@ -17152,11 +17152,11 @@
       <c r="D107" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="E107" s="68"/>
-      <c r="F107" s="60" t="s">
+      <c r="E107" s="61"/>
+      <c r="F107" s="57" t="s">
         <v>530</v>
       </c>
-      <c r="G107" s="62"/>
+      <c r="G107" s="59"/>
       <c r="H107" s="2" t="s">
         <v>503</v>
       </c>
@@ -17179,11 +17179,11 @@
       <c r="D108" s="2" t="s">
         <v>456</v>
       </c>
-      <c r="E108" s="68"/>
-      <c r="F108" s="60" t="s">
+      <c r="E108" s="61"/>
+      <c r="F108" s="57" t="s">
         <v>480</v>
       </c>
-      <c r="G108" s="62"/>
+      <c r="G108" s="59"/>
       <c r="H108" s="2" t="s">
         <v>178</v>
       </c>
@@ -17206,7 +17206,7 @@
       <c r="D109" s="2" t="s">
         <v>456</v>
       </c>
-      <c r="E109" s="68"/>
+      <c r="E109" s="61"/>
       <c r="F109" s="20" t="s">
         <v>59</v>
       </c>
@@ -17233,7 +17233,7 @@
       <c r="D110" s="2" t="s">
         <v>456</v>
       </c>
-      <c r="E110" s="68"/>
+      <c r="E110" s="61"/>
       <c r="F110" s="33"/>
       <c r="G110" s="15" t="s">
         <v>482</v>
@@ -17258,7 +17258,7 @@
       <c r="D111" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="E111" s="68"/>
+      <c r="E111" s="61"/>
       <c r="F111" s="20" t="s">
         <v>67</v>
       </c>
@@ -17287,8 +17287,8 @@
       <c r="D112" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="E112" s="68"/>
-      <c r="F112" s="63"/>
+      <c r="E112" s="61"/>
+      <c r="F112" s="62"/>
       <c r="G112" s="15" t="s">
         <v>484</v>
       </c>
@@ -17314,8 +17314,8 @@
       <c r="D113" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="E113" s="68"/>
-      <c r="F113" s="64"/>
+      <c r="E113" s="61"/>
+      <c r="F113" s="63"/>
       <c r="G113" s="15" t="s">
         <v>485</v>
       </c>
@@ -17341,8 +17341,8 @@
       <c r="D114" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="E114" s="68"/>
-      <c r="F114" s="64"/>
+      <c r="E114" s="61"/>
+      <c r="F114" s="63"/>
       <c r="G114" s="15" t="s">
         <v>486</v>
       </c>
@@ -17368,8 +17368,8 @@
       <c r="D115" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="E115" s="68"/>
-      <c r="F115" s="64"/>
+      <c r="E115" s="61"/>
+      <c r="F115" s="63"/>
       <c r="G115" s="15" t="s">
         <v>487</v>
       </c>
@@ -17395,8 +17395,8 @@
       <c r="D116" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="E116" s="68"/>
-      <c r="F116" s="64"/>
+      <c r="E116" s="61"/>
+      <c r="F116" s="63"/>
       <c r="G116" s="15" t="s">
         <v>488</v>
       </c>
@@ -17422,11 +17422,11 @@
       <c r="D117" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="E117" s="63"/>
-      <c r="F117" s="60" t="s">
+      <c r="E117" s="62"/>
+      <c r="F117" s="57" t="s">
         <v>70</v>
       </c>
-      <c r="G117" s="62"/>
+      <c r="G117" s="59"/>
       <c r="H117" s="2" t="s">
         <v>43</v>
       </c>
@@ -17452,10 +17452,10 @@
       <c r="E118" s="16" t="s">
         <v>254</v>
       </c>
-      <c r="F118" s="60" t="s">
+      <c r="F118" s="57" t="s">
         <v>490</v>
       </c>
-      <c r="G118" s="62"/>
+      <c r="G118" s="59"/>
       <c r="H118" s="2" t="s">
         <v>500</v>
       </c>
@@ -17478,11 +17478,11 @@
       <c r="D119" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="E119" s="68"/>
-      <c r="F119" s="60" t="s">
+      <c r="E119" s="61"/>
+      <c r="F119" s="57" t="s">
         <v>478</v>
       </c>
-      <c r="G119" s="62"/>
+      <c r="G119" s="59"/>
       <c r="H119" s="2" t="s">
         <v>501</v>
       </c>
@@ -17505,11 +17505,11 @@
       <c r="D120" s="2" t="s">
         <v>456</v>
       </c>
-      <c r="E120" s="68"/>
-      <c r="F120" s="60" t="s">
+      <c r="E120" s="61"/>
+      <c r="F120" s="57" t="s">
         <v>480</v>
       </c>
-      <c r="G120" s="62"/>
+      <c r="G120" s="59"/>
       <c r="H120" s="2" t="s">
         <v>178</v>
       </c>
@@ -17532,7 +17532,7 @@
       <c r="D121" s="2" t="s">
         <v>456</v>
       </c>
-      <c r="E121" s="68"/>
+      <c r="E121" s="61"/>
       <c r="F121" s="20" t="s">
         <v>59</v>
       </c>
@@ -17559,7 +17559,7 @@
       <c r="D122" s="2" t="s">
         <v>456</v>
       </c>
-      <c r="E122" s="68"/>
+      <c r="E122" s="61"/>
       <c r="F122" s="33"/>
       <c r="G122" s="15" t="s">
         <v>482</v>
@@ -17584,7 +17584,7 @@
       <c r="D123" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="E123" s="68"/>
+      <c r="E123" s="61"/>
       <c r="F123" s="20" t="s">
         <v>67</v>
       </c>
@@ -17613,8 +17613,8 @@
       <c r="D124" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="E124" s="68"/>
-      <c r="F124" s="63"/>
+      <c r="E124" s="61"/>
+      <c r="F124" s="62"/>
       <c r="G124" s="15" t="s">
         <v>484</v>
       </c>
@@ -17640,8 +17640,8 @@
       <c r="D125" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="E125" s="68"/>
-      <c r="F125" s="64"/>
+      <c r="E125" s="61"/>
+      <c r="F125" s="63"/>
       <c r="G125" s="15" t="s">
         <v>485</v>
       </c>
@@ -17667,8 +17667,8 @@
       <c r="D126" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="E126" s="68"/>
-      <c r="F126" s="64"/>
+      <c r="E126" s="61"/>
+      <c r="F126" s="63"/>
       <c r="G126" s="15" t="s">
         <v>486</v>
       </c>
@@ -17694,8 +17694,8 @@
       <c r="D127" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="E127" s="68"/>
-      <c r="F127" s="64"/>
+      <c r="E127" s="61"/>
+      <c r="F127" s="63"/>
       <c r="G127" s="15" t="s">
         <v>487</v>
       </c>
@@ -17721,8 +17721,8 @@
       <c r="D128" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="E128" s="68"/>
-      <c r="F128" s="64"/>
+      <c r="E128" s="61"/>
+      <c r="F128" s="63"/>
       <c r="G128" s="15" t="s">
         <v>488</v>
       </c>
@@ -17748,11 +17748,11 @@
       <c r="D129" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="E129" s="63"/>
-      <c r="F129" s="60" t="s">
+      <c r="E129" s="62"/>
+      <c r="F129" s="57" t="s">
         <v>70</v>
       </c>
-      <c r="G129" s="62"/>
+      <c r="G129" s="59"/>
       <c r="H129" s="2" t="s">
         <v>43</v>
       </c>
@@ -17778,10 +17778,10 @@
       <c r="E130" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="F130" s="61" t="s">
+      <c r="F130" s="58" t="s">
         <v>490</v>
       </c>
-      <c r="G130" s="62"/>
+      <c r="G130" s="59"/>
       <c r="H130" s="2" t="s">
         <v>57</v>
       </c>
@@ -17804,7 +17804,7 @@
       <c r="D131" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="E131" s="68"/>
+      <c r="E131" s="61"/>
       <c r="F131" s="73" t="s">
         <v>478</v>
       </c>
@@ -17831,7 +17831,7 @@
       <c r="D132" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="E132" s="68"/>
+      <c r="E132" s="61"/>
       <c r="F132" s="73" t="s">
         <v>527</v>
       </c>
@@ -17858,7 +17858,7 @@
       <c r="D133" s="2" t="s">
         <v>456</v>
       </c>
-      <c r="E133" s="68"/>
+      <c r="E133" s="61"/>
       <c r="F133" s="73" t="s">
         <v>528</v>
       </c>
@@ -17885,7 +17885,7 @@
       <c r="D134" s="2" t="s">
         <v>456</v>
       </c>
-      <c r="E134" s="68"/>
+      <c r="E134" s="61"/>
       <c r="F134" s="20" t="s">
         <v>59</v>
       </c>
@@ -17912,7 +17912,7 @@
       <c r="D135" s="2" t="s">
         <v>456</v>
       </c>
-      <c r="E135" s="68"/>
+      <c r="E135" s="61"/>
       <c r="F135" s="33"/>
       <c r="G135" s="15" t="s">
         <v>482</v>
@@ -17937,7 +17937,7 @@
       <c r="D136" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="E136" s="68"/>
+      <c r="E136" s="61"/>
       <c r="F136" s="20" t="s">
         <v>67</v>
       </c>
@@ -17966,8 +17966,8 @@
       <c r="D137" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="E137" s="68"/>
-      <c r="F137" s="63"/>
+      <c r="E137" s="61"/>
+      <c r="F137" s="62"/>
       <c r="G137" s="15" t="s">
         <v>484</v>
       </c>
@@ -17993,8 +17993,8 @@
       <c r="D138" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="E138" s="68"/>
-      <c r="F138" s="64"/>
+      <c r="E138" s="61"/>
+      <c r="F138" s="63"/>
       <c r="G138" s="15" t="s">
         <v>485</v>
       </c>
@@ -18020,8 +18020,8 @@
       <c r="D139" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="E139" s="68"/>
-      <c r="F139" s="64"/>
+      <c r="E139" s="61"/>
+      <c r="F139" s="63"/>
       <c r="G139" s="15" t="s">
         <v>486</v>
       </c>
@@ -18047,8 +18047,8 @@
       <c r="D140" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="E140" s="68"/>
-      <c r="F140" s="64"/>
+      <c r="E140" s="61"/>
+      <c r="F140" s="63"/>
       <c r="G140" s="15" t="s">
         <v>487</v>
       </c>
@@ -18074,8 +18074,8 @@
       <c r="D141" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="E141" s="68"/>
-      <c r="F141" s="64"/>
+      <c r="E141" s="61"/>
+      <c r="F141" s="63"/>
       <c r="G141" s="15" t="s">
         <v>488</v>
       </c>
@@ -18101,11 +18101,11 @@
       <c r="D142" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="E142" s="63"/>
-      <c r="F142" s="60" t="s">
+      <c r="E142" s="62"/>
+      <c r="F142" s="57" t="s">
         <v>70</v>
       </c>
-      <c r="G142" s="62"/>
+      <c r="G142" s="59"/>
       <c r="H142" s="2" t="s">
         <v>43</v>
       </c>
@@ -18131,10 +18131,10 @@
       <c r="E143" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="F143" s="61" t="s">
+      <c r="F143" s="58" t="s">
         <v>490</v>
       </c>
-      <c r="G143" s="62"/>
+      <c r="G143" s="59"/>
       <c r="H143" s="2" t="s">
         <v>498</v>
       </c>
@@ -18157,7 +18157,7 @@
       <c r="D144" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="E144" s="68"/>
+      <c r="E144" s="61"/>
       <c r="F144" s="73" t="s">
         <v>478</v>
       </c>
@@ -18184,7 +18184,7 @@
       <c r="D145" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="E145" s="68"/>
+      <c r="E145" s="61"/>
       <c r="F145" s="73" t="s">
         <v>527</v>
       </c>
@@ -18211,7 +18211,7 @@
       <c r="D146" s="2" t="s">
         <v>456</v>
       </c>
-      <c r="E146" s="68"/>
+      <c r="E146" s="61"/>
       <c r="F146" s="73" t="s">
         <v>528</v>
       </c>
@@ -18238,7 +18238,7 @@
       <c r="D147" s="2" t="s">
         <v>456</v>
       </c>
-      <c r="E147" s="68"/>
+      <c r="E147" s="61"/>
       <c r="F147" s="20" t="s">
         <v>59</v>
       </c>
@@ -18265,7 +18265,7 @@
       <c r="D148" s="2" t="s">
         <v>456</v>
       </c>
-      <c r="E148" s="68"/>
+      <c r="E148" s="61"/>
       <c r="F148" s="33"/>
       <c r="G148" s="15" t="s">
         <v>482</v>
@@ -18290,7 +18290,7 @@
       <c r="D149" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="E149" s="68"/>
+      <c r="E149" s="61"/>
       <c r="F149" s="20" t="s">
         <v>67</v>
       </c>
@@ -18319,8 +18319,8 @@
       <c r="D150" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="E150" s="68"/>
-      <c r="F150" s="63"/>
+      <c r="E150" s="61"/>
+      <c r="F150" s="62"/>
       <c r="G150" s="15" t="s">
         <v>484</v>
       </c>
@@ -18346,8 +18346,8 @@
       <c r="D151" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="E151" s="68"/>
-      <c r="F151" s="64"/>
+      <c r="E151" s="61"/>
+      <c r="F151" s="63"/>
       <c r="G151" s="15" t="s">
         <v>485</v>
       </c>
@@ -18373,8 +18373,8 @@
       <c r="D152" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="E152" s="68"/>
-      <c r="F152" s="64"/>
+      <c r="E152" s="61"/>
+      <c r="F152" s="63"/>
       <c r="G152" s="15" t="s">
         <v>486</v>
       </c>
@@ -18400,8 +18400,8 @@
       <c r="D153" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="E153" s="68"/>
-      <c r="F153" s="64"/>
+      <c r="E153" s="61"/>
+      <c r="F153" s="63"/>
       <c r="G153" s="15" t="s">
         <v>487</v>
       </c>
@@ -18427,8 +18427,8 @@
       <c r="D154" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="E154" s="68"/>
-      <c r="F154" s="64"/>
+      <c r="E154" s="61"/>
+      <c r="F154" s="63"/>
       <c r="G154" s="15" t="s">
         <v>488</v>
       </c>
@@ -18454,11 +18454,11 @@
       <c r="D155" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="E155" s="63"/>
-      <c r="F155" s="60" t="s">
+      <c r="E155" s="62"/>
+      <c r="F155" s="57" t="s">
         <v>70</v>
       </c>
-      <c r="G155" s="62"/>
+      <c r="G155" s="59"/>
       <c r="H155" s="2" t="s">
         <v>43</v>
       </c>
@@ -18484,10 +18484,10 @@
       <c r="E156" s="16" t="s">
         <v>466</v>
       </c>
-      <c r="F156" s="61" t="s">
+      <c r="F156" s="58" t="s">
         <v>490</v>
       </c>
-      <c r="G156" s="62"/>
+      <c r="G156" s="59"/>
       <c r="H156" s="2" t="s">
         <v>497</v>
       </c>
@@ -18510,7 +18510,7 @@
       <c r="D157" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="E157" s="68"/>
+      <c r="E157" s="61"/>
       <c r="F157" s="73" t="s">
         <v>478</v>
       </c>
@@ -18537,7 +18537,7 @@
       <c r="D158" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="E158" s="68"/>
+      <c r="E158" s="61"/>
       <c r="F158" s="73" t="s">
         <v>527</v>
       </c>
@@ -18564,7 +18564,7 @@
       <c r="D159" s="2" t="s">
         <v>456</v>
       </c>
-      <c r="E159" s="68"/>
+      <c r="E159" s="61"/>
       <c r="F159" s="73" t="s">
         <v>528</v>
       </c>
@@ -18591,7 +18591,7 @@
       <c r="D160" s="2" t="s">
         <v>456</v>
       </c>
-      <c r="E160" s="68"/>
+      <c r="E160" s="61"/>
       <c r="F160" s="20" t="s">
         <v>59</v>
       </c>
@@ -18618,7 +18618,7 @@
       <c r="D161" s="2" t="s">
         <v>456</v>
       </c>
-      <c r="E161" s="68"/>
+      <c r="E161" s="61"/>
       <c r="F161" s="33"/>
       <c r="G161" s="15" t="s">
         <v>482</v>
@@ -18643,7 +18643,7 @@
       <c r="D162" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="E162" s="68"/>
+      <c r="E162" s="61"/>
       <c r="F162" s="20" t="s">
         <v>67</v>
       </c>
@@ -18672,8 +18672,8 @@
       <c r="D163" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="E163" s="68"/>
-      <c r="F163" s="63"/>
+      <c r="E163" s="61"/>
+      <c r="F163" s="62"/>
       <c r="G163" s="15" t="s">
         <v>484</v>
       </c>
@@ -18699,8 +18699,8 @@
       <c r="D164" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="E164" s="68"/>
-      <c r="F164" s="64"/>
+      <c r="E164" s="61"/>
+      <c r="F164" s="63"/>
       <c r="G164" s="15" t="s">
         <v>485</v>
       </c>
@@ -18726,8 +18726,8 @@
       <c r="D165" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="E165" s="68"/>
-      <c r="F165" s="64"/>
+      <c r="E165" s="61"/>
+      <c r="F165" s="63"/>
       <c r="G165" s="15" t="s">
         <v>486</v>
       </c>
@@ -18753,8 +18753,8 @@
       <c r="D166" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="E166" s="68"/>
-      <c r="F166" s="64"/>
+      <c r="E166" s="61"/>
+      <c r="F166" s="63"/>
       <c r="G166" s="15" t="s">
         <v>487</v>
       </c>
@@ -18780,8 +18780,8 @@
       <c r="D167" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="E167" s="68"/>
-      <c r="F167" s="64"/>
+      <c r="E167" s="61"/>
+      <c r="F167" s="63"/>
       <c r="G167" s="15" t="s">
         <v>488</v>
       </c>
@@ -18807,11 +18807,11 @@
       <c r="D168" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="E168" s="63"/>
-      <c r="F168" s="60" t="s">
+      <c r="E168" s="62"/>
+      <c r="F168" s="57" t="s">
         <v>70</v>
       </c>
-      <c r="G168" s="62"/>
+      <c r="G168" s="59"/>
       <c r="H168" s="2" t="s">
         <v>43</v>
       </c>
@@ -18995,25 +18995,69 @@
     </row>
   </sheetData>
   <mergeCells count="98">
-    <mergeCell ref="E6:E8"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="E47:E57"/>
-    <mergeCell ref="F59:G59"/>
-    <mergeCell ref="F60:G60"/>
-    <mergeCell ref="F47:G47"/>
-    <mergeCell ref="F48:G48"/>
-    <mergeCell ref="E59:E69"/>
-    <mergeCell ref="F64:F68"/>
+    <mergeCell ref="F94:G94"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="F96:G96"/>
+    <mergeCell ref="F105:G105"/>
+    <mergeCell ref="F106:G106"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="F57:G57"/>
+    <mergeCell ref="F58:G58"/>
+    <mergeCell ref="F69:G69"/>
+    <mergeCell ref="F52:F56"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="F130:G130"/>
+    <mergeCell ref="F131:G131"/>
+    <mergeCell ref="F132:G132"/>
+    <mergeCell ref="F133:G133"/>
+    <mergeCell ref="F142:G142"/>
+    <mergeCell ref="E131:E142"/>
+    <mergeCell ref="E144:E155"/>
+    <mergeCell ref="F150:F154"/>
+    <mergeCell ref="E157:E168"/>
+    <mergeCell ref="F163:F167"/>
+    <mergeCell ref="F156:G156"/>
+    <mergeCell ref="F157:G157"/>
+    <mergeCell ref="F158:G158"/>
+    <mergeCell ref="F159:G159"/>
+    <mergeCell ref="F168:G168"/>
+    <mergeCell ref="F143:G143"/>
+    <mergeCell ref="F144:G144"/>
+    <mergeCell ref="F145:G145"/>
+    <mergeCell ref="F146:G146"/>
+    <mergeCell ref="F155:G155"/>
+    <mergeCell ref="F137:F141"/>
+    <mergeCell ref="E95:E105"/>
+    <mergeCell ref="F100:F104"/>
+    <mergeCell ref="E107:E117"/>
+    <mergeCell ref="F112:F116"/>
+    <mergeCell ref="E119:E129"/>
+    <mergeCell ref="F124:F128"/>
+    <mergeCell ref="F118:G118"/>
+    <mergeCell ref="F119:G119"/>
+    <mergeCell ref="F120:G120"/>
+    <mergeCell ref="F95:G95"/>
+    <mergeCell ref="F129:G129"/>
+    <mergeCell ref="F108:G108"/>
+    <mergeCell ref="F117:G117"/>
+    <mergeCell ref="F107:G107"/>
+    <mergeCell ref="E71:E81"/>
+    <mergeCell ref="F76:F80"/>
+    <mergeCell ref="E83:E93"/>
+    <mergeCell ref="F88:F92"/>
+    <mergeCell ref="F70:G70"/>
+    <mergeCell ref="F71:G71"/>
+    <mergeCell ref="F72:G72"/>
+    <mergeCell ref="F81:G81"/>
+    <mergeCell ref="F82:G82"/>
+    <mergeCell ref="F83:G83"/>
+    <mergeCell ref="F84:G84"/>
+    <mergeCell ref="F93:G93"/>
     <mergeCell ref="I3:I4"/>
     <mergeCell ref="F28:F32"/>
     <mergeCell ref="E23:E33"/>
@@ -19030,69 +19074,25 @@
     <mergeCell ref="F14:G14"/>
     <mergeCell ref="F15:G15"/>
     <mergeCell ref="F20:G20"/>
-    <mergeCell ref="E71:E81"/>
-    <mergeCell ref="F76:F80"/>
-    <mergeCell ref="E83:E93"/>
-    <mergeCell ref="F88:F92"/>
-    <mergeCell ref="F70:G70"/>
-    <mergeCell ref="F71:G71"/>
-    <mergeCell ref="F72:G72"/>
-    <mergeCell ref="F81:G81"/>
-    <mergeCell ref="F82:G82"/>
-    <mergeCell ref="F83:G83"/>
-    <mergeCell ref="F84:G84"/>
-    <mergeCell ref="F93:G93"/>
-    <mergeCell ref="E95:E105"/>
-    <mergeCell ref="F100:F104"/>
-    <mergeCell ref="E107:E117"/>
-    <mergeCell ref="F112:F116"/>
-    <mergeCell ref="E119:E129"/>
-    <mergeCell ref="F124:F128"/>
-    <mergeCell ref="F118:G118"/>
-    <mergeCell ref="F119:G119"/>
-    <mergeCell ref="F120:G120"/>
-    <mergeCell ref="F95:G95"/>
-    <mergeCell ref="F129:G129"/>
-    <mergeCell ref="F108:G108"/>
-    <mergeCell ref="F117:G117"/>
-    <mergeCell ref="F107:G107"/>
-    <mergeCell ref="E131:E142"/>
-    <mergeCell ref="E144:E155"/>
-    <mergeCell ref="F150:F154"/>
-    <mergeCell ref="E157:E168"/>
-    <mergeCell ref="F163:F167"/>
-    <mergeCell ref="F156:G156"/>
-    <mergeCell ref="F157:G157"/>
-    <mergeCell ref="F158:G158"/>
-    <mergeCell ref="F159:G159"/>
-    <mergeCell ref="F168:G168"/>
-    <mergeCell ref="F143:G143"/>
-    <mergeCell ref="F144:G144"/>
-    <mergeCell ref="F145:G145"/>
-    <mergeCell ref="F146:G146"/>
-    <mergeCell ref="F155:G155"/>
-    <mergeCell ref="F137:F141"/>
-    <mergeCell ref="F130:G130"/>
-    <mergeCell ref="F131:G131"/>
-    <mergeCell ref="F132:G132"/>
-    <mergeCell ref="F133:G133"/>
-    <mergeCell ref="F142:G142"/>
-    <mergeCell ref="F94:G94"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="F96:G96"/>
-    <mergeCell ref="F105:G105"/>
-    <mergeCell ref="F106:G106"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="F57:G57"/>
-    <mergeCell ref="F58:G58"/>
-    <mergeCell ref="F69:G69"/>
-    <mergeCell ref="F52:F56"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="E47:E57"/>
+    <mergeCell ref="F59:G59"/>
+    <mergeCell ref="F60:G60"/>
+    <mergeCell ref="F47:G47"/>
+    <mergeCell ref="F48:G48"/>
+    <mergeCell ref="E59:E69"/>
+    <mergeCell ref="F64:F68"/>
+    <mergeCell ref="E6:E8"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="F7:G7"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -19138,11 +19138,11 @@
       <c r="D2" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="E2" s="57" t="s">
+      <c r="E2" s="66" t="s">
         <v>33</v>
       </c>
-      <c r="F2" s="58"/>
-      <c r="G2" s="59"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="68"/>
       <c r="H2" s="6" t="s">
         <v>34</v>
       </c>
@@ -19173,9 +19173,9 @@
       <c r="D3" s="2" t="s">
         <v>554</v>
       </c>
-      <c r="E3" s="60"/>
-      <c r="F3" s="61"/>
-      <c r="G3" s="62"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="59"/>
       <c r="H3" s="2" t="s">
         <v>597</v>
       </c>
@@ -19200,11 +19200,11 @@
       <c r="D4" s="2" t="s">
         <v>559</v>
       </c>
-      <c r="E4" s="60" t="s">
+      <c r="E4" s="57" t="s">
         <v>566</v>
       </c>
-      <c r="F4" s="61"/>
-      <c r="G4" s="62"/>
+      <c r="F4" s="58"/>
+      <c r="G4" s="59"/>
       <c r="H4" s="2" t="s">
         <v>557</v>
       </c>
@@ -19229,9 +19229,9 @@
       <c r="D5" s="2" t="s">
         <v>559</v>
       </c>
-      <c r="E5" s="60"/>
-      <c r="F5" s="61"/>
-      <c r="G5" s="62"/>
+      <c r="E5" s="57"/>
+      <c r="F5" s="58"/>
+      <c r="G5" s="59"/>
       <c r="H5" s="2" t="s">
         <v>557</v>
       </c>
@@ -19256,11 +19256,11 @@
       <c r="D6" s="2" t="s">
         <v>561</v>
       </c>
-      <c r="E6" s="60" t="s">
+      <c r="E6" s="57" t="s">
         <v>567</v>
       </c>
-      <c r="F6" s="61"/>
-      <c r="G6" s="62"/>
+      <c r="F6" s="58"/>
+      <c r="G6" s="59"/>
       <c r="H6" s="2" t="s">
         <v>562</v>
       </c>
@@ -19285,11 +19285,11 @@
       <c r="D7" s="2" t="s">
         <v>559</v>
       </c>
-      <c r="E7" s="60" t="s">
+      <c r="E7" s="57" t="s">
         <v>568</v>
       </c>
-      <c r="F7" s="61"/>
-      <c r="G7" s="62"/>
+      <c r="F7" s="58"/>
+      <c r="G7" s="59"/>
       <c r="H7" s="2" t="s">
         <v>564</v>
       </c>
@@ -19317,10 +19317,10 @@
       <c r="E8" s="28" t="s">
         <v>569</v>
       </c>
-      <c r="F8" s="60" t="s">
+      <c r="F8" s="57" t="s">
         <v>570</v>
       </c>
-      <c r="G8" s="62"/>
+      <c r="G8" s="59"/>
       <c r="H8" s="2" t="s">
         <v>572</v>
       </c>
@@ -19345,11 +19345,11 @@
       <c r="D9" s="2" t="s">
         <v>559</v>
       </c>
-      <c r="E9" s="68"/>
-      <c r="F9" s="60" t="s">
+      <c r="E9" s="61"/>
+      <c r="F9" s="57" t="s">
         <v>571</v>
       </c>
-      <c r="G9" s="62"/>
+      <c r="G9" s="59"/>
       <c r="H9" s="2" t="s">
         <v>573</v>
       </c>
@@ -19374,11 +19374,11 @@
       <c r="D10" s="2" t="s">
         <v>559</v>
       </c>
-      <c r="E10" s="68"/>
-      <c r="F10" s="60" t="s">
+      <c r="E10" s="61"/>
+      <c r="F10" s="57" t="s">
         <v>574</v>
       </c>
-      <c r="G10" s="62"/>
+      <c r="G10" s="59"/>
       <c r="H10" s="2" t="s">
         <v>572</v>
       </c>
@@ -19403,11 +19403,11 @@
       <c r="D11" s="2" t="s">
         <v>559</v>
       </c>
-      <c r="E11" s="63"/>
-      <c r="F11" s="60" t="s">
+      <c r="E11" s="62"/>
+      <c r="F11" s="57" t="s">
         <v>575</v>
       </c>
-      <c r="G11" s="62"/>
+      <c r="G11" s="59"/>
       <c r="H11" s="2" t="s">
         <v>573</v>
       </c>
@@ -19432,9 +19432,9 @@
       <c r="D12" s="2" t="s">
         <v>559</v>
       </c>
-      <c r="E12" s="60"/>
-      <c r="F12" s="61"/>
-      <c r="G12" s="62"/>
+      <c r="E12" s="57"/>
+      <c r="F12" s="58"/>
+      <c r="G12" s="59"/>
       <c r="H12" s="2" t="s">
         <v>591</v>
       </c>
@@ -19457,9 +19457,9 @@
         <v>556</v>
       </c>
       <c r="D13" s="2"/>
-      <c r="E13" s="60"/>
-      <c r="F13" s="61"/>
-      <c r="G13" s="62"/>
+      <c r="E13" s="57"/>
+      <c r="F13" s="58"/>
+      <c r="G13" s="59"/>
       <c r="H13" s="2" t="s">
         <v>644</v>
       </c>
@@ -19488,7 +19488,7 @@
         <v>580</v>
       </c>
       <c r="F14" s="86"/>
-      <c r="G14" s="76"/>
+      <c r="G14" s="80"/>
       <c r="H14" s="45" t="s">
         <v>593</v>
       </c>
@@ -19511,9 +19511,9 @@
       <c r="D15" s="2" t="s">
         <v>561</v>
       </c>
-      <c r="E15" s="68"/>
-      <c r="F15" s="60"/>
-      <c r="G15" s="62"/>
+      <c r="E15" s="61"/>
+      <c r="F15" s="57"/>
+      <c r="G15" s="59"/>
       <c r="H15" s="2" t="s">
         <v>647</v>
       </c>
@@ -19536,9 +19536,9 @@
       <c r="D16" s="2" t="s">
         <v>561</v>
       </c>
-      <c r="E16" s="68"/>
-      <c r="F16" s="60"/>
-      <c r="G16" s="62"/>
+      <c r="E16" s="61"/>
+      <c r="F16" s="57"/>
+      <c r="G16" s="59"/>
       <c r="H16" s="2" t="s">
         <v>594</v>
       </c>
@@ -19561,9 +19561,9 @@
       <c r="D17" s="2" t="s">
         <v>561</v>
       </c>
-      <c r="E17" s="68"/>
-      <c r="F17" s="60"/>
-      <c r="G17" s="62"/>
+      <c r="E17" s="61"/>
+      <c r="F17" s="57"/>
+      <c r="G17" s="59"/>
       <c r="H17" s="2" t="s">
         <v>557</v>
       </c>
@@ -19586,9 +19586,9 @@
       <c r="D18" s="2" t="s">
         <v>561</v>
       </c>
-      <c r="E18" s="63"/>
-      <c r="F18" s="60"/>
-      <c r="G18" s="62"/>
+      <c r="E18" s="62"/>
+      <c r="F18" s="57"/>
+      <c r="G18" s="59"/>
       <c r="H18" s="2" t="s">
         <v>557</v>
       </c>
@@ -19614,14 +19614,14 @@
       <c r="E19" s="28" t="s">
         <v>581</v>
       </c>
-      <c r="F19" s="60" t="s">
+      <c r="F19" s="57" t="s">
         <v>582</v>
       </c>
-      <c r="G19" s="62"/>
+      <c r="G19" s="59"/>
       <c r="H19" s="2" t="s">
         <v>591</v>
       </c>
-      <c r="I19" s="79" t="b">
+      <c r="I19" s="82" t="b">
         <v>1</v>
       </c>
       <c r="J19" s="2"/>
@@ -19642,11 +19642,11 @@
       <c r="D20" s="2" t="s">
         <v>559</v>
       </c>
-      <c r="E20" s="68"/>
-      <c r="F20" s="60" t="s">
+      <c r="E20" s="61"/>
+      <c r="F20" s="57" t="s">
         <v>583</v>
       </c>
-      <c r="G20" s="62"/>
+      <c r="G20" s="59"/>
       <c r="H20" s="2" t="s">
         <v>591</v>
       </c>
@@ -19669,11 +19669,11 @@
       <c r="D21" s="2" t="s">
         <v>559</v>
       </c>
-      <c r="E21" s="68"/>
-      <c r="F21" s="60" t="s">
+      <c r="E21" s="61"/>
+      <c r="F21" s="57" t="s">
         <v>584</v>
       </c>
-      <c r="G21" s="62"/>
+      <c r="G21" s="59"/>
       <c r="H21" s="2" t="s">
         <v>591</v>
       </c>
@@ -19696,11 +19696,11 @@
       <c r="D22" s="2" t="s">
         <v>559</v>
       </c>
-      <c r="E22" s="68"/>
-      <c r="F22" s="60" t="s">
+      <c r="E22" s="61"/>
+      <c r="F22" s="57" t="s">
         <v>585</v>
       </c>
-      <c r="G22" s="62"/>
+      <c r="G22" s="59"/>
       <c r="H22" s="2" t="s">
         <v>591</v>
       </c>
@@ -19723,11 +19723,11 @@
       <c r="D23" s="2" t="s">
         <v>559</v>
       </c>
-      <c r="E23" s="68"/>
-      <c r="F23" s="60" t="s">
+      <c r="E23" s="61"/>
+      <c r="F23" s="57" t="s">
         <v>586</v>
       </c>
-      <c r="G23" s="62"/>
+      <c r="G23" s="59"/>
       <c r="H23" s="2" t="s">
         <v>591</v>
       </c>
@@ -19750,11 +19750,11 @@
       <c r="D24" s="2" t="s">
         <v>559</v>
       </c>
-      <c r="E24" s="68"/>
-      <c r="F24" s="60" t="s">
+      <c r="E24" s="61"/>
+      <c r="F24" s="57" t="s">
         <v>587</v>
       </c>
-      <c r="G24" s="62"/>
+      <c r="G24" s="59"/>
       <c r="H24" s="2" t="s">
         <v>591</v>
       </c>
@@ -19777,11 +19777,11 @@
       <c r="D25" s="2" t="s">
         <v>559</v>
       </c>
-      <c r="E25" s="68"/>
-      <c r="F25" s="60" t="s">
+      <c r="E25" s="61"/>
+      <c r="F25" s="57" t="s">
         <v>588</v>
       </c>
-      <c r="G25" s="62"/>
+      <c r="G25" s="59"/>
       <c r="H25" s="2" t="s">
         <v>591</v>
       </c>
@@ -19804,15 +19804,15 @@
       <c r="D26" s="2" t="s">
         <v>559</v>
       </c>
-      <c r="E26" s="63"/>
-      <c r="F26" s="60" t="s">
+      <c r="E26" s="62"/>
+      <c r="F26" s="57" t="s">
         <v>589</v>
       </c>
-      <c r="G26" s="62"/>
+      <c r="G26" s="59"/>
       <c r="H26" s="2" t="s">
         <v>591</v>
       </c>
-      <c r="I26" s="80"/>
+      <c r="I26" s="83"/>
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
@@ -19834,10 +19834,10 @@
       <c r="E27" s="28" t="s">
         <v>590</v>
       </c>
-      <c r="F27" s="60" t="s">
+      <c r="F27" s="57" t="s">
         <v>596</v>
       </c>
-      <c r="G27" s="62"/>
+      <c r="G27" s="59"/>
       <c r="H27" s="2" t="s">
         <v>591</v>
       </c>
@@ -19860,11 +19860,11 @@
       <c r="D28" s="2" t="s">
         <v>559</v>
       </c>
-      <c r="E28" s="68"/>
-      <c r="F28" s="60" t="s">
+      <c r="E28" s="61"/>
+      <c r="F28" s="57" t="s">
         <v>598</v>
       </c>
-      <c r="G28" s="62"/>
+      <c r="G28" s="59"/>
       <c r="H28" s="5" t="s">
         <v>599</v>
       </c>
@@ -19887,11 +19887,11 @@
       <c r="D29" s="2" t="s">
         <v>559</v>
       </c>
-      <c r="E29" s="68"/>
-      <c r="F29" s="60" t="s">
+      <c r="E29" s="61"/>
+      <c r="F29" s="57" t="s">
         <v>570</v>
       </c>
-      <c r="G29" s="62"/>
+      <c r="G29" s="59"/>
       <c r="H29" s="2" t="s">
         <v>572</v>
       </c>
@@ -19914,11 +19914,11 @@
       <c r="D30" s="2" t="s">
         <v>559</v>
       </c>
-      <c r="E30" s="68"/>
-      <c r="F30" s="60" t="s">
+      <c r="E30" s="61"/>
+      <c r="F30" s="57" t="s">
         <v>571</v>
       </c>
-      <c r="G30" s="62"/>
+      <c r="G30" s="59"/>
       <c r="H30" s="2" t="s">
         <v>573</v>
       </c>
@@ -19941,11 +19941,11 @@
       <c r="D31" s="2" t="s">
         <v>559</v>
       </c>
-      <c r="E31" s="68"/>
-      <c r="F31" s="60" t="s">
+      <c r="E31" s="61"/>
+      <c r="F31" s="57" t="s">
         <v>574</v>
       </c>
-      <c r="G31" s="62"/>
+      <c r="G31" s="59"/>
       <c r="H31" s="2" t="s">
         <v>572</v>
       </c>
@@ -19968,11 +19968,11 @@
       <c r="D32" s="2" t="s">
         <v>559</v>
       </c>
-      <c r="E32" s="68"/>
-      <c r="F32" s="60" t="s">
+      <c r="E32" s="61"/>
+      <c r="F32" s="57" t="s">
         <v>575</v>
       </c>
-      <c r="G32" s="62"/>
+      <c r="G32" s="59"/>
       <c r="H32" s="2" t="s">
         <v>573</v>
       </c>
@@ -19995,11 +19995,11 @@
       <c r="D33" s="2" t="s">
         <v>561</v>
       </c>
-      <c r="E33" s="68"/>
-      <c r="F33" s="60" t="s">
+      <c r="E33" s="61"/>
+      <c r="F33" s="57" t="s">
         <v>605</v>
       </c>
-      <c r="G33" s="62"/>
+      <c r="G33" s="59"/>
       <c r="H33" s="2" t="s">
         <v>608</v>
       </c>
@@ -20022,11 +20022,11 @@
       <c r="D34" s="2" t="s">
         <v>561</v>
       </c>
-      <c r="E34" s="63"/>
-      <c r="F34" s="60" t="s">
+      <c r="E34" s="62"/>
+      <c r="F34" s="57" t="s">
         <v>606</v>
       </c>
-      <c r="G34" s="62"/>
+      <c r="G34" s="59"/>
       <c r="H34" s="2" t="s">
         <v>608</v>
       </c>
@@ -20049,11 +20049,11 @@
       <c r="D35" s="2" t="s">
         <v>561</v>
       </c>
-      <c r="E35" s="60" t="s">
+      <c r="E35" s="57" t="s">
         <v>610</v>
       </c>
-      <c r="F35" s="61"/>
-      <c r="G35" s="62"/>
+      <c r="F35" s="58"/>
+      <c r="G35" s="59"/>
       <c r="H35" s="2" t="s">
         <v>611</v>
       </c>
@@ -20076,11 +20076,11 @@
       <c r="D36" s="2" t="s">
         <v>561</v>
       </c>
-      <c r="E36" s="60" t="s">
+      <c r="E36" s="57" t="s">
         <v>613</v>
       </c>
-      <c r="F36" s="61"/>
-      <c r="G36" s="62"/>
+      <c r="F36" s="58"/>
+      <c r="G36" s="59"/>
       <c r="H36" s="2" t="s">
         <v>614</v>
       </c>
@@ -20103,11 +20103,11 @@
       <c r="D37" s="2" t="s">
         <v>559</v>
       </c>
-      <c r="E37" s="67" t="s">
+      <c r="E37" s="60" t="s">
         <v>615</v>
       </c>
-      <c r="F37" s="61"/>
-      <c r="G37" s="62"/>
+      <c r="F37" s="58"/>
+      <c r="G37" s="59"/>
       <c r="H37" s="5" t="s">
         <v>618</v>
       </c>
@@ -20133,10 +20133,10 @@
         <v>561</v>
       </c>
       <c r="E38" s="33"/>
-      <c r="F38" s="60" t="s">
+      <c r="F38" s="57" t="s">
         <v>619</v>
       </c>
-      <c r="G38" s="62"/>
+      <c r="G38" s="59"/>
       <c r="H38" s="2" t="s">
         <v>620</v>
       </c>
@@ -20159,11 +20159,11 @@
       <c r="D39" s="2" t="s">
         <v>559</v>
       </c>
-      <c r="E39" s="67" t="s">
+      <c r="E39" s="60" t="s">
         <v>622</v>
       </c>
-      <c r="F39" s="61"/>
-      <c r="G39" s="62"/>
+      <c r="F39" s="58"/>
+      <c r="G39" s="59"/>
       <c r="H39" s="5" t="s">
         <v>623</v>
       </c>
@@ -20189,10 +20189,10 @@
         <v>561</v>
       </c>
       <c r="E40" s="33"/>
-      <c r="F40" s="60" t="s">
+      <c r="F40" s="57" t="s">
         <v>619</v>
       </c>
-      <c r="G40" s="62"/>
+      <c r="G40" s="59"/>
       <c r="H40" s="2" t="s">
         <v>620</v>
       </c>
@@ -20218,10 +20218,10 @@
       <c r="E41" s="28" t="s">
         <v>625</v>
       </c>
-      <c r="F41" s="60" t="s">
+      <c r="F41" s="57" t="s">
         <v>626</v>
       </c>
-      <c r="G41" s="62"/>
+      <c r="G41" s="59"/>
       <c r="H41" s="2" t="s">
         <v>630</v>
       </c>
@@ -20244,11 +20244,11 @@
       <c r="D42" s="2" t="s">
         <v>559</v>
       </c>
-      <c r="E42" s="68"/>
-      <c r="F42" s="60" t="s">
+      <c r="E42" s="61"/>
+      <c r="F42" s="57" t="s">
         <v>627</v>
       </c>
-      <c r="G42" s="62"/>
+      <c r="G42" s="59"/>
       <c r="H42" s="2" t="s">
         <v>631</v>
       </c>
@@ -20271,11 +20271,11 @@
       <c r="D43" s="2" t="s">
         <v>559</v>
       </c>
-      <c r="E43" s="68"/>
-      <c r="F43" s="60" t="s">
+      <c r="E43" s="61"/>
+      <c r="F43" s="57" t="s">
         <v>628</v>
       </c>
-      <c r="G43" s="62"/>
+      <c r="G43" s="59"/>
       <c r="H43" s="2" t="s">
         <v>632</v>
       </c>
@@ -20298,11 +20298,11 @@
       <c r="D44" s="2" t="s">
         <v>559</v>
       </c>
-      <c r="E44" s="63"/>
-      <c r="F44" s="60" t="s">
+      <c r="E44" s="62"/>
+      <c r="F44" s="57" t="s">
         <v>629</v>
       </c>
-      <c r="G44" s="62"/>
+      <c r="G44" s="59"/>
       <c r="H44" s="2" t="s">
         <v>572</v>
       </c>
@@ -20325,11 +20325,11 @@
       <c r="D45" s="2" t="s">
         <v>559</v>
       </c>
-      <c r="E45" s="60" t="s">
+      <c r="E45" s="57" t="s">
         <v>636</v>
       </c>
-      <c r="F45" s="61"/>
-      <c r="G45" s="62"/>
+      <c r="F45" s="58"/>
+      <c r="G45" s="59"/>
       <c r="H45" s="5" t="s">
         <v>637</v>
       </c>
@@ -20352,9 +20352,9 @@
       <c r="D46" s="2" t="s">
         <v>559</v>
       </c>
-      <c r="E46" s="60"/>
-      <c r="F46" s="61"/>
-      <c r="G46" s="62"/>
+      <c r="E46" s="57"/>
+      <c r="F46" s="58"/>
+      <c r="G46" s="59"/>
       <c r="H46" s="2" t="s">
         <v>639</v>
       </c>
@@ -20377,9 +20377,9 @@
       <c r="D47" s="2" t="s">
         <v>561</v>
       </c>
-      <c r="E47" s="60"/>
-      <c r="F47" s="61"/>
-      <c r="G47" s="62"/>
+      <c r="E47" s="57"/>
+      <c r="F47" s="58"/>
+      <c r="G47" s="59"/>
       <c r="H47" s="2" t="s">
         <v>641</v>
       </c>
@@ -20390,6 +20390,42 @@
     </row>
   </sheetData>
   <mergeCells count="52">
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="I19:I26"/>
+    <mergeCell ref="E28:E34"/>
+    <mergeCell ref="E42:E44"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="E35:G35"/>
+    <mergeCell ref="E36:G36"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="E20:E26"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="E37:G37"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="E9:E11"/>
     <mergeCell ref="E46:G46"/>
     <mergeCell ref="E47:G47"/>
     <mergeCell ref="E45:G45"/>
@@ -20406,42 +20442,6 @@
     <mergeCell ref="F23:G23"/>
     <mergeCell ref="F24:G24"/>
     <mergeCell ref="F25:G25"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="E9:E11"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="E37:G37"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="I19:I26"/>
-    <mergeCell ref="E28:E34"/>
-    <mergeCell ref="E42:E44"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="E39:G39"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="E35:G35"/>
-    <mergeCell ref="E36:G36"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="E20:E26"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="F29:G29"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -20453,9 +20453,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:L35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F36" sqref="F36"/>
+      <selection pane="bottomLeft" activeCell="E14" sqref="E14:G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -20487,11 +20487,11 @@
       <c r="D2" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="E2" s="57" t="s">
+      <c r="E2" s="66" t="s">
         <v>33</v>
       </c>
-      <c r="F2" s="58"/>
-      <c r="G2" s="59"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="68"/>
       <c r="H2" s="6" t="s">
         <v>34</v>
       </c>
@@ -20524,7 +20524,7 @@
       </c>
       <c r="E3" s="87"/>
       <c r="F3" s="88"/>
-      <c r="G3" s="70"/>
+      <c r="G3" s="72"/>
       <c r="H3" s="2" t="s">
         <v>665</v>
       </c>
@@ -20549,11 +20549,11 @@
       <c r="D4" s="2" t="s">
         <v>668</v>
       </c>
-      <c r="E4" s="60" t="s">
+      <c r="E4" s="57" t="s">
         <v>41</v>
       </c>
-      <c r="F4" s="61"/>
-      <c r="G4" s="62"/>
+      <c r="F4" s="58"/>
+      <c r="G4" s="59"/>
       <c r="H4" s="2" t="s">
         <v>98</v>
       </c>
@@ -20578,11 +20578,11 @@
       <c r="D5" s="2" t="s">
         <v>668</v>
       </c>
-      <c r="E5" s="60" t="s">
+      <c r="E5" s="57" t="s">
         <v>669</v>
       </c>
-      <c r="F5" s="61"/>
-      <c r="G5" s="62"/>
+      <c r="F5" s="58"/>
+      <c r="G5" s="59"/>
       <c r="H5" s="2" t="s">
         <v>671</v>
       </c>
@@ -20610,10 +20610,10 @@
       <c r="E6" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="F6" s="60" t="s">
+      <c r="F6" s="57" t="s">
         <v>675</v>
       </c>
-      <c r="G6" s="62"/>
+      <c r="G6" s="59"/>
       <c r="H6" s="2" t="s">
         <v>57</v>
       </c>
@@ -20636,11 +20636,11 @@
       <c r="D7" s="2" t="s">
         <v>674</v>
       </c>
-      <c r="E7" s="63"/>
-      <c r="F7" s="60" t="s">
+      <c r="E7" s="62"/>
+      <c r="F7" s="57" t="s">
         <v>676</v>
       </c>
-      <c r="G7" s="62"/>
+      <c r="G7" s="59"/>
       <c r="H7" s="2" t="s">
         <v>77</v>
       </c>
@@ -20663,11 +20663,11 @@
       <c r="D8" s="2" t="s">
         <v>674</v>
       </c>
-      <c r="E8" s="64"/>
-      <c r="F8" s="60" t="s">
+      <c r="E8" s="63"/>
+      <c r="F8" s="57" t="s">
         <v>682</v>
       </c>
-      <c r="G8" s="62"/>
+      <c r="G8" s="59"/>
       <c r="H8" s="2" t="s">
         <v>492</v>
       </c>
@@ -20690,11 +20690,11 @@
       <c r="D9" s="2" t="s">
         <v>674</v>
       </c>
-      <c r="E9" s="64"/>
-      <c r="F9" s="60" t="s">
+      <c r="E9" s="63"/>
+      <c r="F9" s="57" t="s">
         <v>683</v>
       </c>
-      <c r="G9" s="62"/>
+      <c r="G9" s="59"/>
       <c r="H9" s="2" t="s">
         <v>513</v>
       </c>
@@ -20717,11 +20717,11 @@
       <c r="D10" s="2" t="s">
         <v>674</v>
       </c>
-      <c r="E10" s="64"/>
-      <c r="F10" s="60" t="s">
+      <c r="E10" s="63"/>
+      <c r="F10" s="57" t="s">
         <v>684</v>
       </c>
-      <c r="G10" s="62"/>
+      <c r="G10" s="59"/>
       <c r="H10" s="2" t="s">
         <v>511</v>
       </c>
@@ -20744,11 +20744,11 @@
       <c r="D11" s="2" t="s">
         <v>674</v>
       </c>
-      <c r="E11" s="64"/>
-      <c r="F11" s="60" t="s">
+      <c r="E11" s="63"/>
+      <c r="F11" s="57" t="s">
         <v>685</v>
       </c>
-      <c r="G11" s="62"/>
+      <c r="G11" s="59"/>
       <c r="H11" s="2" t="s">
         <v>508</v>
       </c>
@@ -20771,11 +20771,11 @@
       <c r="D12" s="2" t="s">
         <v>687</v>
       </c>
-      <c r="E12" s="60" t="s">
+      <c r="E12" s="57" t="s">
         <v>686</v>
       </c>
-      <c r="F12" s="61"/>
-      <c r="G12" s="62"/>
+      <c r="F12" s="58"/>
+      <c r="G12" s="59"/>
       <c r="H12" s="2" t="s">
         <v>688</v>
       </c>
@@ -20800,11 +20800,11 @@
       <c r="D13" s="2" t="s">
         <v>668</v>
       </c>
-      <c r="E13" s="60" t="s">
+      <c r="E13" s="57" t="s">
         <v>690</v>
       </c>
-      <c r="F13" s="61"/>
-      <c r="G13" s="62"/>
+      <c r="F13" s="58"/>
+      <c r="G13" s="59"/>
       <c r="H13" s="2" t="s">
         <v>691</v>
       </c>
@@ -20829,11 +20829,11 @@
       <c r="D14" s="2" t="s">
         <v>674</v>
       </c>
-      <c r="E14" s="67" t="s">
+      <c r="E14" s="60" t="s">
         <v>74</v>
       </c>
-      <c r="F14" s="61"/>
-      <c r="G14" s="62"/>
+      <c r="F14" s="58"/>
+      <c r="G14" s="59"/>
       <c r="H14" s="5" t="s">
         <v>694</v>
       </c>
@@ -20858,7 +20858,7 @@
       <c r="D15" s="2" t="s">
         <v>674</v>
       </c>
-      <c r="E15" s="63"/>
+      <c r="E15" s="62"/>
       <c r="F15" s="28" t="s">
         <v>695</v>
       </c>
@@ -20887,8 +20887,8 @@
       <c r="D16" s="2" t="s">
         <v>674</v>
       </c>
-      <c r="E16" s="64"/>
-      <c r="F16" s="63"/>
+      <c r="E16" s="63"/>
+      <c r="F16" s="62"/>
       <c r="G16" s="23" t="s">
         <v>697</v>
       </c>
@@ -20916,8 +20916,8 @@
       <c r="D17" s="2" t="s">
         <v>674</v>
       </c>
-      <c r="E17" s="64"/>
-      <c r="F17" s="64"/>
+      <c r="E17" s="63"/>
+      <c r="F17" s="63"/>
       <c r="G17" s="23" t="s">
         <v>698</v>
       </c>
@@ -20945,8 +20945,8 @@
       <c r="D18" s="2" t="s">
         <v>674</v>
       </c>
-      <c r="E18" s="64"/>
-      <c r="F18" s="64"/>
+      <c r="E18" s="63"/>
+      <c r="F18" s="63"/>
       <c r="G18" s="23" t="s">
         <v>699</v>
       </c>
@@ -20974,8 +20974,8 @@
       <c r="D19" s="2" t="s">
         <v>674</v>
       </c>
-      <c r="E19" s="64"/>
-      <c r="F19" s="64"/>
+      <c r="E19" s="63"/>
+      <c r="F19" s="63"/>
       <c r="G19" s="23" t="s">
         <v>700</v>
       </c>
@@ -21003,8 +21003,8 @@
       <c r="D20" s="2" t="s">
         <v>674</v>
       </c>
-      <c r="E20" s="64"/>
-      <c r="F20" s="64"/>
+      <c r="E20" s="63"/>
+      <c r="F20" s="63"/>
       <c r="G20" s="23" t="s">
         <v>701</v>
       </c>
@@ -21032,8 +21032,8 @@
       <c r="D21" s="2" t="s">
         <v>674</v>
       </c>
-      <c r="E21" s="64"/>
-      <c r="F21" s="64"/>
+      <c r="E21" s="63"/>
+      <c r="F21" s="63"/>
       <c r="G21" s="23" t="s">
         <v>702</v>
       </c>
@@ -21061,8 +21061,8 @@
       <c r="D22" s="2" t="s">
         <v>674</v>
       </c>
-      <c r="E22" s="64"/>
-      <c r="F22" s="64"/>
+      <c r="E22" s="63"/>
+      <c r="F22" s="63"/>
       <c r="G22" s="23" t="s">
         <v>703</v>
       </c>
@@ -21090,8 +21090,8 @@
       <c r="D23" s="2" t="s">
         <v>674</v>
       </c>
-      <c r="E23" s="64"/>
-      <c r="F23" s="64"/>
+      <c r="E23" s="63"/>
+      <c r="F23" s="63"/>
       <c r="G23" s="23" t="s">
         <v>704</v>
       </c>
@@ -21119,8 +21119,8 @@
       <c r="D24" s="2" t="s">
         <v>674</v>
       </c>
-      <c r="E24" s="64"/>
-      <c r="F24" s="64"/>
+      <c r="E24" s="63"/>
+      <c r="F24" s="63"/>
       <c r="G24" s="23" t="s">
         <v>705</v>
       </c>
@@ -21148,7 +21148,7 @@
       <c r="D25" s="2" t="s">
         <v>674</v>
       </c>
-      <c r="E25" s="64"/>
+      <c r="E25" s="63"/>
       <c r="F25" s="28" t="s">
         <v>707</v>
       </c>
@@ -21179,8 +21179,8 @@
       <c r="D26" s="2" t="s">
         <v>674</v>
       </c>
-      <c r="E26" s="64"/>
-      <c r="F26" s="63"/>
+      <c r="E26" s="63"/>
+      <c r="F26" s="62"/>
       <c r="G26" s="23" t="s">
         <v>129</v>
       </c>
@@ -21208,8 +21208,8 @@
       <c r="D27" s="2" t="s">
         <v>674</v>
       </c>
-      <c r="E27" s="64"/>
-      <c r="F27" s="64"/>
+      <c r="E27" s="63"/>
+      <c r="F27" s="63"/>
       <c r="G27" s="23" t="s">
         <v>130</v>
       </c>
@@ -21237,8 +21237,8 @@
       <c r="D28" s="2" t="s">
         <v>674</v>
       </c>
-      <c r="E28" s="64"/>
-      <c r="F28" s="64"/>
+      <c r="E28" s="63"/>
+      <c r="F28" s="63"/>
       <c r="G28" s="23" t="s">
         <v>131</v>
       </c>
@@ -21326,11 +21326,11 @@
       <c r="D31" s="2" t="s">
         <v>668</v>
       </c>
-      <c r="E31" s="60" t="s">
+      <c r="E31" s="57" t="s">
         <v>59</v>
       </c>
-      <c r="F31" s="61"/>
-      <c r="G31" s="62"/>
+      <c r="F31" s="58"/>
+      <c r="G31" s="59"/>
       <c r="H31" s="2" t="s">
         <v>727</v>
       </c>
@@ -21355,11 +21355,11 @@
       <c r="D32" s="2" t="s">
         <v>674</v>
       </c>
-      <c r="E32" s="60" t="s">
+      <c r="E32" s="57" t="s">
         <v>728</v>
       </c>
-      <c r="F32" s="61"/>
-      <c r="G32" s="62"/>
+      <c r="F32" s="58"/>
+      <c r="G32" s="59"/>
       <c r="H32" s="5" t="s">
         <v>729</v>
       </c>
@@ -21384,11 +21384,11 @@
       <c r="D33" s="2" t="s">
         <v>668</v>
       </c>
-      <c r="E33" s="60" t="s">
+      <c r="E33" s="57" t="s">
         <v>75</v>
       </c>
-      <c r="F33" s="61"/>
-      <c r="G33" s="62"/>
+      <c r="F33" s="58"/>
+      <c r="G33" s="59"/>
       <c r="H33" s="2" t="s">
         <v>727</v>
       </c>
@@ -21413,11 +21413,11 @@
       <c r="D34" s="2" t="s">
         <v>668</v>
       </c>
-      <c r="E34" s="60" t="s">
+      <c r="E34" s="57" t="s">
         <v>99</v>
       </c>
-      <c r="F34" s="61"/>
-      <c r="G34" s="62"/>
+      <c r="F34" s="58"/>
+      <c r="G34" s="59"/>
       <c r="H34" s="2" t="s">
         <v>732</v>
       </c>
@@ -21442,11 +21442,11 @@
       <c r="D35" s="2" t="s">
         <v>674</v>
       </c>
-      <c r="E35" s="60" t="s">
+      <c r="E35" s="57" t="s">
         <v>734</v>
       </c>
-      <c r="F35" s="61"/>
-      <c r="G35" s="62"/>
+      <c r="F35" s="58"/>
+      <c r="G35" s="59"/>
       <c r="H35" s="2" t="s">
         <v>57</v>
       </c>
@@ -21457,12 +21457,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="E7:E11"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="F11:G11"/>
     <mergeCell ref="E12:G12"/>
     <mergeCell ref="E2:G2"/>
     <mergeCell ref="E33:G33"/>
@@ -21479,6 +21473,12 @@
     <mergeCell ref="E5:G5"/>
     <mergeCell ref="E3:G3"/>
     <mergeCell ref="F6:G6"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="E7:E11"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F11:G11"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -21524,11 +21524,11 @@
       <c r="D2" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="E2" s="92" t="s">
+      <c r="E2" s="89" t="s">
         <v>33</v>
       </c>
-      <c r="F2" s="93"/>
-      <c r="G2" s="94"/>
+      <c r="F2" s="90"/>
+      <c r="G2" s="91"/>
       <c r="H2" s="6" t="s">
         <v>34</v>
       </c>
@@ -21561,7 +21561,7 @@
       </c>
       <c r="E3" s="87"/>
       <c r="F3" s="88"/>
-      <c r="G3" s="70"/>
+      <c r="G3" s="72"/>
       <c r="H3" s="2" t="s">
         <v>744</v>
       </c>
@@ -21589,10 +21589,10 @@
       <c r="E4" s="44" t="s">
         <v>769</v>
       </c>
-      <c r="F4" s="60" t="s">
+      <c r="F4" s="57" t="s">
         <v>768</v>
       </c>
-      <c r="G4" s="62"/>
+      <c r="G4" s="59"/>
       <c r="H4" s="2" t="s">
         <v>64</v>
       </c>
@@ -21617,11 +21617,11 @@
       <c r="D5" s="2" t="s">
         <v>767</v>
       </c>
-      <c r="E5" s="68"/>
-      <c r="F5" s="60" t="s">
+      <c r="E5" s="61"/>
+      <c r="F5" s="57" t="s">
         <v>461</v>
       </c>
-      <c r="G5" s="62"/>
+      <c r="G5" s="59"/>
       <c r="H5" s="2" t="s">
         <v>771</v>
       </c>
@@ -21644,7 +21644,7 @@
       <c r="D6" s="2" t="s">
         <v>773</v>
       </c>
-      <c r="E6" s="68"/>
+      <c r="E6" s="61"/>
       <c r="F6" s="44" t="s">
         <v>774</v>
       </c>
@@ -21673,8 +21673,8 @@
       <c r="D7" s="2" t="s">
         <v>767</v>
       </c>
-      <c r="E7" s="68"/>
-      <c r="F7" s="68"/>
+      <c r="E7" s="61"/>
+      <c r="F7" s="61"/>
       <c r="G7" s="43"/>
       <c r="H7" s="2" t="s">
         <v>779</v>
@@ -21698,8 +21698,8 @@
       <c r="D8" s="2" t="s">
         <v>767</v>
       </c>
-      <c r="E8" s="68"/>
-      <c r="F8" s="63"/>
+      <c r="E8" s="61"/>
+      <c r="F8" s="62"/>
       <c r="G8" s="43" t="s">
         <v>777</v>
       </c>
@@ -21725,7 +21725,7 @@
       <c r="D9" s="2" t="s">
         <v>773</v>
       </c>
-      <c r="E9" s="68"/>
+      <c r="E9" s="61"/>
       <c r="F9" s="43" t="s">
         <v>72</v>
       </c>
@@ -21754,8 +21754,8 @@
       <c r="D10" s="2" t="s">
         <v>767</v>
       </c>
-      <c r="E10" s="68"/>
-      <c r="F10" s="95"/>
+      <c r="E10" s="61"/>
+      <c r="F10" s="92"/>
       <c r="G10" s="43" t="s">
         <v>783</v>
       </c>
@@ -21783,8 +21783,8 @@
       <c r="D11" s="2" t="s">
         <v>767</v>
       </c>
-      <c r="E11" s="68"/>
-      <c r="F11" s="68"/>
+      <c r="E11" s="61"/>
+      <c r="F11" s="61"/>
       <c r="G11" s="43" t="s">
         <v>784</v>
       </c>
@@ -21810,8 +21810,8 @@
       <c r="D12" s="2" t="s">
         <v>767</v>
       </c>
-      <c r="E12" s="68"/>
-      <c r="F12" s="63"/>
+      <c r="E12" s="61"/>
+      <c r="F12" s="62"/>
       <c r="G12" s="43" t="s">
         <v>785</v>
       </c>
@@ -21837,11 +21837,11 @@
       <c r="D13" s="2" t="s">
         <v>773</v>
       </c>
-      <c r="E13" s="68"/>
-      <c r="F13" s="60" t="s">
+      <c r="E13" s="61"/>
+      <c r="F13" s="57" t="s">
         <v>104</v>
       </c>
-      <c r="G13" s="62"/>
+      <c r="G13" s="59"/>
       <c r="H13" s="5" t="s">
         <v>787</v>
       </c>
@@ -21866,7 +21866,7 @@
       <c r="D14" s="2" t="s">
         <v>773</v>
       </c>
-      <c r="E14" s="68"/>
+      <c r="E14" s="61"/>
       <c r="F14" s="44" t="s">
         <v>788</v>
       </c>
@@ -21895,8 +21895,8 @@
       <c r="D15" s="2" t="s">
         <v>773</v>
       </c>
-      <c r="E15" s="68"/>
-      <c r="F15" s="68"/>
+      <c r="E15" s="61"/>
+      <c r="F15" s="61"/>
       <c r="G15" s="43" t="s">
         <v>790</v>
       </c>
@@ -21922,8 +21922,8 @@
       <c r="D16" s="2" t="s">
         <v>773</v>
       </c>
-      <c r="E16" s="68"/>
-      <c r="F16" s="68"/>
+      <c r="E16" s="61"/>
+      <c r="F16" s="61"/>
       <c r="G16" s="43" t="s">
         <v>791</v>
       </c>
@@ -21949,8 +21949,8 @@
       <c r="D17" s="2" t="s">
         <v>773</v>
       </c>
-      <c r="E17" s="68"/>
-      <c r="F17" s="63"/>
+      <c r="E17" s="61"/>
+      <c r="F17" s="62"/>
       <c r="G17" s="43" t="s">
         <v>792</v>
       </c>
@@ -21976,11 +21976,11 @@
       <c r="D18" s="2" t="s">
         <v>767</v>
       </c>
-      <c r="E18" s="68"/>
-      <c r="F18" s="60" t="s">
+      <c r="E18" s="61"/>
+      <c r="F18" s="57" t="s">
         <v>76</v>
       </c>
-      <c r="G18" s="62"/>
+      <c r="G18" s="59"/>
       <c r="H18" s="2" t="s">
         <v>64</v>
       </c>
@@ -22003,11 +22003,11 @@
       <c r="D19" s="2" t="s">
         <v>767</v>
       </c>
-      <c r="E19" s="68"/>
-      <c r="F19" s="60" t="s">
+      <c r="E19" s="61"/>
+      <c r="F19" s="57" t="s">
         <v>61</v>
       </c>
-      <c r="G19" s="62"/>
+      <c r="G19" s="59"/>
       <c r="H19" s="2" t="s">
         <v>771</v>
       </c>
@@ -22030,11 +22030,11 @@
       <c r="D20" s="2" t="s">
         <v>767</v>
       </c>
-      <c r="E20" s="68"/>
-      <c r="F20" s="60" t="s">
+      <c r="E20" s="61"/>
+      <c r="F20" s="57" t="s">
         <v>613</v>
       </c>
-      <c r="G20" s="62"/>
+      <c r="G20" s="59"/>
       <c r="H20" s="2" t="s">
         <v>771</v>
       </c>
@@ -22057,7 +22057,7 @@
       <c r="D21" s="2" t="s">
         <v>767</v>
       </c>
-      <c r="E21" s="68"/>
+      <c r="E21" s="61"/>
       <c r="F21" s="44" t="s">
         <v>799</v>
       </c>
@@ -22086,8 +22086,8 @@
       <c r="D22" s="2" t="s">
         <v>773</v>
       </c>
-      <c r="E22" s="68"/>
-      <c r="F22" s="68"/>
+      <c r="E22" s="61"/>
+      <c r="F22" s="61"/>
       <c r="G22" s="43" t="s">
         <v>803</v>
       </c>
@@ -22113,8 +22113,8 @@
       <c r="D23" s="2" t="s">
         <v>773</v>
       </c>
-      <c r="E23" s="68"/>
-      <c r="F23" s="68"/>
+      <c r="E23" s="61"/>
+      <c r="F23" s="61"/>
       <c r="G23" s="43" t="s">
         <v>807</v>
       </c>
@@ -22142,8 +22142,8 @@
       <c r="D24" s="2" t="s">
         <v>773</v>
       </c>
-      <c r="E24" s="68"/>
-      <c r="F24" s="68"/>
+      <c r="E24" s="61"/>
+      <c r="F24" s="61"/>
       <c r="G24" s="43" t="s">
         <v>806</v>
       </c>
@@ -22171,8 +22171,8 @@
       <c r="D25" s="2" t="s">
         <v>773</v>
       </c>
-      <c r="E25" s="68"/>
-      <c r="F25" s="68"/>
+      <c r="E25" s="61"/>
+      <c r="F25" s="61"/>
       <c r="G25" s="43" t="s">
         <v>805</v>
       </c>
@@ -22200,8 +22200,8 @@
       <c r="D26" s="2" t="s">
         <v>773</v>
       </c>
-      <c r="E26" s="68"/>
-      <c r="F26" s="63"/>
+      <c r="E26" s="61"/>
+      <c r="F26" s="62"/>
       <c r="G26" s="43" t="s">
         <v>805</v>
       </c>
@@ -22216,13 +22216,13 @@
       <c r="L26" s="2"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A27" s="89" t="s">
+      <c r="A27" s="93" t="s">
         <v>835</v>
       </c>
-      <c r="B27" s="90"/>
-      <c r="C27" s="90"/>
-      <c r="D27" s="90"/>
-      <c r="E27" s="68"/>
+      <c r="B27" s="94"/>
+      <c r="C27" s="94"/>
+      <c r="D27" s="94"/>
+      <c r="E27" s="61"/>
       <c r="F27" s="41"/>
       <c r="G27" s="43"/>
       <c r="H27" s="2"/>
@@ -22245,7 +22245,7 @@
       <c r="D28" s="2" t="s">
         <v>773</v>
       </c>
-      <c r="E28" s="68"/>
+      <c r="E28" s="61"/>
       <c r="F28" s="44" t="s">
         <v>39</v>
       </c>
@@ -22274,7 +22274,7 @@
       <c r="D29" s="2" t="s">
         <v>773</v>
       </c>
-      <c r="E29" s="68"/>
+      <c r="E29" s="61"/>
       <c r="F29" s="33"/>
       <c r="G29" s="43" t="s">
         <v>812</v>
@@ -22301,11 +22301,11 @@
       <c r="D30" s="2" t="s">
         <v>767</v>
       </c>
-      <c r="E30" s="63"/>
-      <c r="F30" s="60" t="s">
+      <c r="E30" s="62"/>
+      <c r="F30" s="57" t="s">
         <v>814</v>
       </c>
-      <c r="G30" s="62"/>
+      <c r="G30" s="59"/>
       <c r="H30" s="2" t="s">
         <v>801</v>
       </c>
@@ -22330,11 +22330,11 @@
       <c r="D31" s="2" t="s">
         <v>773</v>
       </c>
-      <c r="E31" s="67" t="s">
+      <c r="E31" s="60" t="s">
         <v>815</v>
       </c>
-      <c r="F31" s="61"/>
-      <c r="G31" s="62"/>
+      <c r="F31" s="58"/>
+      <c r="G31" s="59"/>
       <c r="H31" s="5" t="s">
         <v>816</v>
       </c>
@@ -22357,11 +22357,11 @@
       <c r="D32" s="2" t="s">
         <v>767</v>
       </c>
-      <c r="E32" s="65"/>
-      <c r="F32" s="60" t="s">
+      <c r="E32" s="64"/>
+      <c r="F32" s="57" t="s">
         <v>817</v>
       </c>
-      <c r="G32" s="62"/>
+      <c r="G32" s="59"/>
       <c r="H32" s="5" t="s">
         <v>818</v>
       </c>
@@ -22386,11 +22386,11 @@
       <c r="D33" s="2" t="s">
         <v>773</v>
       </c>
-      <c r="E33" s="65"/>
-      <c r="F33" s="60" t="s">
+      <c r="E33" s="64"/>
+      <c r="F33" s="57" t="s">
         <v>46</v>
       </c>
-      <c r="G33" s="62"/>
+      <c r="G33" s="59"/>
       <c r="H33" s="5" t="s">
         <v>819</v>
       </c>
@@ -22413,7 +22413,7 @@
       <c r="D34" s="2" t="s">
         <v>773</v>
       </c>
-      <c r="E34" s="65"/>
+      <c r="E34" s="64"/>
       <c r="F34" s="44" t="s">
         <v>820</v>
       </c>
@@ -22442,7 +22442,7 @@
       <c r="D35" s="2" t="s">
         <v>773</v>
       </c>
-      <c r="E35" s="65"/>
+      <c r="E35" s="64"/>
       <c r="F35" s="33"/>
       <c r="G35" s="43" t="s">
         <v>824</v>
@@ -22469,7 +22469,7 @@
       <c r="D36" s="2" t="s">
         <v>773</v>
       </c>
-      <c r="E36" s="65"/>
+      <c r="E36" s="64"/>
       <c r="F36" s="44" t="s">
         <v>67</v>
       </c>
@@ -22498,8 +22498,8 @@
       <c r="D37" s="2" t="s">
         <v>773</v>
       </c>
-      <c r="E37" s="65"/>
-      <c r="F37" s="68"/>
+      <c r="E37" s="64"/>
+      <c r="F37" s="61"/>
       <c r="G37" s="43" t="s">
         <v>129</v>
       </c>
@@ -22525,8 +22525,8 @@
       <c r="D38" s="2" t="s">
         <v>773</v>
       </c>
-      <c r="E38" s="65"/>
-      <c r="F38" s="68"/>
+      <c r="E38" s="64"/>
+      <c r="F38" s="61"/>
       <c r="G38" s="43" t="s">
         <v>130</v>
       </c>
@@ -22552,8 +22552,8 @@
       <c r="D39" s="2" t="s">
         <v>773</v>
       </c>
-      <c r="E39" s="65"/>
-      <c r="F39" s="63"/>
+      <c r="E39" s="64"/>
+      <c r="F39" s="62"/>
       <c r="G39" s="43" t="s">
         <v>131</v>
       </c>
@@ -22579,11 +22579,11 @@
       <c r="D40" s="2" t="s">
         <v>767</v>
       </c>
-      <c r="E40" s="65"/>
-      <c r="F40" s="60" t="s">
+      <c r="E40" s="64"/>
+      <c r="F40" s="57" t="s">
         <v>826</v>
       </c>
-      <c r="G40" s="62"/>
+      <c r="G40" s="59"/>
       <c r="H40" s="2" t="s">
         <v>64</v>
       </c>
@@ -22606,11 +22606,11 @@
       <c r="D41" s="2" t="s">
         <v>767</v>
       </c>
-      <c r="E41" s="65"/>
-      <c r="F41" s="60" t="s">
+      <c r="E41" s="64"/>
+      <c r="F41" s="57" t="s">
         <v>827</v>
       </c>
-      <c r="G41" s="62"/>
+      <c r="G41" s="59"/>
       <c r="H41" s="2" t="s">
         <v>771</v>
       </c>
@@ -22620,13 +22620,13 @@
       <c r="L41" s="2"/>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A42" s="91" t="s">
+      <c r="A42" s="95" t="s">
         <v>834</v>
       </c>
-      <c r="B42" s="91"/>
-      <c r="C42" s="91"/>
-      <c r="D42" s="91"/>
-      <c r="E42" s="66"/>
+      <c r="B42" s="95"/>
+      <c r="C42" s="95"/>
+      <c r="D42" s="95"/>
+      <c r="E42" s="65"/>
       <c r="F42" s="48"/>
       <c r="G42" s="48"/>
       <c r="H42" s="48"/>
@@ -22652,10 +22652,10 @@
       <c r="E43" s="44" t="s">
         <v>836</v>
       </c>
-      <c r="F43" s="60" t="s">
+      <c r="F43" s="57" t="s">
         <v>837</v>
       </c>
-      <c r="G43" s="62"/>
+      <c r="G43" s="59"/>
       <c r="H43" s="10" t="s">
         <v>838</v>
       </c>
@@ -22679,10 +22679,10 @@
         <v>767</v>
       </c>
       <c r="E44" s="33"/>
-      <c r="F44" s="60" t="s">
+      <c r="F44" s="57" t="s">
         <v>840</v>
       </c>
-      <c r="G44" s="62"/>
+      <c r="G44" s="59"/>
       <c r="H44" s="10" t="s">
         <v>64</v>
       </c>
@@ -22835,6 +22835,17 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A42:D42"/>
+    <mergeCell ref="E32:E42"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="F37:F39"/>
+    <mergeCell ref="E31:G31"/>
     <mergeCell ref="E2:G2"/>
     <mergeCell ref="F18:G18"/>
     <mergeCell ref="F19:G19"/>
@@ -22849,17 +22860,6 @@
     <mergeCell ref="E5:E30"/>
     <mergeCell ref="F22:F26"/>
     <mergeCell ref="F30:G30"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A42:D42"/>
-    <mergeCell ref="E32:E42"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="F37:F39"/>
-    <mergeCell ref="E31:G31"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
